--- a/nscod16-step3.xlsx
+++ b/nscod16-step3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\dtu\steps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\dtu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8102,27 +8102,12 @@
         <f t="shared" si="25"/>
         <v>12.642153498347383</v>
       </c>
-      <c r="R45">
-        <v>2016</v>
-      </c>
-      <c r="S45" s="10">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="U45" s="10">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="V45" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="X45" s="10">
-        <v>0.2</v>
-      </c>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
       <c r="AP45">
         <v>2016</v>
       </c>

--- a/nscod16-step3.xlsx
+++ b/nscod16-step3.xlsx
@@ -2272,23 +2272,23 @@
       </c>
       <c r="K8" s="9">
         <f>EXP(K54)</f>
-        <v>1.2210054926192453</v>
+        <v>1.220953047421329</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" ref="L8:P8" si="0">EXP(L54)</f>
-        <v>5.0261003097189052</v>
+        <v>5.0257843027939249</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="0"/>
-        <v>6.2494715593243964</v>
+        <v>6.2491973967308905</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="0"/>
-        <v>4.970746047210767</v>
+        <v>4.9673411289281795</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>3.8804950701527585</v>
+        <v>3.8878733181069869</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="0"/>
@@ -2299,23 +2299,23 @@
       </c>
       <c r="AX8" s="6">
         <f>EXP(AX54)</f>
-        <v>6.2888397468524202E-3</v>
+        <v>6.2928585892864783E-3</v>
       </c>
       <c r="AY8" s="6">
         <f t="shared" ref="AY8:BB8" si="1">EXP(AY54)</f>
-        <v>2.8501143921786848E-2</v>
+        <v>2.851418675733924E-2</v>
       </c>
       <c r="AZ8" s="6">
         <f t="shared" si="1"/>
-        <v>5.4449887297868593E-2</v>
+        <v>5.4501824273355808E-2</v>
       </c>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>5.4904752984009035E-2</v>
+        <v>5.502220848172118E-2</v>
       </c>
       <c r="BB8" s="6">
         <f t="shared" si="1"/>
-        <v>6.6190350012338445E-2</v>
+        <v>6.6337432617005157E-2</v>
       </c>
     </row>
     <row r="11" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2470,58 +2470,58 @@
       </c>
       <c r="B12" s="4">
         <f>EXP(B57)</f>
-        <v>889.32013763106454</v>
+        <v>887.94011684749546</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12:G12" si="2">EXP(C57)</f>
-        <v>306.36285517686372</v>
+        <v>307.37817375320321</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>33.248642435678697</v>
+        <v>33.411594486415325</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>20.676555528709404</v>
+        <v>20.390060706927127</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>6.1119802833291059</v>
+        <v>6.0544074662663396</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>16.389916901155324</v>
+        <v>16.490594857324634</v>
       </c>
       <c r="I12">
         <v>1983</v>
       </c>
       <c r="J12" s="9">
         <f>EXP(J57)</f>
-        <v>0.17536898912777871</v>
+        <v>0.17688788654039389</v>
       </c>
       <c r="K12" s="11">
         <f>$J12*K$8</f>
-        <v>0.21412649896010252</v>
+        <v>0.21597180412341221</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" ref="L12:P27" si="3">$J12*L$8</f>
-        <v>0.8814221305702199</v>
+        <v>0.88900036352910439</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>1.0959635099415224</v>
+        <v>1.1054073200814587</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="3"/>
-        <v>0.87171470951025398</v>
+        <v>0.87866247402127995</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="3"/>
-        <v>0.68051849776801798</v>
+        <v>0.68771769437673347</v>
       </c>
       <c r="P12" s="11">
         <f t="shared" si="3"/>
-        <v>0.17536898912777871</v>
+        <v>0.17688788654039389</v>
       </c>
       <c r="R12">
         <v>1983</v>
@@ -2570,27 +2570,27 @@
       </c>
       <c r="AI12" s="5">
         <f>K12/(K12+S12) * B12*(1-EXP(-K12-S12))</f>
-        <v>96.016577898367842</v>
+        <v>96.627026309332706</v>
       </c>
       <c r="AJ12" s="5">
         <f t="shared" ref="AJ12:AN12" si="4">L12/(L12+T12) * C12*(1-EXP(-L12-T12))</f>
-        <v>134.87689651963063</v>
+        <v>136.10312687507835</v>
       </c>
       <c r="AK12" s="5">
         <f t="shared" si="4"/>
-        <v>20.327174043192464</v>
+        <v>20.526367937917307</v>
       </c>
       <c r="AL12" s="5">
         <f t="shared" si="4"/>
-        <v>11.059141171313255</v>
+        <v>10.961400085467494</v>
       </c>
       <c r="AM12" s="5">
         <f t="shared" si="4"/>
-        <v>2.7654125178877909</v>
+        <v>2.759840684386774</v>
       </c>
       <c r="AN12" s="5">
         <f t="shared" si="4"/>
-        <v>2.3964365088421506</v>
+        <v>2.4303095593959423</v>
       </c>
       <c r="AP12">
         <v>1983</v>
@@ -2615,23 +2615,23 @@
       </c>
       <c r="AX12" s="11">
         <f>AX$8*B12</f>
-        <v>5.5927918292105039</v>
+        <v>5.5876815910758006</v>
       </c>
       <c r="AY12" s="11">
         <f t="shared" ref="AY12:BB12" si="5">AY$8*C12</f>
-        <v>8.7316918276853333</v>
+        <v>8.764638651528708</v>
       </c>
       <c r="AZ12" s="11">
         <f t="shared" si="5"/>
-        <v>1.8103848334298362</v>
+        <v>1.8209928513912319</v>
       </c>
       <c r="BA12" s="11">
         <f t="shared" si="5"/>
-        <v>1.1352411738639361</v>
+        <v>1.1219061711714955</v>
       </c>
       <c r="BB12" s="11">
         <f t="shared" si="5"/>
-        <v>0.404554114222065</v>
+        <v>0.40163384732933621</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -2640,58 +2640,58 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ref="B13:B45" si="6">EXP(B58)</f>
-        <v>1902.0373338281902</v>
+        <v>1856.3741751904145</v>
       </c>
       <c r="C13" s="5">
         <f>B12*EXP(-K12-S12)</f>
-        <v>184.81046410531943</v>
+        <v>184.18349214467389</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ref="D13:F13" si="7">C12*EXP(-L12-T12)</f>
-        <v>62.075294156277373</v>
+        <v>61.810821993704877</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="7"/>
-        <v>8.9894388512958159</v>
+        <v>8.9485871543262885</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="7"/>
-        <v>7.0800839554515731</v>
+        <v>6.9336411095185717</v>
       </c>
       <c r="G13" s="5">
         <f>F12*EXP(-O12-W12) + G12*EXP(-P12-X12)</f>
-        <v>13.794289264806187</v>
+        <v>13.804390466001148</v>
       </c>
       <c r="I13">
         <v>1984</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" ref="J13:J44" si="8">EXP(J58)</f>
-        <v>0.18086791301831637</v>
+        <v>0.17894798836953776</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" ref="K13:P44" si="9">$J13*K$8</f>
-        <v>0.22084071523394419</v>
+        <v>0.21848709172970368</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="3"/>
-        <v>0.90906027363957187</v>
+        <v>0.89935399096417268</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="3"/>
-        <v>1.1303288784023269</v>
+        <v>1.118281303069145</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="3"/>
-        <v>0.89904846370305691</v>
+        <v>0.88889570256696648</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" si="3"/>
-        <v>0.70185704481639455</v>
+        <v>0.69572710931084525</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" si="3"/>
-        <v>0.18086791301831637</v>
+        <v>0.17894798836953776</v>
       </c>
       <c r="R13">
         <v>1984</v>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="AI13" s="5">
         <f t="shared" ref="AI13:AI44" si="10">K13/(K13+S13) * B13*(1-EXP(-K13-S13))</f>
-        <v>212.29409426414696</v>
+        <v>205.17009134920733</v>
       </c>
       <c r="AJ13" s="5">
         <f t="shared" ref="AJ13:AJ44" si="11">L13/(L13+T13) * C13*(1-EXP(-L13-T13))</f>
-        <v>82.996301430343976</v>
+        <v>82.126354497139317</v>
       </c>
       <c r="AK13" s="5">
         <f t="shared" ref="AK13:AK44" si="12">M13/(M13+U13) * D13*(1-EXP(-M13-U13))</f>
-        <v>38.616247050941986</v>
+        <v>38.22188661659132</v>
       </c>
       <c r="AL13" s="5">
         <f t="shared" ref="AL13:AL44" si="13">N13/(N13+V13) * E13*(1-EXP(-N13-V13))</f>
-        <v>4.9034558177261252</v>
+        <v>4.8462111203072045</v>
       </c>
       <c r="AM13" s="5">
         <f t="shared" ref="AM13:AM44" si="14">O13/(O13+W13) * F13*(1-EXP(-O13-W13))</f>
-        <v>3.2739406536517395</v>
+        <v>3.1865324993199691</v>
       </c>
       <c r="AN13" s="5">
         <f t="shared" ref="AN13:AN44" si="15">P13/(P13+X13) * G13*(1-EXP(-P13-X13))</f>
-        <v>2.0748095046474866</v>
+        <v>2.0561367727683444</v>
       </c>
       <c r="AP13">
         <v>1984</v>
@@ -2785,23 +2785,23 @@
       </c>
       <c r="AX13" s="11">
         <f t="shared" ref="AX13:AX45" si="16">AX$8*B13</f>
-        <v>11.961607984975927</v>
+        <v>11.681900173276601</v>
       </c>
       <c r="AY13" s="11">
         <f t="shared" ref="AY13:AY45" si="17">AY$8*C13</f>
-        <v>5.2673096357179308</v>
+        <v>5.2518424926321563</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" ref="AZ13:AZ45" si="18">AZ$8*D13</f>
-        <v>3.3799927707913437</v>
+        <v>3.3688025584925794</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" ref="BA13:BA45" si="19">BA$8*E13</f>
-        <v>0.49356291959525073</v>
+        <v>0.49237102802219312</v>
       </c>
       <c r="BB13" s="11">
         <f t="shared" ref="BB13:BB45" si="20">BB$8*F13</f>
-        <v>0.46863323512808125</v>
+        <v>0.45995994989318512</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -2810,58 +2810,58 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="6"/>
-        <v>402.87477181661853</v>
+        <v>381.86213249012735</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:C45" si="21">B13*EXP(-K13-S13)</f>
-        <v>397.75655862633295</v>
+        <v>389.12218879511079</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" ref="D14:D45" si="22">C13*EXP(-L13-T13)</f>
-        <v>36.352773753748913</v>
+        <v>36.582811891421201</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E45" si="23">D13*EXP(-M13-U13)</f>
-        <v>16.216337013409593</v>
+        <v>16.342958948393512</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F45" si="24">E13*EXP(-N13-V13)</f>
-        <v>2.9951729124935786</v>
+        <v>3.0119868902056441</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ref="G14:G45" si="25">F13*EXP(-O13-W13) + G13*EXP(-P13-X13)</f>
-        <v>12.298404986259065</v>
+        <v>12.281305628934552</v>
       </c>
       <c r="I14">
         <v>1985</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="8"/>
-        <v>0.17435934651809218</v>
+        <v>0.173333724809971</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="9"/>
-        <v>0.21289371978809282</v>
+        <v>0.21163233952762411</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="3"/>
-        <v>0.87634756553696902</v>
+        <v>0.8711379132947541</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>1.0896537771672044</v>
+        <v>1.0831966618481395</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="3"/>
-        <v>0.86669603249905913</v>
+        <v>0.86100774027888771</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="3"/>
-        <v>0.67660058459851324</v>
+        <v>0.67389956381678529</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="3"/>
-        <v>0.17435934651809218</v>
+        <v>0.173333724809971</v>
       </c>
       <c r="R14">
         <v>1985</v>
@@ -2910,27 +2910,27 @@
       </c>
       <c r="AI14" s="5">
         <f t="shared" si="10"/>
-        <v>43.78935709350651</v>
+        <v>41.279137813513366</v>
       </c>
       <c r="AJ14" s="5">
         <f t="shared" si="11"/>
-        <v>174.23954742480254</v>
+        <v>169.77315307066343</v>
       </c>
       <c r="AK14" s="5">
         <f t="shared" si="12"/>
-        <v>22.143286544285104</v>
+        <v>22.207879475435416</v>
       </c>
       <c r="AL14" s="5">
         <f t="shared" si="13"/>
-        <v>8.6414694233747493</v>
+        <v>8.6721340426025595</v>
       </c>
       <c r="AM14" s="5">
         <f t="shared" si="14"/>
-        <v>1.3496466360092991</v>
+        <v>1.3533685951974805</v>
       </c>
       <c r="AN14" s="5">
         <f t="shared" si="15"/>
-        <v>1.788693692036214</v>
+        <v>1.7765540622858589</v>
       </c>
       <c r="AP14">
         <v>1985</v>
@@ -2955,23 +2955,23 @@
       </c>
       <c r="AX14" s="11">
         <f t="shared" si="16"/>
-        <v>2.5336148780044501</v>
+        <v>2.403004400363749</v>
       </c>
       <c r="AY14" s="11">
         <f t="shared" si="17"/>
-        <v>11.336516923243764</v>
+        <v>11.095502762728408</v>
       </c>
       <c r="AZ14" s="11">
         <f t="shared" si="18"/>
-        <v>1.9794044338565437</v>
+        <v>1.9938299851314696</v>
       </c>
       <c r="BA14" s="11">
         <f t="shared" si="19"/>
-        <v>0.89035397802669647</v>
+        <v>0.89922569446671863</v>
       </c>
       <c r="BB14" s="11">
         <f t="shared" si="20"/>
-        <v>0.19825154342542511</v>
+        <v>0.19980747737231982</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -2980,58 +2980,58 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" si="6"/>
-        <v>1939.3368281459327</v>
+        <v>1891.3287693807169</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="21"/>
-        <v>86.550845799950892</v>
+        <v>82.140179533203693</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="22"/>
-        <v>80.760872004233079</v>
+        <v>79.420418172140472</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="23"/>
-        <v>9.8810297372249103</v>
+        <v>10.007970722993679</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="24"/>
-        <v>5.5807499064779762</v>
+        <v>5.6564100203234702</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="25"/>
-        <v>9.7045557715216493</v>
+        <v>9.711851512142383</v>
       </c>
       <c r="I15">
         <v>1986</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="8"/>
-        <v>0.20378241047011136</v>
+        <v>0.20229481784759965</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="9"/>
-        <v>0.24881944248319557</v>
+        <v>0.24699247432856944</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="3"/>
-        <v>1.0242308363790917</v>
+        <v>1.0166901200750227</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="3"/>
-        <v>1.2735323785235311</v>
+        <v>1.2641802490653693</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="3"/>
-        <v>1.0129506113353881</v>
+        <v>1.004867368863416</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" si="3"/>
-        <v>0.79077663921311303</v>
+        <v>0.78649662470099579</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" si="3"/>
-        <v>0.20378241047011136</v>
+        <v>0.20229481784759965</v>
       </c>
       <c r="R15">
         <v>1986</v>
@@ -3080,27 +3080,27 @@
       </c>
       <c r="AI15" s="5">
         <f t="shared" si="10"/>
-        <v>245.25894249411465</v>
+        <v>237.59441349954554</v>
       </c>
       <c r="AJ15" s="5">
         <f t="shared" si="11"/>
-        <v>41.971003699513197</v>
+        <v>39.646946840296508</v>
       </c>
       <c r="AK15" s="5">
         <f t="shared" si="12"/>
-        <v>53.541471998726081</v>
+        <v>52.452617575787208</v>
       </c>
       <c r="AL15" s="5">
         <f t="shared" si="13"/>
-        <v>5.7983676435986586</v>
+        <v>5.8449387264367703</v>
       </c>
       <c r="AM15" s="5">
         <f t="shared" si="14"/>
-        <v>2.8004139339657441</v>
+        <v>2.8280838183304828</v>
       </c>
       <c r="AN15" s="5">
         <f t="shared" si="15"/>
-        <v>1.6270782219596995</v>
+        <v>1.6175371158009424</v>
       </c>
       <c r="AP15">
         <v>1986</v>
@@ -3125,23 +3125,23 @@
       </c>
       <c r="AX15" s="11">
         <f t="shared" si="16"/>
-        <v>12.196178527378843</v>
+        <v>11.901864491562069</v>
       </c>
       <c r="AY15" s="11">
         <f t="shared" si="17"/>
-        <v>2.4667981126967811</v>
+        <v>2.3421604194911443</v>
       </c>
       <c r="AZ15" s="11">
         <f t="shared" si="18"/>
-        <v>4.3974203787080821</v>
+        <v>4.3285576749344346</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" si="19"/>
-        <v>0.54251549694998136</v>
+        <v>0.55066065159952005</v>
       </c>
       <c r="BB15" s="11">
         <f t="shared" si="20"/>
-        <v>0.36939178964110231</v>
+        <v>0.37523171857736098</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -3150,58 +3150,58 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" si="6"/>
-        <v>669.06859075091472</v>
+        <v>671.57257960207232</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="21"/>
-        <v>411.69464019304371</v>
+        <v>402.23739103152565</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="22"/>
-        <v>15.157587286487974</v>
+        <v>14.494034835813512</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="23"/>
-        <v>18.26451693535666</v>
+        <v>18.130130847990529</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="24"/>
-        <v>2.9378150342114626</v>
+        <v>2.9997065851550326</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="25"/>
-        <v>8.5526662779414462</v>
+        <v>8.6042928964948473</v>
       </c>
       <c r="I16">
         <v>1987</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="8"/>
-        <v>0.17163611563297082</v>
+        <v>0.17065551999140777</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="9"/>
-        <v>0.2095686399196893</v>
+        <v>0.20836237719278086</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="3"/>
-        <v>0.86266033394182451</v>
+        <v>0.85767783355795202</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="3"/>
-        <v>1.0726350232011646</v>
+        <v>1.0664600312680619</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="3"/>
-        <v>0.85315954334119981</v>
+        <v>0.84770418333194497</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="3"/>
-        <v>0.66603310057391207</v>
+        <v>0.66348704276226778</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="3"/>
-        <v>0.17163611563297082</v>
+        <v>0.17065551999140777</v>
       </c>
       <c r="R16">
         <v>1987</v>
@@ -3250,27 +3250,27 @@
       </c>
       <c r="AI16" s="5">
         <f t="shared" si="10"/>
-        <v>73.074541062280474</v>
+        <v>72.959335445984252</v>
       </c>
       <c r="AJ16" s="5">
         <f t="shared" si="11"/>
-        <v>178.43702400734801</v>
+        <v>173.65410914816013</v>
       </c>
       <c r="AK16" s="5">
         <f t="shared" si="12"/>
-        <v>9.146313579066339</v>
+        <v>8.7168492369116937</v>
       </c>
       <c r="AL16" s="5">
         <f t="shared" si="13"/>
-        <v>9.6346533128369956</v>
+        <v>9.5240979450578038</v>
       </c>
       <c r="AM16" s="5">
         <f t="shared" si="14"/>
-        <v>1.3090362626383369</v>
+        <v>1.3329590252858357</v>
       </c>
       <c r="AN16" s="5">
         <f t="shared" si="15"/>
-        <v>1.22604616047882</v>
+        <v>1.2269643275252762</v>
       </c>
       <c r="AP16">
         <v>1987</v>
@@ -3295,23 +3295,23 @@
       </c>
       <c r="AX16" s="11">
         <f t="shared" si="16"/>
-        <v>4.2076651468848878</v>
+        <v>4.2261112758781776</v>
       </c>
       <c r="AY16" s="11">
         <f t="shared" si="17"/>
-        <v>11.73376819197019</v>
+        <v>11.469472088657815</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" si="18"/>
-        <v>0.82532891945687603</v>
+        <v>0.78995133963340547</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" si="19"/>
-        <v>1.0028087907080072</v>
+        <v>0.99755983931901926</v>
       </c>
       <c r="BB16" s="11">
         <f t="shared" si="20"/>
-        <v>0.19445500538596674</v>
+        <v>0.19899283346350863</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
@@ -3320,58 +3320,58 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="6"/>
-        <v>478.40987754874794</v>
+        <v>483.16118541222738</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="21"/>
-        <v>151.76267351984367</v>
+        <v>152.51450689612372</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="22"/>
-        <v>84.74286687311654</v>
+        <v>83.209756429003562</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="23"/>
-        <v>4.1865047379367386</v>
+        <v>4.0280288729051916</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="24"/>
-        <v>6.3712817692111683</v>
+        <v>6.3589995315453542</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="25"/>
-        <v>7.1336568948530248</v>
+        <v>7.204329305409912</v>
       </c>
       <c r="I17">
         <v>1988</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="8"/>
-        <v>0.15859578913773514</v>
+        <v>0.15600127425076285</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="9"/>
-        <v>0.19364632964345824</v>
+        <v>0.1904702311980794</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="3"/>
-        <v>0.79711834490528477</v>
+        <v>0.78402875534533401</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="3"/>
-        <v>0.99113987364488476</v>
+        <v>0.97488275693456894</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="3"/>
-        <v>0.78833939196066927</v>
+        <v>0.77491154575101884</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>0.61543017789596766</v>
+        <v>0.60651319175023144</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="3"/>
-        <v>0.15859578913773514</v>
+        <v>0.15600127425076285</v>
       </c>
       <c r="R17">
         <v>1988</v>
@@ -3420,27 +3420,27 @@
       </c>
       <c r="AI17" s="5">
         <f t="shared" si="10"/>
-        <v>49.080028150608499</v>
+        <v>48.813983504852459</v>
       </c>
       <c r="AJ17" s="5">
         <f t="shared" si="11"/>
-        <v>62.295558707786235</v>
+        <v>61.882220757005229</v>
       </c>
       <c r="AK17" s="5">
         <f t="shared" si="12"/>
-        <v>48.791165258605503</v>
+        <v>47.431991048828031</v>
       </c>
       <c r="AL17" s="5">
         <f t="shared" si="13"/>
-        <v>2.0964475478466653</v>
+        <v>1.9939311662420656</v>
       </c>
       <c r="AM17" s="5">
         <f t="shared" si="14"/>
-        <v>2.6810409954053354</v>
+        <v>2.6473070014355282</v>
       </c>
       <c r="AN17" s="5">
         <f t="shared" si="15"/>
-        <v>0.95073662748710464</v>
+        <v>0.94560110440833056</v>
       </c>
       <c r="AP17">
         <v>1988</v>
@@ -3465,23 +3465,23 @@
       </c>
       <c r="AX17" s="11">
         <f t="shared" si="16"/>
-        <v>3.0086430532153652</v>
+        <v>3.0404650156311717</v>
       </c>
       <c r="AY17" s="11">
         <f t="shared" si="17"/>
-        <v>4.3254097999442145</v>
+        <v>4.3488271328395749</v>
       </c>
       <c r="AZ17" s="11">
         <f t="shared" si="18"/>
-        <v>4.6142395505394775</v>
+        <v>4.5350835227222905</v>
       </c>
       <c r="BA17" s="11">
         <f t="shared" si="19"/>
-        <v>0.22985900850280011</v>
+        <v>0.22163104441538184</v>
       </c>
       <c r="BB17" s="11">
         <f t="shared" si="20"/>
-        <v>0.42171737033131818</v>
+        <v>0.42183970293545731</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -3490,58 +3490,58 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" si="6"/>
-        <v>878.56981426228685</v>
+        <v>874.95659195580254</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="21"/>
-        <v>113.27534314183484</v>
+        <v>114.76425685782422</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="22"/>
-        <v>33.354730198069895</v>
+        <v>33.961616599760291</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="23"/>
-        <v>25.367826614080286</v>
+        <v>25.317145369247939</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="24"/>
-        <v>1.5581929779941595</v>
+        <v>1.519476088963621</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="25"/>
-        <v>7.8029441359294012</v>
+        <v>7.8851621115622592</v>
       </c>
       <c r="I18">
         <v>1989</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="8"/>
-        <v>0.19240732562785465</v>
+        <v>0.1922311494282653</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" si="9"/>
-        <v>0.2349304014117902</v>
+        <v>0.23470520770374539</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="3"/>
-        <v>0.96705851893034644</v>
+        <v>0.96611229330460913</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="3"/>
-        <v>1.2024441093169456</v>
+        <v>1.2012903985777024</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="3"/>
-        <v>0.95640795331905337</v>
+        <v>0.95487769481616092</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>0.74663567856016644</v>
+        <v>0.74737035677118979</v>
       </c>
       <c r="P18" s="11">
         <f t="shared" si="3"/>
-        <v>0.19240732562785465</v>
+        <v>0.1922311494282653</v>
       </c>
       <c r="R18">
         <v>1989</v>
@@ -3590,27 +3590,27 @@
       </c>
       <c r="AI18" s="5">
         <f t="shared" si="10"/>
-        <v>108.75085632628833</v>
+        <v>108.20911917777993</v>
       </c>
       <c r="AJ18" s="5">
         <f t="shared" si="11"/>
-        <v>52.915388115909494</v>
+        <v>53.576998483944621</v>
       </c>
       <c r="AK18" s="5">
         <f t="shared" si="12"/>
-        <v>21.438529253202383</v>
+        <v>21.817363728675026</v>
       </c>
       <c r="AL18" s="5">
         <f t="shared" si="13"/>
-        <v>14.379720091068833</v>
+        <v>14.336929417053595</v>
       </c>
       <c r="AM18" s="5">
         <f t="shared" si="14"/>
-        <v>0.75208525134218707</v>
+        <v>0.73389192042029827</v>
       </c>
       <c r="AN18" s="5">
         <f t="shared" si="15"/>
-        <v>1.2418032450879588</v>
+        <v>1.2538420768910481</v>
       </c>
       <c r="AP18">
         <v>1989</v>
@@ -3635,23 +3635,23 @@
       </c>
       <c r="AX18" s="11">
         <f t="shared" si="16"/>
-        <v>5.525184768317418</v>
+        <v>5.5059781049418968</v>
       </c>
       <c r="AY18" s="11">
         <f t="shared" si="17"/>
-        <v>3.2284768576752256</v>
+        <v>3.2724094531112504</v>
       </c>
       <c r="AZ18" s="11">
         <f t="shared" si="18"/>
-        <v>1.81616130013572</v>
+        <v>1.8509700599592189</v>
       </c>
       <c r="BA18" s="11">
         <f t="shared" si="19"/>
-        <v>1.3928142539872483</v>
+        <v>1.393005250668802</v>
       </c>
       <c r="BB18" s="11">
         <f t="shared" si="20"/>
-        <v>0.10313733860020138</v>
+        <v>0.10079814266477474</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
@@ -3660,58 +3660,58 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" si="6"/>
-        <v>357.84480608743678</v>
+        <v>355.90854533415563</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="21"/>
-        <v>205.07278664114418</v>
+        <v>204.27539689836647</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="22"/>
-        <v>20.963084311632027</v>
+        <v>21.258733319621211</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="23"/>
-        <v>8.0829385472856039</v>
+        <v>8.2395074346621939</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="24"/>
-        <v>7.9810800671635205</v>
+        <v>7.977333070986437</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="25"/>
-        <v>5.8749822332379011</v>
+        <v>5.9159961124747324</v>
       </c>
       <c r="I19">
         <v>1990</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="8"/>
-        <v>0.16314188945314595</v>
+        <v>0.16287221627489129</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="9"/>
-        <v>0.19919714309857292</v>
+        <v>0.1988593288010943</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
-        <v>0.8199675011085843</v>
+        <v>0.81856062791560591</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="3"/>
-        <v>1.0195505982718802</v>
+        <v>1.0178206299448411</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" si="3"/>
-        <v>0.81093690213372116</v>
+        <v>0.80904185866195311</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>0.63307129775833915</v>
+        <v>0.63322654391610045</v>
       </c>
       <c r="P19" s="11">
         <f t="shared" si="3"/>
-        <v>0.16314188945314595</v>
+        <v>0.16287221627489129</v>
       </c>
       <c r="R19">
         <v>1990</v>
@@ -3760,27 +3760,27 @@
       </c>
       <c r="AI19" s="5">
         <f t="shared" si="10"/>
-        <v>38.431267364426681</v>
+        <v>38.163491147362912</v>
       </c>
       <c r="AJ19" s="5">
         <f t="shared" si="11"/>
-        <v>85.718438925482943</v>
+        <v>85.283783546717117</v>
       </c>
       <c r="AK19" s="5">
         <f t="shared" si="12"/>
-        <v>12.270122434718623</v>
+        <v>12.430649315564779</v>
       </c>
       <c r="AL19" s="5">
         <f t="shared" si="13"/>
-        <v>4.1245139188951025</v>
+        <v>4.197899711679101</v>
       </c>
       <c r="AM19" s="5">
         <f t="shared" si="14"/>
-        <v>3.4284814699166786</v>
+        <v>3.4274826747758684</v>
       </c>
       <c r="AN19" s="5">
         <f t="shared" si="15"/>
-        <v>0.80371203780694211</v>
+        <v>0.80808740415534464</v>
       </c>
       <c r="AP19">
         <v>1990</v>
@@ -3805,23 +3805,23 @@
       </c>
       <c r="AX19" s="11">
         <f t="shared" si="16"/>
-        <v>2.2504286397273692</v>
+        <v>2.2396821465064973</v>
       </c>
       <c r="AY19" s="11">
         <f t="shared" si="17"/>
-        <v>5.8448090065011371</v>
+        <v>5.8247468170896184</v>
       </c>
       <c r="AZ19" s="11">
         <f t="shared" si="18"/>
-        <v>1.1414375781840811</v>
+        <v>1.1586397476601291</v>
       </c>
       <c r="BA19" s="11">
         <f t="shared" si="19"/>
-        <v>0.44379174432364094</v>
+        <v>0.45335589585667491</v>
       </c>
       <c r="BB19" s="11">
         <f t="shared" si="20"/>
-        <v>0.52827048312205105</v>
+        <v>0.52919579505996961</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -3830,58 +3830,58 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" si="6"/>
-        <v>387.61174025657056</v>
+        <v>381.33337863685801</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="21"/>
-        <v>88.668282777702288</v>
+        <v>88.218304361039159</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="22"/>
-        <v>43.877316222917884</v>
+        <v>43.768240004796681</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="23"/>
-        <v>6.0934376842038818</v>
+        <v>6.1900747388016084</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="24"/>
-        <v>2.9412027192523764</v>
+        <v>3.0038617357428614</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="25"/>
-        <v>7.5554502453096264</v>
+        <v>7.5829174241849326</v>
       </c>
       <c r="I20">
         <v>1991</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="8"/>
-        <v>0.18107853231271429</v>
+        <v>0.18104924529178609</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="9"/>
-        <v>0.22109788254925564</v>
+        <v>0.22105262777233795</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="3"/>
-        <v>0.91011886734037806</v>
+        <v>0.90991445502014545</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="3"/>
-        <v>1.1316451376925116</v>
+        <v>1.1314124723575221</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="3"/>
-        <v>0.9000953987281517</v>
+        <v>0.89933336249929563</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>0.70267435194998473</v>
+        <v>0.70389653003334218</v>
       </c>
       <c r="P20" s="11">
         <f t="shared" si="3"/>
-        <v>0.18107853231271429</v>
+        <v>0.18104924529178609</v>
       </c>
       <c r="R20">
         <v>1991</v>
@@ -3930,27 +3930,27 @@
       </c>
       <c r="AI20" s="5">
         <f t="shared" si="10"/>
-        <v>46.206714242941736</v>
+        <v>45.449770752925339</v>
       </c>
       <c r="AJ20" s="5">
         <f t="shared" si="11"/>
-        <v>39.762357381282683</v>
+        <v>39.554672316156733</v>
       </c>
       <c r="AK20" s="5">
         <f t="shared" si="12"/>
-        <v>27.270535029074669</v>
+        <v>27.19962341772942</v>
       </c>
       <c r="AL20" s="5">
         <f t="shared" si="13"/>
-        <v>3.3262202546431312</v>
+        <v>3.3771661282021666</v>
       </c>
       <c r="AM20" s="5">
         <f t="shared" si="14"/>
-        <v>1.3611677458783966</v>
+        <v>1.391859443996438</v>
       </c>
       <c r="AN20" s="5">
         <f t="shared" si="15"/>
-        <v>1.1376321315715481</v>
+        <v>1.1415988858708035</v>
       </c>
       <c r="AP20">
         <v>1991</v>
@@ -3975,23 +3975,23 @@
       </c>
       <c r="AX20" s="11">
         <f t="shared" si="16"/>
-        <v>2.4376281184721571</v>
+        <v>2.3996770271365846</v>
       </c>
       <c r="AY20" s="11">
         <f t="shared" si="17"/>
-        <v>2.527147488744987</v>
+        <v>2.5154732059664653</v>
       </c>
       <c r="AZ20" s="11">
         <f t="shared" si="18"/>
-        <v>2.38911492327082</v>
+        <v>2.3854489254954903</v>
       </c>
       <c r="BA20" s="11">
         <f t="shared" si="19"/>
-        <v>0.33455869087466616</v>
+        <v>0.34059158279577789</v>
       </c>
       <c r="BB20" s="11">
         <f t="shared" si="20"/>
-        <v>0.1946792374445564</v>
+        <v>0.19926847548564222</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
@@ -4000,58 +4000,58 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" si="6"/>
-        <v>818.98034387423672</v>
+        <v>811.44044084483733</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="21"/>
-        <v>96.053592088753248</v>
+        <v>94.502035533262529</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="22"/>
-        <v>17.318640022721535</v>
+        <v>17.234273024590607</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="23"/>
-        <v>11.401584467340193</v>
+        <v>11.375887320093934</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="24"/>
-        <v>2.0281357145907304</v>
+        <v>2.0618709489214986</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="25"/>
-        <v>6.353921269176495</v>
+        <v>6.396755967586226</v>
       </c>
       <c r="I21">
         <v>1992</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="8"/>
-        <v>0.16036948336373866</v>
+        <v>0.15730595387602736</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="9"/>
-        <v>0.19581202003563558</v>
+        <v>0.19206318376245463</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="3"/>
-        <v>0.80603311000394773</v>
+        <v>0.79058579372616344</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="3"/>
-        <v>1.0022245252652318</v>
+        <v>0.98303595745233974</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="3"/>
-        <v>0.79715597552353679</v>
+        <v>0.78139233451366985</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>0.62231298959593273</v>
+        <v>0.61158562085397516</v>
       </c>
       <c r="P21" s="11">
         <f t="shared" si="3"/>
-        <v>0.16036948336373866</v>
+        <v>0.15730595387602736</v>
       </c>
       <c r="R21">
         <v>1992</v>
@@ -4100,27 +4100,27 @@
       </c>
       <c r="AI21" s="5">
         <f t="shared" si="10"/>
-        <v>87.898067408448668</v>
+        <v>85.546722821182357</v>
       </c>
       <c r="AJ21" s="5">
         <f t="shared" si="11"/>
-        <v>39.630090457784689</v>
+        <v>38.466500856673392</v>
       </c>
       <c r="AK21" s="5">
         <f t="shared" si="12"/>
-        <v>10.030007779884988</v>
+        <v>9.8657779667549761</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="13"/>
-        <v>5.7520796172847444</v>
+        <v>5.6628941489257834</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" si="14"/>
-        <v>0.86042076835706149</v>
+        <v>0.86365337265222941</v>
       </c>
       <c r="AN21" s="5">
         <f t="shared" si="15"/>
-        <v>0.85557441483773811</v>
+        <v>0.8461058734929866</v>
       </c>
       <c r="AP21">
         <v>1992</v>
@@ -4145,23 +4145,23 @@
       </c>
       <c r="AX21" s="11">
         <f t="shared" si="16"/>
-        <v>5.1504361384471631</v>
+        <v>5.1062799478648406</v>
       </c>
       <c r="AY21" s="11">
         <f t="shared" si="17"/>
-        <v>2.737637252326163</v>
+        <v>2.6946486901441569</v>
       </c>
       <c r="AZ21" s="11">
         <f t="shared" si="18"/>
-        <v>0.94299799738954393</v>
+        <v>0.9392993198652736</v>
       </c>
       <c r="BA21" s="11">
         <f t="shared" si="19"/>
-        <v>0.62600117880562756</v>
+        <v>0.62592644379077689</v>
       </c>
       <c r="BB21" s="11">
         <f t="shared" si="20"/>
-        <v>0.13424301282128459</v>
+        <v>0.13677922513904039</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
@@ -4170,58 +4170,58 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" si="6"/>
-        <v>432.77879333208381</v>
+        <v>435.52324322151327</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="21"/>
-        <v>211.71648894637426</v>
+        <v>210.55519053926065</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="22"/>
-        <v>20.777552072205189</v>
+        <v>20.760156163086656</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="23"/>
-        <v>5.116951513252479</v>
+        <v>5.1906766346579367</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="24"/>
-        <v>4.2063545020932347</v>
+        <v>4.2635563392979465</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="25"/>
-        <v>5.3225343032601451</v>
+        <v>5.3906912578105013</v>
       </c>
       <c r="I22">
         <v>1993</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="8"/>
-        <v>0.15825446583035144</v>
+        <v>0.15730498889669056</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="9"/>
-        <v>0.19322957201038377</v>
+        <v>0.19206200556799266</v>
       </c>
       <c r="L22" s="11">
         <f t="shared" si="3"/>
-        <v>0.79540281972432925</v>
+        <v>0.79058094394816003</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="3"/>
-        <v>0.98900678334285574</v>
+        <v>0.98302992710598025</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" si="3"/>
-        <v>0.78664276047967074</v>
+        <v>0.78138754113212161</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>0.61410567448433695</v>
+        <v>0.6115818691365591</v>
       </c>
       <c r="P22" s="11">
         <f t="shared" si="3"/>
-        <v>0.15825446583035144</v>
+        <v>0.15730498889669056</v>
       </c>
       <c r="R22">
         <v>1993</v>
@@ -4270,27 +4270,27 @@
       </c>
       <c r="AI22" s="5">
         <f t="shared" si="10"/>
-        <v>46.116162074287971</v>
+        <v>46.149293495499123</v>
       </c>
       <c r="AJ22" s="5">
         <f t="shared" si="11"/>
-        <v>86.479888590850067</v>
+        <v>85.640085603720578</v>
       </c>
       <c r="AK22" s="5">
         <f t="shared" si="12"/>
-        <v>11.937680923364828</v>
+        <v>11.884129458257863</v>
       </c>
       <c r="AL22" s="5">
         <f t="shared" si="13"/>
-        <v>2.5586847739739067</v>
+        <v>2.5838978803445838</v>
       </c>
       <c r="AM22" s="5">
         <f t="shared" si="14"/>
-        <v>1.7672411581353569</v>
+        <v>1.7858625965973938</v>
       </c>
       <c r="AN22" s="5">
         <f t="shared" si="15"/>
-        <v>0.70794659734419219</v>
+        <v>0.71302854896979329</v>
       </c>
       <c r="AP22">
         <v>1993</v>
@@ -4315,23 +4315,23 @@
       </c>
       <c r="AX22" s="11">
         <f t="shared" si="16"/>
-        <v>2.7216764771016377</v>
+        <v>2.7406861819404038</v>
       </c>
       <c r="AY22" s="11">
         <f t="shared" si="17"/>
-        <v>6.0341621220760073</v>
+        <v>6.0038100257636264</v>
       </c>
       <c r="AZ22" s="11">
         <f t="shared" si="18"/>
-        <v>1.1313353686571685</v>
+        <v>1.1314663830879734</v>
       </c>
       <c r="BA22" s="11">
         <f t="shared" si="19"/>
-        <v>0.28094495886627857</v>
+        <v>0.28560249195334786</v>
       </c>
       <c r="BB22" s="11">
         <f t="shared" si="20"/>
-        <v>0.27842007676952679</v>
+        <v>0.28283338136698272</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
@@ -4340,58 +4340,58 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" si="6"/>
-        <v>939.10226014351895</v>
+        <v>930.9296956744804</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="21"/>
-        <v>113.63563614469591</v>
+        <v>114.48984861127857</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="22"/>
-        <v>46.193784003254024</v>
+        <v>46.162457644325606</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="23"/>
-        <v>6.2206001751728959</v>
+        <v>6.252651748143542</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="24"/>
-        <v>1.9077338919633053</v>
+        <v>1.9454173313756709</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="25"/>
-        <v>5.5834575310033472</v>
+        <v>5.664786669405407</v>
       </c>
       <c r="I23">
         <v>1994</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="8"/>
-        <v>0.18860969624340862</v>
+        <v>0.18722968412873744</v>
       </c>
       <c r="K23" s="11">
         <f t="shared" si="9"/>
-        <v>0.23029347507444936</v>
+        <v>0.22859865340471483</v>
       </c>
       <c r="L23" s="11">
         <f t="shared" si="3"/>
-        <v>0.94797125270498472</v>
+        <v>0.94097600751127353</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="3"/>
-        <v>1.1787109324859957</v>
+        <v>1.170035254648053</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" si="3"/>
-        <v>0.93753090206754686</v>
+        <v>0.93003371052890915</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>0.73189899645555645</v>
+        <v>0.72792529328171751</v>
       </c>
       <c r="P23" s="11">
         <f t="shared" si="3"/>
-        <v>0.18860969624340862</v>
+        <v>0.18722968412873744</v>
       </c>
       <c r="R23">
         <v>1994</v>
@@ -4440,27 +4440,27 @@
       </c>
       <c r="AI23" s="5">
         <f t="shared" si="10"/>
-        <v>117.91724453559452</v>
+        <v>116.10745875464134</v>
       </c>
       <c r="AJ23" s="5">
         <f t="shared" si="11"/>
-        <v>52.209310071759248</v>
+        <v>52.347678032043362</v>
       </c>
       <c r="AK23" s="5">
         <f t="shared" si="12"/>
-        <v>29.350216501619787</v>
+        <v>29.212507434956006</v>
       </c>
       <c r="AL23" s="5">
         <f t="shared" si="13"/>
-        <v>3.4831649573586705</v>
+        <v>3.4837409368360688</v>
       </c>
       <c r="AM23" s="5">
         <f t="shared" si="14"/>
-        <v>0.90826448853918151</v>
+        <v>0.92272866394158148</v>
       </c>
       <c r="AN23" s="5">
         <f t="shared" si="15"/>
-        <v>0.87259160668533242</v>
+        <v>0.87939178109863092</v>
       </c>
       <c r="AP23">
         <v>1994</v>
@@ -4485,23 +4485,23 @@
       </c>
       <c r="AX23" s="11">
         <f t="shared" si="16"/>
-        <v>5.9058636199495034</v>
+        <v>5.8582089314470016</v>
       </c>
       <c r="AY23" s="11">
         <f t="shared" si="17"/>
-        <v>3.2387456204037814</v>
+        <v>3.2645849251214938</v>
       </c>
       <c r="AZ23" s="11">
         <f t="shared" si="18"/>
-        <v>2.5152463328392667</v>
+        <v>2.5159381545572645</v>
       </c>
       <c r="BA23" s="11">
         <f t="shared" si="19"/>
-        <v>0.34154051603015118</v>
+        <v>0.34403470804995234</v>
       </c>
       <c r="BB23" s="11">
         <f t="shared" si="20"/>
-        <v>0.12627357403945183</v>
+        <v>0.12905399113208757</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
@@ -4510,58 +4510,58 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" si="6"/>
-        <v>565.7522205443737</v>
+        <v>573.06699465518068</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="21"/>
-        <v>239.5185582793759</v>
+        <v>237.83689085238854</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="22"/>
-        <v>21.221735223128235</v>
+        <v>21.531353025596538</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="23"/>
-        <v>11.440209642367783</v>
+        <v>11.532067211226719</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="24"/>
-        <v>1.9943845195007708</v>
+        <v>2.019746367611154</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="25"/>
-        <v>4.5368532114023168</v>
+        <v>4.6151884754603589</v>
       </c>
       <c r="I24">
         <v>1995</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="8"/>
-        <v>0.17194870543063778</v>
+        <v>0.17407637749641167</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" si="9"/>
-        <v>0.20995031377957737</v>
+        <v>0.2125390835883095</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="3"/>
-        <v>0.86423144162069332</v>
+        <v>0.87487032550869537</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="3"/>
-        <v>1.0745885442514191</v>
+        <v>1.0878376450829195</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="3"/>
-        <v>0.85471334784235131</v>
+        <v>0.86469674951275344</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="3"/>
-        <v>0.66724610374273874</v>
+        <v>0.67678690338101843</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="3"/>
-        <v>0.17194870543063778</v>
+        <v>0.17407637749641167</v>
       </c>
       <c r="R24">
         <v>1995</v>
@@ -4610,27 +4610,27 @@
       </c>
       <c r="AI24" s="5">
         <f t="shared" si="10"/>
-        <v>65.458142833068692</v>
+        <v>67.054032880683764</v>
       </c>
       <c r="AJ24" s="5">
         <f t="shared" si="11"/>
-        <v>103.32234418057752</v>
+        <v>103.4499305865899</v>
       </c>
       <c r="AK24" s="5">
         <f t="shared" si="12"/>
-        <v>12.798668793475542</v>
+        <v>13.076942842298047</v>
       </c>
       <c r="AL24" s="5">
         <f t="shared" si="13"/>
-        <v>6.0418913541766726</v>
+        <v>6.1361712134333919</v>
       </c>
       <c r="AM24" s="5">
         <f t="shared" si="14"/>
-        <v>0.88981666144220206</v>
+        <v>0.91029041297643865</v>
       </c>
       <c r="AN24" s="5">
         <f t="shared" si="15"/>
-        <v>0.65145822986516866</v>
+        <v>0.67023770664841897</v>
       </c>
       <c r="AP24">
         <v>1995</v>
@@ -4655,23 +4655,23 @@
       </c>
       <c r="AX24" s="11">
         <f t="shared" si="16"/>
-        <v>3.5579250514294736</v>
+        <v>3.6062295595524421</v>
       </c>
       <c r="AY24" s="11">
         <f t="shared" si="17"/>
-        <v>6.8265529014593831</v>
+        <v>6.7817255235499152</v>
       </c>
       <c r="AZ24" s="11">
         <f t="shared" si="18"/>
-        <v>1.1555210911645406</v>
+        <v>1.1734980189686504</v>
       </c>
       <c r="BA24" s="11">
         <f t="shared" si="19"/>
-        <v>0.62812188449948148</v>
+        <v>0.63451980632133753</v>
       </c>
       <c r="BB24" s="11">
         <f t="shared" si="20"/>
-        <v>0.13200900940494545</v>
+        <v>0.13398478856484586</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
@@ -4680,58 +4680,58 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" si="6"/>
-        <v>382.60128023545934</v>
+        <v>381.08242542680938</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="21"/>
-        <v>148.29535035468371</v>
+        <v>149.82434063161367</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="22"/>
-        <v>48.443562463810693</v>
+        <v>47.594384455885297</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="23"/>
-        <v>5.8266216676984186</v>
+        <v>5.8338228626568371</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="24"/>
-        <v>3.9845363765294066</v>
+        <v>3.9766305230726111</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="25"/>
-        <v>3.9655141117055992</v>
+        <v>4.0153530148483521</v>
       </c>
       <c r="I25">
         <v>1996</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="8"/>
-        <v>0.16423618915297403</v>
+        <v>0.1673043869721329</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="9"/>
-        <v>0.20053328904263459</v>
+        <v>0.20427080112058296</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="3"/>
-        <v>0.82546756116881548</v>
+        <v>0.84083576183310593</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="3"/>
-        <v>1.026389393123333</v>
+        <v>1.0455181395279105</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" si="3"/>
-        <v>0.81637638804110546</v>
+        <v>0.83105796245679164</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" si="3"/>
-        <v>0.63731772234879169</v>
+        <v>0.65045826211120172</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" si="3"/>
-        <v>0.16423618915297403</v>
+        <v>0.1673043869721329</v>
       </c>
       <c r="R25">
         <v>1996</v>
@@ -4780,27 +4780,27 @@
       </c>
       <c r="AI25" s="5">
         <f t="shared" si="10"/>
-        <v>42.554983201869597</v>
+        <v>43.112704525182849</v>
       </c>
       <c r="AJ25" s="5">
         <f t="shared" si="11"/>
-        <v>61.853644789518398</v>
+        <v>63.28998994563667</v>
       </c>
       <c r="AK25" s="5">
         <f t="shared" si="12"/>
-        <v>28.433313137486429</v>
+        <v>28.239667810735032</v>
       </c>
       <c r="AL25" s="5">
         <f t="shared" si="13"/>
-        <v>2.9863364318039096</v>
+        <v>3.0252595664569526</v>
       </c>
       <c r="AM25" s="5">
         <f t="shared" si="14"/>
-        <v>1.7199906833793381</v>
+        <v>1.7420884138333836</v>
       </c>
       <c r="AN25" s="5">
         <f t="shared" si="15"/>
-        <v>0.5458502763208769</v>
+        <v>0.56222546468309864</v>
       </c>
       <c r="AP25">
         <v>1996</v>
@@ -4825,23 +4825,23 @@
       </c>
       <c r="AX25" s="11">
         <f t="shared" si="16"/>
-        <v>2.4061181383413781</v>
+        <v>2.3980978140732212</v>
       </c>
       <c r="AY25" s="11">
         <f t="shared" si="17"/>
-        <v>4.2265871233906447</v>
+        <v>4.2721192295650416</v>
       </c>
       <c r="AZ25" s="11">
         <f t="shared" si="18"/>
-        <v>2.6377465164617497</v>
+        <v>2.5939807780131976</v>
       </c>
       <c r="BA25" s="11">
         <f t="shared" si="19"/>
-        <v>0.31990922339625644</v>
+        <v>0.32098981779453595</v>
       </c>
       <c r="BB25" s="11">
         <f t="shared" si="20"/>
-        <v>0.26373785739937622</v>
+        <v>0.26379945936705529</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
@@ -4850,58 +4850,58 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" si="6"/>
-        <v>1139.4340696683107</v>
+        <v>1154.8735429722751</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="21"/>
-        <v>101.94771808719624</v>
+        <v>101.16419504137176</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="22"/>
-        <v>30.992285990841307</v>
+        <v>30.834302370159591</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="23"/>
-        <v>13.943452827033765</v>
+        <v>13.439479963227662</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="24"/>
-        <v>2.1086774933017529</v>
+        <v>2.0805130991922978</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="25"/>
-        <v>4.4797365144975405</v>
+        <v>4.4799212071099088</v>
       </c>
       <c r="I26">
         <v>1997</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="8"/>
-        <v>0.16428146538654892</v>
+        <v>0.16366964302068765</v>
       </c>
       <c r="K26" s="11">
         <f t="shared" si="9"/>
-        <v>0.20058857157251467</v>
+        <v>0.19983294941646965</v>
       </c>
       <c r="L26" s="11">
         <f t="shared" si="3"/>
-        <v>0.82569512406040912</v>
+        <v>0.82256832273725722</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="3"/>
-        <v>1.0266723456573728</v>
+        <v>1.0228039070887553</v>
       </c>
       <c r="N26" s="11">
         <f t="shared" si="3"/>
-        <v>0.81660144470018048</v>
+        <v>0.81300294933365469</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="3"/>
-        <v>0.63749341654997416</v>
+        <v>0.63632683808422696</v>
       </c>
       <c r="P26" s="11">
         <f t="shared" si="3"/>
-        <v>0.16428146538654892</v>
+        <v>0.16366964302068765</v>
       </c>
       <c r="R26">
         <v>1997</v>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="AI26" s="5">
         <f t="shared" si="10"/>
-        <v>127.11553891130805</v>
+        <v>128.39079772803049</v>
       </c>
       <c r="AJ26" s="5">
         <f t="shared" si="11"/>
-        <v>42.40310159281556</v>
+        <v>41.966929759353818</v>
       </c>
       <c r="AK26" s="5">
         <f t="shared" si="12"/>
-        <v>18.186224021306547</v>
+        <v>18.053177829849279</v>
       </c>
       <c r="AL26" s="5">
         <f t="shared" si="13"/>
-        <v>7.1477807606067012</v>
+        <v>6.8693680947223328</v>
       </c>
       <c r="AM26" s="5">
         <f t="shared" si="14"/>
-        <v>0.9104273207427519</v>
+        <v>0.89707447789312933</v>
       </c>
       <c r="AN26" s="5">
         <f t="shared" si="15"/>
-        <v>0.61678950912325392</v>
+        <v>0.61469441069616937</v>
       </c>
       <c r="AP26">
         <v>1997</v>
@@ -4995,23 +4995,23 @@
       </c>
       <c r="AX26" s="11">
         <f t="shared" si="16"/>
-        <v>7.1657182662478824</v>
+        <v>7.2674558944327883</v>
       </c>
       <c r="AY26" s="11">
         <f t="shared" si="17"/>
-        <v>2.905626585700932</v>
+        <v>2.8846147505655666</v>
       </c>
       <c r="AZ26" s="11">
         <f t="shared" si="18"/>
-        <v>1.6875264793046207</v>
+        <v>1.6805257293699565</v>
       </c>
       <c r="BA26" s="11">
         <f t="shared" si="19"/>
-        <v>0.76556183321247129</v>
+        <v>0.73946986842262685</v>
       </c>
       <c r="BB26" s="11">
         <f t="shared" si="20"/>
-        <v>0.13957410134478349</v>
+        <v>0.13801589752646562</v>
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
@@ -5020,58 +5020,58 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" si="6"/>
-        <v>181.00458044853579</v>
+        <v>181.96744191369359</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="21"/>
-        <v>305.72879448745476</v>
+        <v>310.10569188651885</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="22"/>
-        <v>21.131503630817811</v>
+        <v>21.034765472231843</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="23"/>
-        <v>8.9090355213102921</v>
+        <v>8.8979763678794566</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="24"/>
-        <v>5.045055334850975</v>
+        <v>4.8802365487780053</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="25"/>
-        <v>4.0246763654996167</v>
+        <v>4.0155710142380716</v>
       </c>
       <c r="I27">
         <v>1998</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="8"/>
-        <v>0.19007781856883812</v>
+        <v>0.18761843038580517</v>
       </c>
       <c r="K27" s="11">
         <f t="shared" si="9"/>
-        <v>0.23208606049763572</v>
+        <v>0.22907329433195531</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" si="3"/>
-        <v>0.95535018277953121</v>
+        <v>0.94292976234781434</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="3"/>
-        <v>1.1878859212043764</v>
+        <v>1.1724646067457094</v>
       </c>
       <c r="N27" s="11">
         <f t="shared" si="3"/>
-        <v>0.94482856531349746</v>
+        <v>0.93196474580035849</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="3"/>
-        <v>0.73759603790176675</v>
+        <v>0.72943668948208507</v>
       </c>
       <c r="P27" s="11">
         <f t="shared" si="3"/>
-        <v>0.19007781856883812</v>
+        <v>0.18761843038580517</v>
       </c>
       <c r="R27">
         <v>1998</v>
@@ -5120,27 +5120,27 @@
       </c>
       <c r="AI27" s="5">
         <f t="shared" si="10"/>
-        <v>23.158291099400916</v>
+        <v>23.006400704821811</v>
       </c>
       <c r="AJ27" s="5">
         <f t="shared" si="11"/>
-        <v>139.84420617765679</v>
+        <v>140.63711628328966</v>
       </c>
       <c r="AK27" s="5">
         <f t="shared" si="12"/>
-        <v>13.456887907801802</v>
+        <v>13.300486732156767</v>
       </c>
       <c r="AL27" s="5">
         <f t="shared" si="13"/>
-        <v>5.0124523114834405</v>
+        <v>4.9639996269410398</v>
       </c>
       <c r="AM27" s="5">
         <f t="shared" si="14"/>
-        <v>2.41479784261958</v>
+        <v>2.3180605994599759</v>
       </c>
       <c r="AN27" s="5">
         <f t="shared" si="15"/>
-        <v>0.63344372346959499</v>
+        <v>0.62455108812542304</v>
       </c>
       <c r="AP27">
         <v>1998</v>
@@ -5165,23 +5165,23 @@
       </c>
       <c r="AX27" s="11">
         <f t="shared" si="16"/>
-        <v>1.1383087998870984</v>
+        <v>1.1450953798170751</v>
       </c>
       <c r="AY27" s="11">
         <f t="shared" si="17"/>
-        <v>8.7136203727213424</v>
+        <v>8.8424116129660995</v>
       </c>
       <c r="AZ27" s="11">
         <f t="shared" si="18"/>
-        <v>1.1506079911325309</v>
+        <v>1.1464330913988321</v>
       </c>
       <c r="BA27" s="11">
         <f t="shared" si="19"/>
-        <v>0.48914839462330373</v>
+        <v>0.48958631077889164</v>
       </c>
       <c r="BB27" s="11">
         <f t="shared" si="20"/>
-        <v>0.33393397844540135</v>
+        <v>0.32374236320960675</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
@@ -5190,58 +5190,58 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" si="6"/>
-        <v>275.03310880682528</v>
+        <v>276.33587432866165</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="21"/>
-        <v>47.486063918024406</v>
+        <v>47.882710346523915</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="22"/>
-        <v>55.221271574235736</v>
+        <v>56.711863326553264</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="23"/>
-        <v>5.1597032535567386</v>
+        <v>5.2159016073662832</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="24"/>
-        <v>2.835554258014775</v>
+        <v>2.8687004739315514</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="25"/>
-        <v>4.7002050843513414</v>
+        <v>4.6518530230037136</v>
       </c>
       <c r="I28">
         <v>1999</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="8"/>
-        <v>0.20676277372282639</v>
+        <v>0.20599080362341959</v>
       </c>
       <c r="K28" s="11">
         <f t="shared" si="9"/>
-        <v>0.25245848238476121</v>
+        <v>0.25150509942478272</v>
       </c>
       <c r="L28" s="11">
         <f t="shared" si="9"/>
-        <v>1.0392104410466376</v>
+        <v>1.035265347370488</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="9"/>
-        <v>1.2921580739078291</v>
+        <v>1.2872771937539778</v>
       </c>
       <c r="N28" s="11">
         <f t="shared" si="9"/>
-        <v>1.0277652401930735</v>
+        <v>1.0232265910195799</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="9"/>
-        <v>0.80234192412253813</v>
+        <v>0.8008661491829091</v>
       </c>
       <c r="P28" s="11">
         <f t="shared" si="9"/>
-        <v>0.20676277372282639</v>
+        <v>0.20599080362341959</v>
       </c>
       <c r="R28">
         <v>1999</v>
@@ -5290,27 +5290,27 @@
       </c>
       <c r="AI28" s="5">
         <f t="shared" si="10"/>
-        <v>38.107499571854568</v>
+        <v>38.157631103249095</v>
       </c>
       <c r="AJ28" s="5">
         <f t="shared" si="11"/>
-        <v>22.833078242237477</v>
+        <v>22.968743031139109</v>
       </c>
       <c r="AK28" s="5">
         <f t="shared" si="12"/>
-        <v>36.729967835170115</v>
+        <v>37.648411346029299</v>
       </c>
       <c r="AL28" s="5">
         <f t="shared" si="13"/>
-        <v>3.0539054424905192</v>
+        <v>3.0791246091779176</v>
       </c>
       <c r="AM28" s="5">
         <f t="shared" si="14"/>
-        <v>1.4367205121151323</v>
+        <v>1.4517365985728932</v>
       </c>
       <c r="AN28" s="5">
         <f t="shared" si="15"/>
-        <v>0.79845721844765494</v>
+        <v>0.78757626449189067</v>
       </c>
       <c r="AP28">
         <v>1999</v>
@@ -5335,23 +5335,23 @@
       </c>
       <c r="AX28" s="11">
         <f t="shared" si="16"/>
-        <v>1.7296391463647494</v>
+        <v>1.7389425802971072</v>
       </c>
       <c r="AY28" s="11">
         <f t="shared" si="17"/>
-        <v>1.353407142006783</v>
+        <v>1.3653365452683628</v>
       </c>
       <c r="AZ28" s="11">
         <f t="shared" si="18"/>
-        <v>3.0067920136621304</v>
+        <v>3.0909000092383776</v>
       </c>
       <c r="BA28" s="11">
         <f t="shared" si="19"/>
-        <v>0.28329223260732045</v>
+        <v>0.28699042566065225</v>
       </c>
       <c r="BB28" s="11">
         <f t="shared" si="20"/>
-        <v>0.18768632881697458</v>
+        <v>0.19030222438780506</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
@@ -5360,58 +5360,58 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" si="6"/>
-        <v>441.89116605930269</v>
+        <v>442.66757284363143</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="21"/>
-        <v>71.338275288263063</v>
+        <v>71.744554938376666</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="22"/>
-        <v>7.800796436658417</v>
+        <v>7.8970489479055042</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="23"/>
-        <v>12.124038803595365</v>
+        <v>12.512225731484776</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="24"/>
-        <v>1.5115170700836158</v>
+        <v>1.5349309093157602</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="25"/>
-        <v>4.1701085115751741</v>
+        <v>4.1540277162386232</v>
       </c>
       <c r="I29">
         <v>2000</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="8"/>
-        <v>0.19491910098303866</v>
+        <v>0.19517881222727251</v>
       </c>
       <c r="K29" s="11">
         <f t="shared" si="9"/>
-        <v>0.23799729291669555</v>
+        <v>0.23830416558096373</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" si="9"/>
-        <v>0.97968295382098114</v>
+        <v>0.98092661072978915</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="9"/>
-        <v>1.21814137796258</v>
+        <v>1.2197109252676988</v>
       </c>
       <c r="N29" s="11">
         <f t="shared" si="9"/>
-        <v>0.96889335073731575</v>
+        <v>0.96951974147188102</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="9"/>
-        <v>0.75638261044328925</v>
+        <v>0.75883049631822652</v>
       </c>
       <c r="P29" s="11">
         <f t="shared" si="9"/>
-        <v>0.19491910098303866</v>
+        <v>0.19517881222727251</v>
       </c>
       <c r="R29">
         <v>2000</v>
@@ -5460,27 +5460,27 @@
       </c>
       <c r="AI29" s="5">
         <f t="shared" si="10"/>
-        <v>58.252427185561643</v>
+        <v>58.422980559467128</v>
       </c>
       <c r="AJ29" s="5">
         <f t="shared" si="11"/>
-        <v>32.893376574372553</v>
+        <v>33.107858123834681</v>
       </c>
       <c r="AK29" s="5">
         <f t="shared" si="12"/>
-        <v>5.0274703272218701</v>
+        <v>5.0929938589906083</v>
       </c>
       <c r="AL29" s="5">
         <f t="shared" si="13"/>
-        <v>6.9270768484173066</v>
+        <v>7.1516761797407158</v>
       </c>
       <c r="AM29" s="5">
         <f t="shared" si="14"/>
-        <v>0.73604751759937581</v>
+        <v>0.74909497544488135</v>
       </c>
       <c r="AN29" s="5">
         <f t="shared" si="15"/>
-        <v>0.67152890922206876</v>
+        <v>0.66974938989164123</v>
       </c>
       <c r="AP29">
         <v>2000</v>
@@ -5505,23 +5505,23 @@
       </c>
       <c r="AX29" s="11">
         <f t="shared" si="16"/>
-        <v>2.7789827288967057</v>
+        <v>2.7856444379676439</v>
       </c>
       <c r="AY29" s="11">
         <f t="shared" si="17"/>
-        <v>2.0332224511228358</v>
+        <v>2.0457376383350576</v>
       </c>
       <c r="AZ29" s="11">
         <f t="shared" si="18"/>
-        <v>0.42475248680966571</v>
+        <v>0.43040357403683516</v>
       </c>
       <c r="BA29" s="11">
         <f t="shared" si="19"/>
-        <v>0.66566735567994395</v>
+        <v>0.68845029276811165</v>
       </c>
       <c r="BB29" s="11">
         <f t="shared" si="20"/>
-        <v>0.10004784391845883</v>
+        <v>0.10182337576849269</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
@@ -5530,58 +5530,58 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" si="6"/>
-        <v>156.97818348261643</v>
+        <v>157.43155142133554</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="21"/>
-        <v>117.33889990845068</v>
+        <v>117.50899958591438</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="22"/>
-        <v>12.289559120099309</v>
+        <v>12.344188082131083</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="23"/>
-        <v>1.8405868441038777</v>
+        <v>1.8603752478252906</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="24"/>
-        <v>3.7670673557062204</v>
+        <v>3.8852467035765001</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="25"/>
-        <v>3.3903926314960446</v>
+        <v>3.3863870577684487</v>
       </c>
       <c r="I30">
         <v>2001</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="8"/>
-        <v>0.1234360740456719</v>
+        <v>0.123741369820124</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="9"/>
-        <v>0.15071612439712126</v>
+        <v>0.15108240257397007</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="9"/>
-        <v>0.62040208999143731</v>
+        <v>0.62189743404819708</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="9"/>
-        <v>0.77141023414308685</v>
+        <v>0.77328424614783331</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="9"/>
-        <v>0.61356937714573911</v>
+        <v>0.61466559565741408</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="9"/>
-        <v>0.47899307681324071</v>
+        <v>0.48109077006966927</v>
       </c>
       <c r="P30" s="11">
         <f t="shared" si="9"/>
-        <v>0.1234360740456719</v>
+        <v>0.123741369820124</v>
       </c>
       <c r="R30">
         <v>2001</v>
@@ -5630,27 +5630,27 @@
       </c>
       <c r="AI30" s="5">
         <f t="shared" si="10"/>
-        <v>13.587162379674727</v>
+        <v>13.657519788652177</v>
       </c>
       <c r="AJ30" s="5">
         <f t="shared" si="11"/>
-        <v>38.943053665396626</v>
+        <v>39.070963137142172</v>
       </c>
       <c r="AK30" s="5">
         <f t="shared" si="12"/>
-        <v>5.9916597311580455</v>
+        <v>6.0281909974718708</v>
       </c>
       <c r="AL30" s="5">
         <f t="shared" si="13"/>
-        <v>0.77280096665953601</v>
+        <v>0.78213375914738148</v>
       </c>
       <c r="AM30" s="5">
         <f t="shared" si="14"/>
-        <v>1.3097909165287263</v>
+        <v>1.3555348997566112</v>
       </c>
       <c r="AN30" s="5">
         <f t="shared" si="15"/>
-        <v>0.35756104217408535</v>
+        <v>0.35797021177402621</v>
       </c>
       <c r="AP30">
         <v>2001</v>
@@ -5675,23 +5675,23 @@
       </c>
       <c r="AX30" s="11">
         <f t="shared" si="16"/>
-        <v>0.98721063967417033</v>
+        <v>0.99069449058644721</v>
       </c>
       <c r="AY30" s="11">
         <f t="shared" si="17"/>
-        <v>3.3442928739148945</v>
+        <v>3.3506735598608621</v>
       </c>
       <c r="AZ30" s="11">
         <f t="shared" si="18"/>
-        <v>0.66916510902990045</v>
+        <v>0.67278076964956135</v>
       </c>
       <c r="BA30" s="11">
         <f t="shared" si="19"/>
-        <v>0.10105696602114016</v>
+        <v>0.10236195474007685</v>
       </c>
       <c r="BB30" s="11">
         <f t="shared" si="20"/>
-        <v>0.24934350679424899</v>
+        <v>0.25773729139894747</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
@@ -5700,58 +5700,58 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" si="6"/>
-        <v>216.03351220652146</v>
+        <v>222.98933624174992</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="21"/>
-        <v>45.667674788917672</v>
+        <v>45.782795071227831</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="22"/>
-        <v>28.493165121496876</v>
+        <v>28.491833114508641</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="23"/>
-        <v>4.5192218219274354</v>
+        <v>4.5308116948133828</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="24"/>
-        <v>0.81588250825909159</v>
+        <v>0.8237506680843627</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="25"/>
-        <v>4.363868461151541</v>
+        <v>4.4160249530869313</v>
       </c>
       <c r="I31">
         <v>2002</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="8"/>
-        <v>0.18828096302792005</v>
+        <v>0.18770425778909536</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" si="9"/>
-        <v>0.22989209001273142</v>
+        <v>0.22917808556155472</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" si="9"/>
-        <v>0.94631900658880275</v>
+        <v>0.94336111236401976</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="9"/>
-        <v>1.1766565236051945</v>
+        <v>1.1730009591309187</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" si="9"/>
-        <v>0.93589685273607015</v>
+        <v>0.93239107979071101</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="9"/>
-        <v>0.73062334883345759</v>
+        <v>0.72977037555329938</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" si="9"/>
-        <v>0.18828096302792005</v>
+        <v>0.18770425778909536</v>
       </c>
       <c r="R31">
         <v>2002</v>
@@ -5800,27 +5800,27 @@
       </c>
       <c r="AI31" s="5">
         <f t="shared" si="10"/>
-        <v>27.629143102401621</v>
+        <v>28.438157701224856</v>
       </c>
       <c r="AJ31" s="5">
         <f t="shared" si="11"/>
-        <v>20.327813703734439</v>
+        <v>20.337030557571982</v>
       </c>
       <c r="AK31" s="5">
         <f t="shared" si="12"/>
-        <v>17.98192325943937</v>
+        <v>17.950561345008499</v>
       </c>
       <c r="AL31" s="5">
         <f t="shared" si="13"/>
-        <v>2.5277657144824226</v>
+        <v>2.5283643627662316</v>
       </c>
       <c r="AM31" s="5">
         <f t="shared" si="14"/>
-        <v>0.38797092061968297</v>
+        <v>0.39139648996458637</v>
       </c>
       <c r="AN31" s="5">
         <f t="shared" si="15"/>
-        <v>0.68090830993762363</v>
+        <v>0.68712122987941082</v>
       </c>
       <c r="AP31">
         <v>2002</v>
@@ -5845,23 +5845,23 @@
       </c>
       <c r="AX31" s="11">
         <f t="shared" si="16"/>
-        <v>1.3586001382164996</v>
+        <v>1.4032403598881866</v>
       </c>
       <c r="AY31" s="11">
         <f t="shared" si="17"/>
-        <v>1.3015809717322995</v>
+        <v>1.305459168933981</v>
       </c>
       <c r="AZ31" s="11">
         <f t="shared" si="18"/>
-        <v>1.5514496296250653</v>
+        <v>1.5528568816327297</v>
       </c>
       <c r="BA31" s="11">
         <f t="shared" si="19"/>
-        <v>0.24812675781286911</v>
+        <v>0.24929526566344243</v>
       </c>
       <c r="BB31" s="11">
         <f t="shared" si="20"/>
-        <v>5.4003548790613885E-2</v>
+        <v>5.4645504437259393E-2</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
@@ -5870,58 +5870,58 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" si="6"/>
-        <v>114.64539997863841</v>
+        <v>114.44243070740882</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="21"/>
-        <v>58.005710044360107</v>
+        <v>59.916136842606953</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="22"/>
-        <v>7.8543828905876829</v>
+        <v>7.8975079055589044</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="23"/>
-        <v>6.9657669401084839</v>
+        <v>6.9909505190149881</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="24"/>
-        <v>1.4512757003643462</v>
+        <v>1.4601074453691794</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="25"/>
-        <v>3.281379425092243</v>
+        <v>3.3218604994814314</v>
       </c>
       <c r="I32">
         <v>2003</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="8"/>
-        <v>9.8752791821396832E-2</v>
+        <v>0.10009921350772455</v>
       </c>
       <c r="K32" s="11">
         <f t="shared" si="9"/>
-        <v>0.12057770122541042</v>
+        <v>0.12221643977673455</v>
       </c>
       <c r="L32" s="11">
         <f t="shared" si="9"/>
-        <v>0.49634143755912918</v>
+        <v>0.50307705596913965</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="9"/>
-        <v>0.61715276389170237</v>
+        <v>0.62553974446728189</v>
       </c>
       <c r="N32" s="11">
         <f t="shared" si="9"/>
-        <v>0.49087504959723605</v>
+        <v>0.49722694023028335</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="9"/>
-        <v>0.38320972182675206</v>
+        <v>0.38917306136017676</v>
       </c>
       <c r="P32" s="11">
         <f t="shared" si="9"/>
-        <v>9.8752791821396832E-2</v>
+        <v>0.10009921350772455</v>
       </c>
       <c r="R32">
         <v>2003</v>
@@ -5970,27 +5970,27 @@
       </c>
       <c r="AI32" s="5">
         <f t="shared" si="10"/>
-        <v>8.0126877675991075</v>
+        <v>8.1018769516267888</v>
       </c>
       <c r="AJ32" s="5">
         <f t="shared" si="11"/>
-        <v>15.913555635986825</v>
+        <v>16.616813030571691</v>
       </c>
       <c r="AK32" s="5">
         <f t="shared" si="12"/>
-        <v>3.2622999856458414</v>
+        <v>3.3128343732576662</v>
       </c>
       <c r="AL32" s="5">
         <f t="shared" si="13"/>
-        <v>2.4690016057885131</v>
+        <v>2.502945205111474</v>
       </c>
       <c r="AM32" s="5">
         <f t="shared" si="14"/>
-        <v>0.42138748214206928</v>
+        <v>0.42939169965185581</v>
       </c>
       <c r="AN32" s="5">
         <f t="shared" si="15"/>
-        <v>0.2801214592079852</v>
+        <v>0.28725976427150929</v>
       </c>
       <c r="AP32">
         <v>2003</v>
@@ -6015,23 +6015,23 @@
       </c>
       <c r="AX32" s="11">
         <f t="shared" si="16"/>
-        <v>0.72098654817945484</v>
+        <v>0.72017003305594018</v>
       </c>
       <c r="AY32" s="11">
         <f t="shared" si="17"/>
-        <v>1.6532290902597444</v>
+        <v>1.7084599157083888</v>
       </c>
       <c r="AZ32" s="11">
         <f t="shared" si="18"/>
-        <v>0.42767026318680668</v>
+        <v>0.43042858806620971</v>
       </c>
       <c r="BA32" s="11">
         <f t="shared" si="19"/>
-        <v>0.38245371319083277</v>
+        <v>0.38465753694263954</v>
       </c>
       <c r="BB32" s="11">
         <f t="shared" si="20"/>
-        <v>9.6060446571517688E-2</v>
+        <v>9.6859779270765473E-2</v>
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
@@ -6040,58 +6040,58 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" si="6"/>
-        <v>227.00592019596988</v>
+        <v>229.08741291223672</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="21"/>
-        <v>34.133052111296259</v>
+        <v>34.016832246857263</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="22"/>
-        <v>15.320625878748919</v>
+        <v>15.718978582817519</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="23"/>
-        <v>3.3498613003711744</v>
+        <v>3.3401225911319496</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="24"/>
-        <v>3.4908060345697249</v>
+        <v>3.4812436111074949</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="25"/>
-        <v>3.2439023655248156</v>
+        <v>3.2706976205546141</v>
       </c>
       <c r="I33">
         <v>2004</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="8"/>
-        <v>0.13016581682814271</v>
+        <v>0.13186521175246874</v>
       </c>
       <c r="K33" s="11">
         <f t="shared" si="9"/>
-        <v>0.15893317729843284</v>
+        <v>0.16100123213803555</v>
       </c>
       <c r="L33" s="11">
         <f t="shared" si="9"/>
-        <v>0.65422645227474241</v>
+        <v>0.66272611131015435</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="9"/>
-        <v>0.81346757026370675</v>
+        <v>0.82405173800289522</v>
       </c>
       <c r="N33" s="11">
         <f t="shared" si="9"/>
-        <v>0.6470212194804511</v>
+        <v>0.65501948981286151</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" si="9"/>
-        <v>0.50510781050401476</v>
+        <v>0.51267523835895101</v>
       </c>
       <c r="P33" s="11">
         <f t="shared" si="9"/>
-        <v>0.13016581682814271</v>
+        <v>0.13186521175246874</v>
       </c>
       <c r="R33">
         <v>2004</v>
@@ -6140,27 +6140,27 @@
       </c>
       <c r="AI33" s="5">
         <f t="shared" si="10"/>
-        <v>20.520516944280931</v>
+        <v>20.9608939826892</v>
       </c>
       <c r="AJ33" s="5">
         <f t="shared" si="11"/>
-        <v>11.52937227849819</v>
+        <v>11.602007562029947</v>
       </c>
       <c r="AK33" s="5">
         <f t="shared" si="12"/>
-        <v>7.7143319321157184</v>
+        <v>7.9828715839061397</v>
       </c>
       <c r="AL33" s="5">
         <f t="shared" si="13"/>
-        <v>1.4619175539481972</v>
+        <v>1.4706210481931978</v>
       </c>
       <c r="AM33" s="5">
         <f t="shared" si="14"/>
-        <v>1.2651945764443606</v>
+        <v>1.2763611338147809</v>
       </c>
       <c r="AN33" s="5">
         <f t="shared" si="15"/>
-        <v>0.35961759269477878</v>
+        <v>0.36702710747435985</v>
       </c>
       <c r="AP33">
         <v>2004</v>
@@ -6185,23 +6185,23 @@
       </c>
       <c r="AX33" s="11">
         <f t="shared" si="16"/>
-        <v>1.4276038536992239</v>
+        <v>1.4416146940421868</v>
       </c>
       <c r="AY33" s="11">
         <f t="shared" si="17"/>
-        <v>0.97283103071390509</v>
+        <v>0.96996230757996782</v>
       </c>
       <c r="AZ33" s="11">
         <f t="shared" si="18"/>
-        <v>0.83420635243068764</v>
+        <v>0.85671300847736387</v>
       </c>
       <c r="BA33" s="11">
         <f t="shared" si="19"/>
-        <v>0.18392330722757061</v>
+        <v>0.18378092156376888</v>
       </c>
       <c r="BB33" s="11">
         <f t="shared" si="20"/>
-        <v>0.2310576732533533</v>
+        <v>0.23093676347522316</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
@@ -6210,58 +6210,58 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" si="6"/>
-        <v>180.83793878567204</v>
+        <v>177.68161042240877</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="21"/>
-        <v>64.459873891485287</v>
+        <v>64.916538019649536</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="22"/>
-        <v>7.5537167938492971</v>
+        <v>7.4642828412502542</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="23"/>
-        <v>5.3587591526908493</v>
+        <v>5.4402067803511853</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="24"/>
-        <v>1.4360520588143091</v>
+        <v>1.4204703091923014</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="25"/>
-        <v>4.0563829742976907</v>
+        <v>4.0539609875918252</v>
       </c>
       <c r="I34">
         <v>2005</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" si="8"/>
-        <v>0.12456154708191856</v>
+        <v>0.12643371935269929</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="9"/>
-        <v>0.15209033315617329</v>
+        <v>0.15436963494049125</v>
       </c>
       <c r="L34" s="11">
         <f t="shared" si="9"/>
-        <v>0.62605883036749688</v>
+        <v>0.63542860206664853</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="9"/>
-        <v>0.77844384587389681</v>
+        <v>0.79010926983789243</v>
       </c>
       <c r="N34" s="11">
         <f t="shared" si="9"/>
-        <v>0.61916381779190455</v>
+        <v>0.62803941422402587</v>
       </c>
       <c r="O34" s="11">
         <f t="shared" si="9"/>
-        <v>0.48336046938198574</v>
+        <v>0.49155828398038653</v>
       </c>
       <c r="P34" s="11">
         <f t="shared" si="9"/>
-        <v>0.12456154708191856</v>
+        <v>0.12643371935269929</v>
       </c>
       <c r="R34">
         <v>2005</v>
@@ -6310,27 +6310,27 @@
       </c>
       <c r="AI34" s="5">
         <f t="shared" si="10"/>
-        <v>15.611235707739947</v>
+        <v>15.554541841701651</v>
       </c>
       <c r="AJ34" s="5">
         <f t="shared" si="11"/>
-        <v>20.924082498321063</v>
+        <v>21.31181291180334</v>
       </c>
       <c r="AK34" s="5">
         <f t="shared" si="12"/>
-        <v>3.6915372655247638</v>
+        <v>3.6845601843296345</v>
       </c>
       <c r="AL34" s="5">
         <f t="shared" si="13"/>
-        <v>2.2649892204817972</v>
+        <v>2.3234479098211844</v>
       </c>
       <c r="AM34" s="5">
         <f t="shared" si="14"/>
-        <v>0.50288553394176883</v>
+        <v>0.50403100107588283</v>
       </c>
       <c r="AN34" s="5">
         <f t="shared" si="15"/>
-        <v>0.43146922463201576</v>
+        <v>0.43730539679283009</v>
       </c>
       <c r="AP34">
         <v>2005</v>
@@ -6355,23 +6355,23 @@
       </c>
       <c r="AX34" s="11">
         <f t="shared" si="16"/>
-        <v>1.1372608171741991</v>
+        <v>1.1181252483049089</v>
       </c>
       <c r="AY34" s="11">
         <f t="shared" si="17"/>
-        <v>1.8371801429614527</v>
+        <v>1.8510422887322002</v>
       </c>
       <c r="AZ34" s="11">
         <f t="shared" si="18"/>
-        <v>0.41129902810511154</v>
+        <v>0.40681703174044637</v>
       </c>
       <c r="BA34" s="11">
         <f t="shared" si="19"/>
-        <v>0.29422134757928864</v>
+        <v>0.29933219165215608</v>
       </c>
       <c r="BB34" s="11">
         <f t="shared" si="20"/>
-        <v>9.5052788408858349E-2</v>
+        <v>9.4230353420500776E-2</v>
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
@@ -6380,58 +6380,58 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" si="6"/>
-        <v>358.63552986303887</v>
+        <v>353.83122214129168</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="21"/>
-        <v>51.086022689119368</v>
+        <v>50.080094221792471</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="22"/>
-        <v>14.425306927447739</v>
+        <v>14.392018934708387</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="23"/>
-        <v>2.7335356655054039</v>
+        <v>2.6698441156267387</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="24"/>
-        <v>2.3621415148511633</v>
+        <v>2.3768537444506386</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="25"/>
-        <v>3.6572206176313689</v>
+        <v>3.6362657508915897</v>
       </c>
       <c r="I35">
         <v>2006</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="8"/>
-        <v>0.11976602563333474</v>
+        <v>0.11909245489422254</v>
       </c>
       <c r="K35" s="11">
         <f t="shared" si="9"/>
-        <v>0.14623497512747904</v>
+        <v>0.14540629572798819</v>
       </c>
       <c r="L35" s="11">
         <f t="shared" si="9"/>
-        <v>0.60195605852950607</v>
+        <v>0.59853299038857721</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="9"/>
-        <v>0.74847437096884206</v>
+        <v>0.74423225909526647</v>
       </c>
       <c r="N35" s="11">
         <f t="shared" si="9"/>
-        <v>0.59532649850704211</v>
+        <v>0.59157284934109566</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" si="9"/>
-        <v>0.46475147204194439</v>
+        <v>0.46301637777110766</v>
       </c>
       <c r="P35" s="11">
         <f t="shared" si="9"/>
-        <v>0.11976602563333474</v>
+        <v>0.11909245489422254</v>
       </c>
       <c r="R35">
         <v>2006</v>
@@ -6480,27 +6480,27 @@
       </c>
       <c r="AI35" s="5">
         <f t="shared" si="10"/>
-        <v>29.67196183571081</v>
+        <v>29.118154720112535</v>
       </c>
       <c r="AJ35" s="5">
         <f t="shared" si="11"/>
-        <v>16.011846912015201</v>
+        <v>15.627648257499471</v>
       </c>
       <c r="AK35" s="5">
         <f t="shared" si="12"/>
-        <v>6.8608604098098249</v>
+        <v>6.8183466387936891</v>
       </c>
       <c r="AL35" s="5">
         <f t="shared" si="13"/>
-        <v>1.1224410373629934</v>
+        <v>1.0911542181754308</v>
       </c>
       <c r="AM35" s="5">
         <f t="shared" si="14"/>
-        <v>0.80194548204826899</v>
+        <v>0.80454873432879259</v>
       </c>
       <c r="AN35" s="5">
         <f t="shared" si="15"/>
-        <v>0.37488424951630006</v>
+        <v>0.3707581874189077</v>
       </c>
       <c r="AP35">
         <v>2006</v>
@@ -6525,23 +6525,23 @@
       </c>
       <c r="AX35" s="11">
         <f t="shared" si="16"/>
-        <v>2.2554013748361568</v>
+        <v>2.2266098454095591</v>
       </c>
       <c r="AY35" s="11">
         <f t="shared" si="17"/>
-        <v>1.4560100850542594</v>
+        <v>1.4279931594653363</v>
       </c>
       <c r="AZ35" s="11">
         <f t="shared" si="18"/>
-        <v>0.78545633643669244</v>
+        <v>0.78439128691828597</v>
       </c>
       <c r="BA35" s="11">
         <f t="shared" si="19"/>
-        <v>0.15008410048755294</v>
+        <v>0.14690071954371092</v>
       </c>
       <c r="BB35" s="11">
         <f t="shared" si="20"/>
-        <v>0.15635097364667386</v>
+        <v>0.15767437511297064</v>
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
@@ -6550,58 +6550,58 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" si="6"/>
-        <v>189.5867332749844</v>
+        <v>189.72730534399767</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="21"/>
-        <v>100.49135063962756</v>
+        <v>99.227354779262356</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="22"/>
-        <v>11.560046349120963</v>
+        <v>11.371277037145447</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="23"/>
-        <v>5.3736625689209729</v>
+        <v>5.3840536294882879</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="24"/>
-        <v>1.2340104431858037</v>
+        <v>1.2097905406296494</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="25"/>
-        <v>3.8713974610933857</v>
+        <v>3.8676483606237335</v>
       </c>
       <c r="I36">
         <v>2007</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="8"/>
-        <v>0.10751827398279534</v>
+        <v>0.10848876571962757</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="9"/>
-        <v>0.13128040308993402</v>
+        <v>0.13245968911635789</v>
       </c>
       <c r="L36" s="11">
         <f t="shared" si="9"/>
-        <v>0.54039763016536979</v>
+        <v>0.54524113578319189</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="9"/>
-        <v>0.67193239536312765</v>
+        <v>0.67796771230964403</v>
       </c>
       <c r="N36" s="11">
         <f t="shared" si="9"/>
-        <v>0.53444603540290414</v>
+        <v>0.53890070798575962</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="9"/>
-        <v>0.41722413214157095</v>
+        <v>0.42179057755569999</v>
       </c>
       <c r="P36" s="11">
         <f t="shared" si="9"/>
-        <v>0.10751827398279534</v>
+        <v>0.10848876571962757</v>
       </c>
       <c r="R36">
         <v>2007</v>
@@ -6650,27 +6650,27 @@
       </c>
       <c r="AI36" s="5">
         <f t="shared" si="10"/>
-        <v>14.081266280099582</v>
+        <v>14.211642390951097</v>
       </c>
       <c r="AJ36" s="5">
         <f t="shared" si="11"/>
-        <v>28.850073963327119</v>
+        <v>28.689073922253456</v>
       </c>
       <c r="AK36" s="5">
         <f t="shared" si="12"/>
-        <v>5.1000748361691075</v>
+        <v>5.0488885959904408</v>
       </c>
       <c r="AL36" s="5">
         <f t="shared" si="13"/>
-        <v>2.0342708889549219</v>
+        <v>2.051176582973842</v>
       </c>
       <c r="AM36" s="5">
         <f t="shared" si="14"/>
-        <v>0.38417737624312581</v>
+        <v>0.37997999467011534</v>
       </c>
       <c r="AN36" s="5">
         <f t="shared" si="15"/>
-        <v>0.3583300328002183</v>
+        <v>0.36104802702936034</v>
       </c>
       <c r="AP36">
         <v>2007</v>
@@ -6695,23 +6695,23 @@
       </c>
       <c r="AX36" s="11">
         <f t="shared" si="16"/>
-        <v>1.1922805836956303</v>
+        <v>1.193927103056154</v>
       </c>
       <c r="AY36" s="11">
         <f t="shared" si="17"/>
-        <v>2.8641184474747718</v>
+        <v>2.8293873256126454</v>
       </c>
       <c r="AZ36" s="11">
         <f t="shared" si="18"/>
-        <v>0.62944322086777371</v>
+        <v>0.61975534284214717</v>
       </c>
       <c r="BA36" s="11">
         <f t="shared" si="19"/>
-        <v>0.29503961596602146</v>
+        <v>0.29624252127847217</v>
       </c>
       <c r="BB36" s="11">
         <f t="shared" si="20"/>
-        <v>8.1679583153349222E-2</v>
+        <v>8.0254398469709609E-2</v>
       </c>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
@@ -6720,58 +6720,58 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="6"/>
-        <v>204.49277465624871</v>
+        <v>208.73355410612078</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="21"/>
-        <v>53.120674996744263</v>
+        <v>53.097408190038095</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="22"/>
-        <v>23.966907635549425</v>
+        <v>23.551101550054462</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="23"/>
-        <v>4.6535132749139745</v>
+        <v>4.5499803101658571</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="24"/>
-        <v>2.5781283327989826</v>
+        <v>2.5716323301582578</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="25"/>
-        <v>3.5121945243693884</v>
+        <v>3.4906409262043976</v>
       </c>
       <c r="I37">
         <v>2008</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="8"/>
-        <v>9.5624685117484912E-2</v>
+        <v>9.6836708782826353E-2</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="9"/>
-        <v>0.11675826575843488</v>
+        <v>0.11823307469064362</v>
       </c>
       <c r="L37" s="11">
         <f t="shared" si="9"/>
-        <v>0.48061925948576367</v>
+        <v>0.48668041093495529</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="9"/>
-        <v>0.5976037500110728</v>
+        <v>0.60515170843362576</v>
       </c>
       <c r="N37" s="11">
         <f t="shared" si="9"/>
-        <v>0.47532602556351239</v>
+        <v>0.481020966326974</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="9"/>
-        <v>0.37107111918331004</v>
+        <v>0.37648885629004708</v>
       </c>
       <c r="P37" s="11">
         <f t="shared" si="9"/>
-        <v>9.5624685117484912E-2</v>
+        <v>9.6836708782826353E-2</v>
       </c>
       <c r="R37">
         <v>2008</v>
@@ -6820,27 +6820,27 @@
       </c>
       <c r="AI37" s="5">
         <f t="shared" si="10"/>
-        <v>13.489642577360963</v>
+        <v>13.935167460554862</v>
       </c>
       <c r="AJ37" s="5">
         <f t="shared" si="11"/>
-        <v>13.842910709957211</v>
+        <v>13.978415442707172</v>
       </c>
       <c r="AK37" s="5">
         <f t="shared" si="12"/>
-        <v>9.7123825930809087</v>
+        <v>9.6330389599499799</v>
       </c>
       <c r="AL37" s="5">
         <f t="shared" si="13"/>
-        <v>1.6082331271795061</v>
+        <v>1.587274546514748</v>
       </c>
       <c r="AM37" s="5">
         <f t="shared" si="14"/>
-        <v>0.72885408244840288</v>
+        <v>0.73582637789356498</v>
       </c>
       <c r="AN37" s="5">
         <f t="shared" si="15"/>
-        <v>0.29076008759588579</v>
+        <v>0.29246991289254642</v>
       </c>
       <c r="AP37">
         <v>2008</v>
@@ -6865,23 +6865,23 @@
       </c>
       <c r="AX37" s="11">
         <f t="shared" si="16"/>
-        <v>1.2860222892023521</v>
+        <v>1.3135307388289961</v>
       </c>
       <c r="AY37" s="11">
         <f t="shared" si="17"/>
-        <v>1.5140000033046723</v>
+        <v>1.5140294134614203</v>
       </c>
       <c r="AZ37" s="11">
         <f t="shared" si="18"/>
-        <v>1.3049954196340925</v>
+        <v>1.2835779981250259</v>
       </c>
       <c r="BA37" s="11">
         <f t="shared" si="19"/>
-        <v>0.25549999686695868</v>
+        <v>0.2503499652136722</v>
       </c>
       <c r="BB37" s="11">
         <f t="shared" si="20"/>
-        <v>0.17064721672469124</v>
+        <v>0.17059548641758537</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
@@ -6890,58 +6890,58 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" si="6"/>
-        <v>202.52760470918224</v>
+        <v>200.51710640761695</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="21"/>
-        <v>57.098301910306013</v>
+        <v>58.19651674544069</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="22"/>
-        <v>13.355749317408723</v>
+        <v>13.269228475397146</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="23"/>
-        <v>10.402750895272277</v>
+        <v>10.145404921472034</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="24"/>
-        <v>2.3685938142761223</v>
+        <v>2.3027451142702682</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="25"/>
-        <v>4.0697430646586028</v>
+        <v>4.0390405592066942</v>
       </c>
       <c r="I38">
         <v>2009</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="8"/>
-        <v>9.0603431644087629E-2</v>
+        <v>9.1620291828342582E-2</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="9"/>
-        <v>0.11062728768758333</v>
+        <v>0.11186407451344636</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="9"/>
-        <v>0.45538193584794451</v>
+        <v>0.46046382448828266</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="9"/>
-        <v>0.56622356923691763</v>
+        <v>0.57255328918140291</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="9"/>
-        <v>0.45036664970857948</v>
+        <v>0.45510924384332851</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="9"/>
-        <v>0.35158616983380447</v>
+        <v>0.35620808799658871</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="9"/>
-        <v>9.0603431644087629E-2</v>
+        <v>9.1620291828342582E-2</v>
       </c>
       <c r="R38">
         <v>2009</v>
@@ -6990,27 +6990,27 @@
       </c>
       <c r="AI38" s="5">
         <f t="shared" si="10"/>
-        <v>12.584177866505106</v>
+        <v>12.592388302174118</v>
       </c>
       <c r="AJ38" s="5">
         <f t="shared" si="11"/>
-        <v>14.198542726128915</v>
+        <v>14.604185563527967</v>
       </c>
       <c r="AK38" s="5">
         <f t="shared" si="12"/>
-        <v>5.2004316930562444</v>
+        <v>5.2101812706454282</v>
       </c>
       <c r="AL38" s="5">
         <f t="shared" si="13"/>
-        <v>3.4444217196052902</v>
+        <v>3.3874145320413369</v>
       </c>
       <c r="AM38" s="5">
         <f t="shared" si="14"/>
-        <v>0.64008640886719403</v>
+        <v>0.62915032099175583</v>
       </c>
       <c r="AN38" s="5">
         <f t="shared" si="15"/>
-        <v>0.31998897225743467</v>
+        <v>0.32098382468669351</v>
       </c>
       <c r="AP38">
         <v>2009</v>
@@ -7035,23 +7035,23 @@
       </c>
       <c r="AX38" s="11">
         <f t="shared" si="16"/>
-        <v>1.2736636503299208</v>
+        <v>1.261825795356043</v>
       </c>
       <c r="AY38" s="11">
         <f t="shared" si="17"/>
-        <v>1.6273669204352685</v>
+        <v>1.6594263471061164</v>
       </c>
       <c r="AZ38" s="11">
         <f t="shared" si="18"/>
-        <v>0.72721904511149038</v>
+        <v>0.72319715860910427</v>
       </c>
       <c r="BA38" s="11">
         <f t="shared" si="19"/>
-        <v>0.57116046825910316</v>
+        <v>0.55822258472071429</v>
       </c>
       <c r="BB38" s="11">
         <f t="shared" si="20"/>
-        <v>0.1567780536039963</v>
+        <v>0.15275819885204175</v>
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
@@ -7060,58 +7060,58 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" si="6"/>
-        <v>296.94875600223605</v>
+        <v>301.09539663176611</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="21"/>
-        <v>55.714972065667375</v>
+        <v>55.093706351268203</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="22"/>
-        <v>14.620029052547517</v>
+        <v>14.825692845360976</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="23"/>
-        <v>5.9877959134225147</v>
+        <v>5.9114693231709099</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="24"/>
-        <v>5.4287213675248491</v>
+        <v>5.2693743800369361</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="25"/>
-        <v>4.407797298888422</v>
+        <v>4.3377199457884723</v>
       </c>
       <c r="I39">
         <v>2010</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="8"/>
-        <v>7.6683053623169337E-2</v>
+        <v>7.7409893867872309E-2</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="9"/>
-        <v>9.3630429664705875E-2</v>
+        <v>9.4513845818540346E-2</v>
       </c>
       <c r="L39" s="11">
         <f t="shared" si="9"/>
-        <v>0.38541671956560281</v>
+        <v>0.38904542948209636</v>
       </c>
       <c r="M39" s="11">
         <f t="shared" si="9"/>
-        <v>0.47922856270014436</v>
+        <v>0.48374970724032218</v>
       </c>
       <c r="N39" s="11">
         <f t="shared" si="9"/>
-        <v>0.38117198568542027</v>
+        <v>0.38452134959584738</v>
       </c>
       <c r="O39" s="11">
         <f t="shared" si="9"/>
-        <v>0.29756821154896823</v>
+        <v>0.30095986092639443</v>
       </c>
       <c r="P39" s="11">
         <f t="shared" si="9"/>
-        <v>7.6683053623169337E-2</v>
+        <v>7.7409893867872309E-2</v>
       </c>
       <c r="R39">
         <v>2010</v>
@@ -7160,27 +7160,27 @@
       </c>
       <c r="AI39" s="5">
         <f t="shared" si="10"/>
-        <v>15.548547517674256</v>
+        <v>15.908876746484818</v>
       </c>
       <c r="AJ39" s="5">
         <f t="shared" si="11"/>
-        <v>12.009650795638397</v>
+        <v>11.970402349049854</v>
       </c>
       <c r="AK39" s="5">
         <f t="shared" si="12"/>
-        <v>5.0071455470898334</v>
+        <v>5.1152809259830585</v>
       </c>
       <c r="AL39" s="5">
         <f t="shared" si="13"/>
-        <v>1.7309437150178382</v>
+        <v>1.7212891431600557</v>
       </c>
       <c r="AM39" s="5">
         <f t="shared" si="14"/>
-        <v>1.2726509874781335</v>
+        <v>1.2474335160832049</v>
       </c>
       <c r="AN39" s="5">
         <f t="shared" si="15"/>
-        <v>0.29527348561275557</v>
+        <v>0.2932316648852365</v>
       </c>
       <c r="AP39">
         <v>2010</v>
@@ -7205,23 +7205,23 @@
       </c>
       <c r="AX39" s="11">
         <f t="shared" si="16"/>
-        <v>1.8674631395252432</v>
+        <v>1.8947507528888283</v>
       </c>
       <c r="AY39" s="11">
         <f t="shared" si="17"/>
-        <v>1.5879404374419197</v>
+        <v>1.5709522320540685</v>
       </c>
       <c r="AZ39" s="11">
         <f t="shared" si="18"/>
-        <v>0.79605893420277685</v>
+        <v>0.8080273061886124</v>
       </c>
       <c r="BA39" s="11">
         <f t="shared" si="19"/>
-        <v>0.3287584555451219</v>
+        <v>0.32526209753280899</v>
       </c>
       <c r="BB39" s="11">
         <f t="shared" si="20"/>
-        <v>0.3593289674359304</v>
+        <v>0.34955676786947359</v>
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
@@ -7230,58 +7230,58 @@
       </c>
       <c r="B40" s="4">
         <f t="shared" si="6"/>
-        <v>154.35053073537202</v>
+        <v>153.1233486424064</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="21"/>
-        <v>80.79613704526723</v>
+        <v>81.852046049028075</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="22"/>
-        <v>15.162604853357571</v>
+        <v>14.939221319827483</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="23"/>
-        <v>7.1575223372162071</v>
+        <v>7.2254677434658232</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="24"/>
-        <v>3.3486303038154039</v>
+        <v>3.2948909353594331</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="25"/>
-        <v>6.6431125733898249</v>
+        <v>6.4798514034494445</v>
       </c>
       <c r="I40">
         <v>2011</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="8"/>
-        <v>6.0238436535306611E-2</v>
+        <v>6.0683151376246809E-2</v>
       </c>
       <c r="K40" s="11">
         <f t="shared" si="9"/>
-        <v>7.3551461876405197E-2</v>
+        <v>7.4091278599958357E-2</v>
       </c>
       <c r="L40" s="11">
         <f t="shared" si="9"/>
-        <v>0.30276442452708718</v>
+        <v>0.30498042963080879</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" si="9"/>
-        <v>0.37645839590556629</v>
+        <v>0.37922099160586814</v>
       </c>
       <c r="N40" s="11">
         <f t="shared" si="9"/>
-        <v>0.29942997029803198</v>
+        <v>0.30143391366420541</v>
       </c>
       <c r="O40" s="11">
         <f t="shared" si="9"/>
-        <v>0.23375495600896712</v>
+        <v>0.23592840509435725</v>
       </c>
       <c r="P40" s="11">
         <f t="shared" si="9"/>
-        <v>6.0238436535306611E-2</v>
+        <v>6.0683151376246809E-2</v>
       </c>
       <c r="R40">
         <v>2011</v>
@@ -7330,27 +7330,27 @@
       </c>
       <c r="AI40" s="5">
         <f t="shared" si="10"/>
-        <v>6.3140647739264546</v>
+        <v>6.3084966796738522</v>
       </c>
       <c r="AJ40" s="5">
         <f t="shared" si="11"/>
-        <v>14.064931578093432</v>
+        <v>14.340323694775417</v>
       </c>
       <c r="AK40" s="5">
         <f t="shared" si="12"/>
-        <v>4.2722250968156477</v>
+        <v>4.234913631444182</v>
       </c>
       <c r="AL40" s="5">
         <f t="shared" si="13"/>
-        <v>1.6869895250769822</v>
+        <v>1.7128269121075057</v>
       </c>
       <c r="AM40" s="5">
         <f t="shared" si="14"/>
-        <v>0.63509484007436834</v>
+        <v>0.63007749496882137</v>
       </c>
       <c r="AN40" s="5">
         <f t="shared" si="15"/>
-        <v>0.35233846784769329</v>
+        <v>0.34614299717627767</v>
       </c>
       <c r="AP40">
         <v>2011</v>
@@ -7375,23 +7375,23 @@
       </c>
       <c r="AX40" s="11">
         <f t="shared" si="16"/>
-        <v>0.97068575263637369</v>
+        <v>0.96358357972467512</v>
       </c>
       <c r="AY40" s="11">
         <f t="shared" si="17"/>
-        <v>2.3027823302515751</v>
+        <v>2.3339445275123181</v>
       </c>
       <c r="AZ40" s="11">
         <f t="shared" si="18"/>
-        <v>0.82560212540743505</v>
+        <v>0.81421481515400818</v>
       </c>
       <c r="BA40" s="11">
         <f t="shared" si="19"/>
-        <v>0.39298199590238286</v>
+        <v>0.39756119255892802</v>
       </c>
       <c r="BB40" s="11">
         <f t="shared" si="20"/>
-        <v>0.22164701187146482</v>
+        <v>0.21857460540478749</v>
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
@@ -7400,58 +7400,58 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" si="6"/>
-        <v>226.80674259320668</v>
+        <v>222.87612412077527</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="21"/>
-        <v>41.416308466896325</v>
+        <v>41.06484974642138</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="22"/>
-        <v>23.574479057001376</v>
+        <v>23.8297040405747</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="23"/>
-        <v>8.2348388427841268</v>
+        <v>8.0911353912445581</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="24"/>
-        <v>4.3437320958329249</v>
+        <v>4.3761881400957288</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="25"/>
-        <v>7.29111164461054</v>
+        <v>7.1235750617271911</v>
       </c>
       <c r="I41">
         <v>2012</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="8"/>
-        <v>6.1740514255128921E-2</v>
+        <v>6.2610512742527671E-2</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="9"/>
-        <v>7.538550702264922E-2</v>
+        <v>7.644449633360112E-2</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="9"/>
-        <v>0.31031401781990797</v>
+        <v>0.31466693213127456</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="9"/>
-        <v>0.38584558789549067</v>
+        <v>0.39126545323859019</v>
       </c>
       <c r="N41" s="11">
         <f t="shared" si="9"/>
-        <v>0.30689641718644212</v>
+        <v>0.31100777504923954</v>
       </c>
       <c r="O41" s="11">
         <f t="shared" si="9"/>
-        <v>0.23958376119572389</v>
+        <v>0.24342174192467084</v>
       </c>
       <c r="P41" s="11">
         <f t="shared" si="9"/>
-        <v>6.1740514255128921E-2</v>
+        <v>6.2610512742527671E-2</v>
       </c>
       <c r="R41">
         <v>2012</v>
@@ -7500,27 +7500,27 @@
       </c>
       <c r="AI41" s="5">
         <f t="shared" si="10"/>
-        <v>9.3511596005376596</v>
+        <v>9.3143383065318108</v>
       </c>
       <c r="AJ41" s="5">
         <f t="shared" si="11"/>
-        <v>7.3203987687843952</v>
+        <v>7.3473571102432071</v>
       </c>
       <c r="AK41" s="5">
         <f t="shared" si="12"/>
-        <v>6.7823956172620639</v>
+        <v>6.935245831290616</v>
       </c>
       <c r="AL41" s="5">
         <f t="shared" si="13"/>
-        <v>1.9825100856661371</v>
+        <v>1.9702976164483852</v>
       </c>
       <c r="AM41" s="5">
         <f t="shared" si="14"/>
-        <v>0.84208722673752312</v>
+        <v>0.86043831296440854</v>
       </c>
       <c r="AN41" s="5">
         <f t="shared" si="15"/>
-        <v>0.3960652580810311</v>
+        <v>0.39225397278308083</v>
       </c>
       <c r="AP41">
         <v>2012</v>
@@ -7545,23 +7545,23 @@
       </c>
       <c r="AX41" s="11">
         <f t="shared" si="16"/>
-        <v>1.4263512576742838</v>
+        <v>1.4025279320202999</v>
       </c>
       <c r="AY41" s="11">
         <f t="shared" si="17"/>
-        <v>1.1804121683241313</v>
+        <v>1.1709307948315342</v>
       </c>
       <c r="AZ41" s="11">
         <f t="shared" si="18"/>
-        <v>1.2836277277596884</v>
+        <v>1.2987623421054793</v>
       </c>
       <c r="BA41" s="11">
         <f t="shared" si="19"/>
-        <v>0.45213179252618529</v>
+        <v>0.44519213835089072</v>
       </c>
       <c r="BB41" s="11">
         <f t="shared" si="20"/>
-        <v>0.28751314778300974</v>
+        <v>0.29030508586293752</v>
       </c>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
@@ -7570,58 +7570,58 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" si="6"/>
-        <v>266.51894754803908</v>
+        <v>266.81863247504327</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="21"/>
-        <v>58.306454183530491</v>
+        <v>57.235344795786929</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="22"/>
-        <v>11.803082306356737</v>
+        <v>11.652090268816593</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="23"/>
-        <v>12.696408308551606</v>
+        <v>12.764494100990207</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="24"/>
-        <v>4.9603553259249198</v>
+        <v>4.8537970288621253</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="25"/>
-        <v>8.410733195440482</v>
+        <v>8.2871210374754991</v>
       </c>
       <c r="I42">
         <v>2013</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="8"/>
-        <v>5.4261509175884737E-2</v>
+        <v>5.5219582369555577E-2</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" si="9"/>
-        <v>6.6253600741564847E-2</v>
+        <v>6.7420517371441974E-2</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" si="9"/>
-        <v>0.27272378807472947</v>
+        <v>0.27752171027974859</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" si="9"/>
-        <v>0.33910575836071144</v>
+        <v>0.34507807039239369</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" si="9"/>
-        <v>0.26972018225171984</v>
+        <v>0.27429450262653077</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" si="9"/>
-        <v>0.21056151885606939</v>
+        <v>0.21468674093160611</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" si="9"/>
-        <v>5.4261509175884737E-2</v>
+        <v>5.5219582369555577E-2</v>
       </c>
       <c r="R42">
         <v>2013</v>
@@ -7670,27 +7670,27 @@
       </c>
       <c r="AI42" s="5">
         <f t="shared" si="10"/>
-        <v>9.5310283590592046</v>
+        <v>9.7054132560948307</v>
       </c>
       <c r="AJ42" s="5">
         <f t="shared" si="11"/>
-        <v>9.1320455758081085</v>
+        <v>9.1045264005462894</v>
       </c>
       <c r="AK42" s="5">
         <f t="shared" si="12"/>
-        <v>3.0479379647140408</v>
+        <v>3.0536796648460491</v>
       </c>
       <c r="AL42" s="5">
         <f t="shared" si="13"/>
-        <v>2.7326318677384793</v>
+        <v>2.7879954808609861</v>
       </c>
       <c r="AM42" s="5">
         <f t="shared" si="14"/>
-        <v>0.85661451023256729</v>
+        <v>0.85299427814474582</v>
       </c>
       <c r="AN42" s="5">
         <f t="shared" si="15"/>
-        <v>0.40297933095569183</v>
+        <v>0.40388211917947059</v>
       </c>
       <c r="AP42">
         <v>2013</v>
@@ -7715,23 +7715,23 @@
       </c>
       <c r="AX42" s="11">
         <f t="shared" si="16"/>
-        <v>1.6760949506293836</v>
+        <v>1.679051923152248</v>
       </c>
       <c r="AY42" s="11">
         <f t="shared" si="17"/>
-        <v>1.6618006422538734</v>
+        <v>1.6320193106277732</v>
       </c>
       <c r="AZ42" s="11">
         <f t="shared" si="18"/>
-        <v>0.64267650134859122</v>
+        <v>0.63506017624832123</v>
       </c>
       <c r="BA42" s="11">
         <f t="shared" si="19"/>
-        <v>0.69709316196514581</v>
+        <v>0.70233065558838337</v>
       </c>
       <c r="BB42" s="11">
         <f t="shared" si="20"/>
-        <v>0.32832765520853757</v>
+        <v>0.32198843333876109</v>
       </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
@@ -7740,58 +7740,58 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" si="6"/>
-        <v>388.54142806512999</v>
+        <v>400.73359047236369</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="21"/>
-        <v>66.233855067845383</v>
+        <v>66.230999987670828</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="22"/>
-        <v>16.962228269716068</v>
+        <v>16.570929302251489</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="23"/>
-        <v>6.6609022703448257</v>
+        <v>6.5365370079461336</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="24"/>
-        <v>7.937504735873957</v>
+        <v>7.9436503828045248</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="25"/>
-        <v>9.8125239750559956</v>
+        <v>9.6265787419152709</v>
       </c>
       <c r="I43">
         <v>2014</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="8"/>
-        <v>5.4189416629936836E-2</v>
+        <v>5.4112120939188532E-2</v>
       </c>
       <c r="K43" s="11">
         <f t="shared" si="9"/>
-        <v>6.6165575346985556E-2</v>
+        <v>6.6068358963133747E-2</v>
       </c>
       <c r="L43" s="11">
         <f t="shared" si="9"/>
-        <v>0.27236144370721233</v>
+        <v>0.27195584800706019</v>
       </c>
       <c r="M43" s="11">
         <f t="shared" si="9"/>
-        <v>0.33865521804517074</v>
+        <v>0.33815732530476406</v>
       </c>
       <c r="N43" s="11">
         <f t="shared" si="9"/>
-        <v>0.26936182851391594</v>
+        <v>0.26879336391476694</v>
       </c>
       <c r="O43" s="11">
         <f t="shared" si="9"/>
-        <v>0.21028176408692381</v>
+        <v>0.21038107118564947</v>
       </c>
       <c r="P43" s="11">
         <f t="shared" si="9"/>
-        <v>5.4189416629936836E-2</v>
+        <v>5.4112120939188532E-2</v>
       </c>
       <c r="R43">
         <v>2014</v>
@@ -7840,27 +7840,27 @@
       </c>
       <c r="AI43" s="5">
         <f t="shared" si="10"/>
-        <v>13.876707288381647</v>
+        <v>14.291658592455946</v>
       </c>
       <c r="AJ43" s="5">
         <f t="shared" si="11"/>
-        <v>10.361364907956368</v>
+        <v>10.347166178135188</v>
       </c>
       <c r="AK43" s="5">
         <f t="shared" si="12"/>
-        <v>4.3752689809170651</v>
+        <v>4.2690144211952621</v>
       </c>
       <c r="AL43" s="5">
         <f t="shared" si="13"/>
-        <v>1.4319493776770469</v>
+        <v>1.4026155323049716</v>
       </c>
       <c r="AM43" s="5">
         <f t="shared" si="14"/>
-        <v>1.3691021354905011</v>
+        <v>1.3707458155721404</v>
       </c>
       <c r="AN43" s="5">
         <f t="shared" si="15"/>
-        <v>0.46953421517174387</v>
+        <v>0.45999661611209836</v>
       </c>
       <c r="AP43">
         <v>2014</v>
@@ -7885,23 +7885,23 @@
       </c>
       <c r="AX43" s="11">
         <f t="shared" si="16"/>
-        <v>2.4434747761147899</v>
+        <v>2.5217598168196238</v>
       </c>
       <c r="AY43" s="11">
         <f t="shared" si="17"/>
-        <v>1.8877406357834325</v>
+        <v>1.888523102773779</v>
       </c>
       <c r="AZ43" s="11">
         <f t="shared" si="18"/>
-        <v>0.92359141760676045</v>
+        <v>0.90314587687751324</v>
       </c>
       <c r="BA43" s="11">
         <f t="shared" si="19"/>
-        <v>0.3657151938039076</v>
+        <v>0.35965470199969812</v>
       </c>
       <c r="BB43" s="11">
         <f t="shared" si="20"/>
-        <v>0.52538621669209118</v>
+        <v>0.52696137200234239</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
@@ -7910,58 +7910,58 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" si="6"/>
-        <v>163.46501273410229</v>
+        <v>169.06750603448421</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="21"/>
-        <v>96.566725438567133</v>
+        <v>99.606605696444817</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="22"/>
-        <v>19.275412006017874</v>
+        <v>19.282400391903682</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="23"/>
-        <v>9.5767069193295296</v>
+        <v>9.3604427149807439</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="24"/>
-        <v>4.1657366340188151</v>
+        <v>4.0902829632337392</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="25"/>
-        <v>12.876295753970085</v>
+        <v>12.736218035860507</v>
       </c>
       <c r="I44">
         <v>2015</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="8"/>
-        <v>5.9428599939010465E-2</v>
+        <v>5.9061204549201045E-2</v>
       </c>
       <c r="K44" s="11">
         <f t="shared" si="9"/>
-        <v>7.2562646944203529E-2</v>
+        <v>7.2110957678721471E-2</v>
       </c>
       <c r="L44" s="11">
         <f t="shared" si="9"/>
-        <v>0.29869410455962142</v>
+        <v>0.29682887472747577</v>
       </c>
       <c r="M44" s="11">
         <f t="shared" si="9"/>
-        <v>0.37139734512931344</v>
+        <v>0.3690851257166578</v>
       </c>
       <c r="N44" s="11">
         <f t="shared" si="9"/>
-        <v>0.29540447823810628</v>
+        <v>0.29337715048128643</v>
       </c>
       <c r="O44" s="11">
         <f t="shared" si="9"/>
-        <v>0.23061238908941065</v>
+        <v>0.22962248130209773</v>
       </c>
       <c r="P44" s="11">
         <f t="shared" si="9"/>
-        <v>5.9428599939010465E-2</v>
+        <v>5.9061204549201045E-2</v>
       </c>
       <c r="R44">
         <v>2015</v>
@@ -8010,27 +8010,27 @@
       </c>
       <c r="AI44" s="5">
         <f t="shared" si="10"/>
-        <v>6.3867344103076391</v>
+        <v>6.5656582442547817</v>
       </c>
       <c r="AJ44" s="5">
         <f t="shared" si="11"/>
-        <v>16.394061674678291</v>
+        <v>16.817012710792799</v>
       </c>
       <c r="AK44" s="5">
         <f t="shared" si="12"/>
-        <v>5.3726617142000714</v>
+        <v>5.3467094793442138</v>
       </c>
       <c r="AL44" s="5">
         <f t="shared" si="13"/>
-        <v>2.2309489486518115</v>
+        <v>2.1676199429456853</v>
       </c>
       <c r="AM44" s="5">
         <f t="shared" si="14"/>
-        <v>0.78058175610027425</v>
+        <v>0.76350397893933108</v>
       </c>
       <c r="AN44" s="5">
         <f t="shared" si="15"/>
-        <v>0.67401482238846777</v>
+        <v>0.66267734880232931</v>
       </c>
       <c r="AP44">
         <v>2015</v>
@@ -8055,23 +8055,23 @@
       </c>
       <c r="AX44" s="11">
         <f t="shared" si="16"/>
-        <v>1.0280052693019595</v>
+        <v>1.0639179075183474</v>
       </c>
       <c r="AY44" s="11">
         <f t="shared" si="17"/>
-        <v>2.7522621397802771</v>
+        <v>2.8402013570930782</v>
       </c>
       <c r="AZ44" s="11">
         <f t="shared" si="18"/>
-        <v>1.0495440113476564</v>
+        <v>1.0509259977280216</v>
       </c>
       <c r="BA44" s="11">
         <f t="shared" si="19"/>
-        <v>0.52580672780603799</v>
+        <v>0.51503223054487868</v>
       </c>
       <c r="BB44" s="11">
         <f t="shared" si="20"/>
-        <v>0.27573156586492598</v>
+        <v>0.27133887045800237</v>
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
@@ -8080,27 +8080,27 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" si="6"/>
-        <v>140.28747040559276</v>
+        <v>139.67403246937619</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="21"/>
-        <v>40.367957177710302</v>
+        <v>41.770365195444398</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="22"/>
-        <v>27.37253450023108</v>
+        <v>28.286922911401426</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="23"/>
-        <v>10.532154901662944</v>
+        <v>10.560363049459466</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="24"/>
-        <v>5.835321187892327</v>
+        <v>5.7151208178169499</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="25"/>
-        <v>12.642153498347383</v>
+        <v>12.491275623990598</v>
       </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -8131,23 +8131,23 @@
       </c>
       <c r="AX45" s="11">
         <f t="shared" si="16"/>
-        <v>0.88224541987207439</v>
+        <v>0.87894893492519244</v>
       </c>
       <c r="AY45" s="11">
         <f t="shared" si="17"/>
-        <v>1.1505329573504497</v>
+        <v>1.1910479941051646</v>
       </c>
       <c r="AZ45" s="11">
         <f t="shared" si="18"/>
-        <v>1.4904314185946022</v>
+        <v>1.5416889017511628</v>
       </c>
       <c r="BA45" s="11">
         <f t="shared" si="19"/>
-        <v>0.5782653632651239</v>
+        <v>0.58105449735002357</v>
       </c>
       <c r="BB45" s="11">
         <f t="shared" si="20"/>
-        <v>0.38624195186100768</v>
+        <v>0.37912644214997532</v>
       </c>
     </row>
     <row r="47" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -8157,21 +8157,21 @@
       </c>
       <c r="S48" s="13">
         <f>AI48+AX48</f>
-        <v>28.384377034485155</v>
+        <v>28.2770604231692</v>
       </c>
       <c r="AH48" t="s">
         <v>10</v>
       </c>
       <c r="AI48" s="10">
         <f>SUM(AI57:AN89)</f>
-        <v>12.958142297577806</v>
+        <v>13.576646849870704</v>
       </c>
       <c r="AW48" t="s">
         <v>10</v>
       </c>
       <c r="AX48" s="10">
         <f>SUM(AX57:BB90)</f>
-        <v>15.42623473690735</v>
+        <v>14.700413573298496</v>
       </c>
     </row>
     <row r="49" spans="1:54" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8319,37 +8319,37 @@
         <v>11</v>
       </c>
       <c r="K54" s="12">
-        <v>0.19967469357811002</v>
+        <v>0.1996317401888002</v>
       </c>
       <c r="L54" s="12">
-        <v>1.6146443970835811</v>
+        <v>1.6145815219238939</v>
       </c>
       <c r="M54" s="12">
-        <v>1.8324969096656178</v>
+        <v>1.8324530389791449</v>
       </c>
       <c r="N54" s="12">
-        <v>1.6035699389459133</v>
+        <v>1.6028847128343955</v>
       </c>
       <c r="O54" s="12">
-        <v>1.3559627408957768</v>
+        <v>1.3578623032759491</v>
       </c>
       <c r="AW54" t="s">
         <v>12</v>
       </c>
       <c r="AX54" s="12">
-        <v>-5.0689786852444882</v>
+        <v>-5.0683398458027265</v>
       </c>
       <c r="AY54" s="12">
-        <v>-3.5578110549064683</v>
+        <v>-3.5573535346001033</v>
       </c>
       <c r="AZ54" s="12">
-        <v>-2.910474499433251</v>
+        <v>-2.9095211049675327</v>
       </c>
       <c r="BA54" s="12">
-        <v>-2.9021553589133662</v>
+        <v>-2.9000183846743934</v>
       </c>
       <c r="BB54" s="12">
-        <v>-2.7152205968710517</v>
+        <v>-2.7130009465888785</v>
       </c>
     </row>
     <row r="56" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8422,78 +8422,78 @@
         <v>1983</v>
       </c>
       <c r="B57" s="12">
-        <v>6.7904572805111449</v>
+        <v>6.7889043047357118</v>
       </c>
       <c r="C57" s="12">
-        <v>5.7247702006769821</v>
+        <v>5.7280788258289741</v>
       </c>
       <c r="D57" s="12">
-        <v>3.5040139372661923</v>
+        <v>3.5089029800552334</v>
       </c>
       <c r="E57" s="12">
-        <v>3.0290004752602044</v>
+        <v>3.0150475618711483</v>
       </c>
       <c r="F57" s="12">
-        <v>1.8102508259639092</v>
+        <v>1.8007865136313466</v>
       </c>
       <c r="G57" s="12">
-        <v>2.7966663226486403</v>
+        <v>2.8027902097428541</v>
       </c>
       <c r="I57">
         <v>1983</v>
       </c>
       <c r="J57" s="12">
-        <v>-1.7408630155430225</v>
+        <v>-1.7322391564730824</v>
       </c>
       <c r="AH57">
         <v>1983</v>
       </c>
       <c r="AI57" s="10">
         <f>(LN(AA12)-LN(AI12))^2</f>
-        <v>3.1345496330068973E-2</v>
+        <v>3.3629767823279699E-2</v>
       </c>
       <c r="AJ57" s="10">
         <f t="shared" ref="AJ57:AN72" si="26">(LN(AB12)-LN(AJ12))^2</f>
-        <v>1.1484290109952705E-3</v>
+        <v>6.1693019793754495E-4</v>
       </c>
       <c r="AK57" s="10">
         <f t="shared" si="26"/>
-        <v>3.0430289358194668E-3</v>
+        <v>2.0622469394863852E-3</v>
       </c>
       <c r="AL57" s="10">
         <f t="shared" si="26"/>
-        <v>4.0627733152786569E-3</v>
+        <v>5.2732593129197272E-3</v>
       </c>
       <c r="AM57" s="10">
         <f t="shared" si="26"/>
-        <v>1.8226230168665199E-4</v>
+        <v>2.4078713208927133E-4</v>
       </c>
       <c r="AN57" s="10">
         <f t="shared" si="26"/>
-        <v>1.1474828857251826E-2</v>
+        <v>1.4678878483926554E-2</v>
       </c>
       <c r="AW57">
         <v>1983</v>
       </c>
       <c r="AX57" s="10">
         <f>(LN(AQ12)-LN(AX12))^2</f>
-        <v>0.16149014746125534</v>
+        <v>0.16075627643720455</v>
       </c>
       <c r="AY57" s="10">
         <f t="shared" ref="AY57:BB57" si="27">(LN(AR12)-LN(AY12))^2</f>
-        <v>0.23182547843183554</v>
+        <v>0.22821299539149073</v>
       </c>
       <c r="AZ57" s="10">
         <f t="shared" si="27"/>
-        <v>2.3904536346638968E-3</v>
+        <v>2.9958876956617379E-3</v>
       </c>
       <c r="BA57" s="10">
         <f t="shared" si="27"/>
-        <v>3.4817739088681951E-2</v>
+        <v>3.0547762321649786E-2</v>
       </c>
       <c r="BB57" s="10">
         <f t="shared" si="27"/>
-        <v>2.4544269835621549E-3</v>
+        <v>1.7890794991265058E-3</v>
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.25">
@@ -8501,63 +8501,63 @@
         <v>1984</v>
       </c>
       <c r="B58" s="12">
-        <v>7.5506808716341407</v>
+        <v>7.5263804960390663</v>
       </c>
       <c r="I58">
         <v>1984</v>
       </c>
       <c r="J58" s="12">
-        <v>-1.7099882764522008</v>
+        <v>-1.7206600831323207</v>
       </c>
       <c r="AH58">
         <v>1984</v>
       </c>
       <c r="AI58" s="10">
         <f t="shared" ref="AI58:AI89" si="28">(LN(AA13)-LN(AI13))^2</f>
-        <v>1.0859388087581743</v>
+        <v>1.1582432020220912</v>
       </c>
       <c r="AJ58" s="10">
         <f t="shared" si="26"/>
-        <v>3.0415004627767331E-3</v>
+        <v>1.9902951665431851E-3</v>
       </c>
       <c r="AK58" s="10">
         <f t="shared" si="26"/>
-        <v>4.6968661338487261E-2</v>
+        <v>4.2624801812782408E-2</v>
       </c>
       <c r="AL58" s="10">
         <f t="shared" si="26"/>
-        <v>2.1271862429645107E-2</v>
+        <v>1.7984346145659882E-2</v>
       </c>
       <c r="AM58" s="10">
         <f t="shared" si="26"/>
-        <v>1.7794173673556302E-3</v>
+        <v>4.7947534500554969E-3</v>
       </c>
       <c r="AN58" s="10">
         <f t="shared" si="26"/>
-        <v>1.8343488915667925E-2</v>
+        <v>1.5976368827495972E-2</v>
       </c>
       <c r="AW58">
         <v>1984</v>
       </c>
       <c r="AX58" s="10">
         <f t="shared" ref="AX58:AX90" si="29">(LN(AQ13)-LN(AX13))^2</f>
-        <v>4.8991133329301531E-3</v>
+        <v>2.1466662910881451E-3</v>
       </c>
       <c r="AY58" s="10">
         <f t="shared" ref="AY58:AY90" si="30">(LN(AR13)-LN(AY13))^2</f>
-        <v>1.8218181919198383E-3</v>
+        <v>2.0815058387342509E-3</v>
       </c>
       <c r="AZ58" s="10">
         <f t="shared" ref="AZ58:AZ90" si="31">(LN(AS13)-LN(AZ13))^2</f>
-        <v>0.13427930780402952</v>
+        <v>0.13185990928213931</v>
       </c>
       <c r="BA58" s="10">
         <f t="shared" ref="BA58:BA90" si="32">(LN(AT13)-LN(BA13))^2</f>
-        <v>8.9543561200369215E-3</v>
+        <v>8.5026226032823022E-3</v>
       </c>
       <c r="BB58" s="10">
         <f t="shared" ref="BB58:BB90" si="33">(LN(AU13)-LN(BB13))^2</f>
-        <v>4.5699678702804079E-3</v>
+        <v>2.3932162856160066E-3</v>
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.25">
@@ -8565,63 +8565,63 @@
         <v>1985</v>
       </c>
       <c r="B59" s="12">
-        <v>5.9986257737478983</v>
+        <v>5.9450596337512822</v>
       </c>
       <c r="I59">
         <v>1985</v>
       </c>
       <c r="J59" s="12">
-        <v>-1.746636899507864</v>
+        <v>-1.7525364975582607</v>
       </c>
       <c r="AH59">
         <v>1985</v>
       </c>
       <c r="AI59" s="10">
         <f t="shared" si="28"/>
-        <v>0.24860970344464908</v>
+        <v>0.31096385247269887</v>
       </c>
       <c r="AJ59" s="10">
         <f t="shared" si="26"/>
-        <v>1.5315973039809872E-2</v>
+        <v>9.5628468630073148E-3</v>
       </c>
       <c r="AK59" s="10">
         <f t="shared" si="26"/>
-        <v>2.3389878465556652E-2</v>
+        <v>2.428931469836345E-2</v>
       </c>
       <c r="AL59" s="10">
         <f t="shared" si="26"/>
-        <v>1.105543848907157E-2</v>
+        <v>1.1812887074861741E-2</v>
       </c>
       <c r="AM59" s="10">
         <f t="shared" si="26"/>
-        <v>2.0271321818203666E-4</v>
+        <v>1.3187780335957922E-4</v>
       </c>
       <c r="AN59" s="10">
         <f t="shared" si="26"/>
-        <v>5.3934916606759344E-3</v>
+        <v>6.440126670485641E-3</v>
       </c>
       <c r="AW59">
         <v>1985</v>
       </c>
       <c r="AX59" s="10">
         <f t="shared" si="29"/>
-        <v>2.3668380043749688</v>
+        <v>2.2067869621087586</v>
       </c>
       <c r="AY59" s="10">
         <f t="shared" si="30"/>
-        <v>5.4321272830943811E-2</v>
+        <v>6.4800017956554601E-2</v>
       </c>
       <c r="AZ59" s="10">
         <f t="shared" si="31"/>
-        <v>3.3387709049350359E-5</v>
+        <v>1.7003132595308824E-4</v>
       </c>
       <c r="BA59" s="10">
         <f t="shared" si="32"/>
-        <v>3.3222305001584976E-2</v>
+        <v>3.6935001337371057E-2</v>
       </c>
       <c r="BB59" s="10">
         <f t="shared" si="33"/>
-        <v>3.6520080507459203E-2</v>
+        <v>3.359325689259747E-2</v>
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.25">
@@ -8629,63 +8629,63 @@
         <v>1986</v>
       </c>
       <c r="B60" s="12">
-        <v>7.5701013524544747</v>
+        <v>7.5450349136103858</v>
       </c>
       <c r="I60">
         <v>1986</v>
       </c>
       <c r="J60" s="12">
-        <v>-1.5907024697194652</v>
+        <v>-1.5980291513125151</v>
       </c>
       <c r="AH60">
         <v>1986</v>
       </c>
       <c r="AI60" s="10">
         <f t="shared" si="28"/>
-        <v>0.98999250616053536</v>
+        <v>1.0541809753720675</v>
       </c>
       <c r="AJ60" s="10">
         <f t="shared" si="26"/>
-        <v>9.5216005668000044E-3</v>
+        <v>1.6494677298387703E-3</v>
       </c>
       <c r="AK60" s="10">
         <f t="shared" si="26"/>
-        <v>0.19889990493408363</v>
+        <v>0.18099550454253774</v>
       </c>
       <c r="AL60" s="10">
         <f t="shared" si="26"/>
-        <v>1.6165824019060871E-6</v>
+        <v>8.5953731919545108E-5</v>
       </c>
       <c r="AM60" s="10">
         <f t="shared" si="26"/>
-        <v>3.9051969312183308E-3</v>
+        <v>2.7730153962661442E-3</v>
       </c>
       <c r="AN60" s="10">
         <f t="shared" si="26"/>
-        <v>1.1591703071895516E-2</v>
+        <v>1.0359893241073703E-2</v>
       </c>
       <c r="AW60">
         <v>1986</v>
       </c>
       <c r="AX60" s="10">
         <f t="shared" si="29"/>
-        <v>9.177735180387914E-3</v>
+        <v>5.0940904779181607E-3</v>
       </c>
       <c r="AY60" s="10">
         <f t="shared" si="30"/>
-        <v>5.9278769711583858E-3</v>
+        <v>6.3229455237906484E-4</v>
       </c>
       <c r="AZ60" s="10">
         <f t="shared" si="31"/>
-        <v>7.5980864064672013E-2</v>
+        <v>6.7528550509396573E-2</v>
       </c>
       <c r="BA60" s="10">
         <f t="shared" si="32"/>
-        <v>0.23727473927941617</v>
+        <v>0.22297893944555089</v>
       </c>
       <c r="BB60" s="10">
         <f t="shared" si="33"/>
-        <v>3.8089395346381769E-2</v>
+        <v>3.2212760401869871E-2</v>
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.25">
@@ -8693,63 +8693,63 @@
         <v>1987</v>
       </c>
       <c r="B61" s="12">
-        <v>6.505886582153555</v>
+        <v>6.5096220959036399</v>
       </c>
       <c r="I61">
         <v>1987</v>
       </c>
       <c r="J61" s="12">
-        <v>-1.7623786500111271</v>
+        <v>-1.7681082572940416</v>
       </c>
       <c r="AH61">
         <v>1987</v>
       </c>
       <c r="AI61" s="10">
         <f t="shared" si="28"/>
-        <v>0.15248849298996794</v>
+        <v>0.15125873290840264</v>
       </c>
       <c r="AJ61" s="10">
         <f t="shared" si="26"/>
-        <v>3.7606465307889127E-3</v>
+        <v>7.8312589202178626E-3</v>
       </c>
       <c r="AK61" s="10">
         <f t="shared" si="26"/>
-        <v>4.2307146016572345E-3</v>
+        <v>1.2799982490528836E-2</v>
       </c>
       <c r="AL61" s="10">
         <f t="shared" si="26"/>
-        <v>1.0672638176244649E-2</v>
+        <v>8.4212473959873468E-3</v>
       </c>
       <c r="AM61" s="10">
         <f t="shared" si="26"/>
-        <v>2.3922345402649516E-2</v>
+        <v>1.8648193535402782E-2</v>
       </c>
       <c r="AN61" s="10">
         <f t="shared" si="26"/>
-        <v>8.2504811726113486E-2</v>
+        <v>8.2075319168794139E-2</v>
       </c>
       <c r="AW61">
         <v>1987</v>
       </c>
       <c r="AX61" s="10">
         <f t="shared" si="29"/>
-        <v>1.0168245007412425E-3</v>
+        <v>7.5698346694603482E-4</v>
       </c>
       <c r="AY61" s="10">
         <f t="shared" si="30"/>
-        <v>2.8434830693864439E-2</v>
+        <v>3.6637120178755894E-2</v>
       </c>
       <c r="AZ61" s="10">
         <f t="shared" si="31"/>
-        <v>2.5736214416591414E-2</v>
+        <v>1.359893143040666E-2</v>
       </c>
       <c r="BA61" s="10">
         <f t="shared" si="32"/>
-        <v>9.236125540551815E-2</v>
+        <v>8.9198960412905634E-2</v>
       </c>
       <c r="BB61" s="10">
         <f t="shared" si="33"/>
-        <v>1.4130297594080495E-2</v>
+        <v>9.1781991905636635E-3</v>
       </c>
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.25">
@@ -8757,63 +8757,63 @@
         <v>1988</v>
       </c>
       <c r="B62" s="12">
-        <v>6.1704678494733329</v>
+        <v>6.1803503151909505</v>
       </c>
       <c r="I62">
         <v>1988</v>
       </c>
       <c r="J62" s="12">
-        <v>-1.8413965203372877</v>
+        <v>-1.8578911034918393</v>
       </c>
       <c r="AH62">
         <v>1988</v>
       </c>
       <c r="AI62" s="10">
         <f t="shared" si="28"/>
-        <v>8.3891649180074884E-2</v>
+        <v>8.0772582814921695E-2</v>
       </c>
       <c r="AJ62" s="10">
         <f t="shared" si="26"/>
-        <v>2.1400392138145697E-2</v>
+        <v>2.3392463605260615E-2</v>
       </c>
       <c r="AK62" s="10">
         <f t="shared" si="26"/>
-        <v>1.101965876062797E-2</v>
+        <v>5.8862995707943903E-3</v>
       </c>
       <c r="AL62" s="10">
         <f t="shared" si="26"/>
-        <v>0.15731276484126158</v>
+        <v>0.19959704439181594</v>
       </c>
       <c r="AM62" s="10">
         <f t="shared" si="26"/>
-        <v>2.7942497757208304E-3</v>
+        <v>1.6159122450885713E-3</v>
       </c>
       <c r="AN62" s="10">
         <f t="shared" si="26"/>
-        <v>2.5114433072120509E-2</v>
+        <v>2.6860458481716296E-2</v>
       </c>
       <c r="AW62">
         <v>1988</v>
       </c>
       <c r="AX62" s="10">
         <f t="shared" si="29"/>
-        <v>2.9072597358973759E-2</v>
+        <v>3.2771205129737475E-2</v>
       </c>
       <c r="AY62" s="10">
         <f t="shared" si="30"/>
-        <v>6.126572759893005E-2</v>
+        <v>6.3967738661498325E-2</v>
       </c>
       <c r="AZ62" s="10">
         <f t="shared" si="31"/>
-        <v>7.4507926339436481E-2</v>
+        <v>6.5360923475274266E-2</v>
       </c>
       <c r="BA62" s="10">
         <f t="shared" si="32"/>
-        <v>4.9519759715041613E-2</v>
+        <v>3.4625126131203998E-2</v>
       </c>
       <c r="BB62" s="10">
         <f t="shared" si="33"/>
-        <v>2.5925174132089203E-2</v>
+        <v>2.6018658622700742E-2</v>
       </c>
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.25">
@@ -8821,63 +8821,63 @@
         <v>1989</v>
       </c>
       <c r="B63" s="12">
-        <v>6.7782953743185228</v>
+        <v>6.7741742759336692</v>
       </c>
       <c r="I63">
         <v>1989</v>
       </c>
       <c r="J63" s="12">
-        <v>-1.6481406664865155</v>
+        <v>-1.6490567277925705</v>
       </c>
       <c r="AH63">
         <v>1989</v>
       </c>
       <c r="AI63" s="10">
         <f t="shared" si="28"/>
-        <v>0.36506377713759602</v>
+        <v>0.37112339637358921</v>
       </c>
       <c r="AJ63" s="10">
         <f t="shared" si="26"/>
-        <v>2.7956036875207434E-2</v>
+        <v>3.2265587794955371E-2</v>
       </c>
       <c r="AK63" s="10">
         <f t="shared" si="26"/>
-        <v>2.1037602094167066E-2</v>
+        <v>2.6425710513222803E-2</v>
       </c>
       <c r="AL63" s="10">
         <f t="shared" si="26"/>
-        <v>0.1477289893940382</v>
+        <v>0.14544695831744855</v>
       </c>
       <c r="AM63" s="10">
         <f t="shared" si="26"/>
-        <v>7.777825047707973E-2</v>
+        <v>9.2036655330683198E-2</v>
       </c>
       <c r="AN63" s="10">
         <f t="shared" si="26"/>
-        <v>3.174689778952608E-2</v>
+        <v>2.8401904508633037E-2</v>
       </c>
       <c r="AW63">
         <v>1989</v>
       </c>
       <c r="AX63" s="10">
         <f t="shared" si="29"/>
-        <v>0.1717115666345852</v>
+        <v>0.17460965625714095</v>
       </c>
       <c r="AY63" s="10">
         <f t="shared" si="30"/>
-        <v>3.2730163634328669E-5</v>
+        <v>6.0762902284563029E-5</v>
       </c>
       <c r="AZ63" s="10">
         <f t="shared" si="31"/>
-        <v>0.13484486405145443</v>
+        <v>0.12126241052119709</v>
       </c>
       <c r="BA63" s="10">
         <f t="shared" si="32"/>
-        <v>5.9202416067057201E-2</v>
+        <v>5.9269162015808202E-2</v>
       </c>
       <c r="BB63" s="10">
         <f t="shared" si="33"/>
-        <v>0.16071368839801348</v>
+        <v>0.17963413460977321</v>
       </c>
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.25">
@@ -8885,63 +8885,63 @@
         <v>1990</v>
       </c>
       <c r="B64" s="12">
-        <v>5.8800993898622469</v>
+        <v>5.8746738027200482</v>
       </c>
       <c r="I64">
         <v>1990</v>
       </c>
       <c r="J64" s="12">
-        <v>-1.8131349693872287</v>
+        <v>-1.8147893348580644</v>
       </c>
       <c r="AH64">
         <v>1990</v>
       </c>
       <c r="AI64" s="10">
         <f t="shared" si="28"/>
-        <v>2.8536956913140246E-2</v>
+        <v>3.0948164708761917E-2</v>
       </c>
       <c r="AJ64" s="10">
         <f t="shared" si="26"/>
-        <v>3.0335023445901221E-2</v>
+        <v>3.2131694845803728E-2</v>
       </c>
       <c r="AK64" s="10">
         <f t="shared" si="26"/>
-        <v>1.082431211987868E-3</v>
+        <v>2.1066472648166861E-3</v>
       </c>
       <c r="AL64" s="10">
         <f t="shared" si="26"/>
-        <v>1.7167981101234714E-3</v>
+        <v>5.6634984674463183E-4</v>
       </c>
       <c r="AM64" s="10">
         <f t="shared" si="26"/>
-        <v>0.11429289360468481</v>
+        <v>0.11409597338826435</v>
       </c>
       <c r="AN64" s="10">
         <f t="shared" si="26"/>
-        <v>5.160707599829231E-3</v>
+        <v>5.9702276375817685E-3</v>
       </c>
       <c r="AW64">
         <v>1990</v>
       </c>
       <c r="AX64" s="10">
         <f t="shared" si="29"/>
-        <v>5.7667775780959961E-2</v>
+        <v>5.539169846252761E-2</v>
       </c>
       <c r="AY64" s="10">
         <f t="shared" si="30"/>
-        <v>3.5572904956714599E-2</v>
+        <v>3.6881739716997083E-2</v>
       </c>
       <c r="AZ64" s="10">
         <f t="shared" si="31"/>
-        <v>3.286495492040395E-5</v>
+        <v>8.5107780491295898E-5</v>
       </c>
       <c r="BA64" s="10">
         <f t="shared" si="32"/>
-        <v>1.4877525008120719E-3</v>
+        <v>3.5872248578162594E-3</v>
       </c>
       <c r="BB64" s="10">
         <f t="shared" si="33"/>
-        <v>6.6168964592936089E-3</v>
+        <v>6.9046732095407086E-3</v>
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
@@ -8949,63 +8949,63 @@
         <v>1991</v>
       </c>
       <c r="B65" s="12">
-        <v>5.960004169177525</v>
+        <v>5.9436740020745757</v>
       </c>
       <c r="I65">
         <v>1991</v>
       </c>
       <c r="J65" s="12">
-        <v>-1.7088244616343575</v>
+        <v>-1.7089862112862941</v>
       </c>
       <c r="AH65">
         <v>1991</v>
       </c>
       <c r="AI65" s="10">
         <f t="shared" si="28"/>
-        <v>7.49790453652672E-2</v>
+        <v>8.4297524132530319E-2</v>
       </c>
       <c r="AJ65" s="10">
         <f t="shared" si="26"/>
-        <v>5.3844710502940103E-2</v>
+        <v>5.1441771013579905E-2</v>
       </c>
       <c r="AK65" s="10">
         <f t="shared" si="26"/>
-        <v>0.22323341197960617</v>
+        <v>0.22077983177719018</v>
       </c>
       <c r="AL65" s="10">
         <f t="shared" si="26"/>
-        <v>3.227221119866424E-4</v>
+        <v>1.0999040647370591E-3</v>
       </c>
       <c r="AM65" s="10">
         <f t="shared" si="26"/>
-        <v>6.2830374011509568E-5</v>
+        <v>2.0652717495800506E-4</v>
       </c>
       <c r="AN65" s="10">
         <f t="shared" si="26"/>
-        <v>5.5551703527132124E-2</v>
+        <v>5.3923017785725648E-2</v>
       </c>
       <c r="AW65">
         <v>1991</v>
       </c>
       <c r="AX65" s="10">
         <f t="shared" si="29"/>
-        <v>0.21209949825032215</v>
+        <v>0.19789266593376859</v>
       </c>
       <c r="AY65" s="10">
         <f t="shared" si="30"/>
-        <v>3.086174187494423E-2</v>
+        <v>2.9256340928725293E-2</v>
       </c>
       <c r="AZ65" s="10">
         <f t="shared" si="31"/>
-        <v>5.8975048402978056E-2</v>
+        <v>5.823155447630525E-2</v>
       </c>
       <c r="BA65" s="10">
         <f t="shared" si="32"/>
-        <v>0.1503088485438128</v>
+        <v>0.13677061863709622</v>
       </c>
       <c r="BB65" s="10">
         <f t="shared" si="33"/>
-        <v>0.10940585097909125</v>
+        <v>9.4535207322599304E-2</v>
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
@@ -9013,63 +9013,63 @@
         <v>1992</v>
       </c>
       <c r="B66" s="12">
-        <v>6.7080600834115041</v>
+        <v>6.6988109903546347</v>
       </c>
       <c r="I66">
         <v>1992</v>
       </c>
       <c r="J66" s="12">
-        <v>-1.8302748549934613</v>
+        <v>-1.8495626191826744</v>
       </c>
       <c r="AH66">
         <v>1992</v>
       </c>
       <c r="AI66" s="10">
         <f t="shared" si="28"/>
-        <v>0.15058970443328429</v>
+        <v>0.17236946585658575</v>
       </c>
       <c r="AJ66" s="10">
         <f t="shared" si="26"/>
-        <v>1.8110370074858986E-3</v>
+        <v>5.2355666084362281E-3</v>
       </c>
       <c r="AK66" s="10">
         <f t="shared" si="26"/>
-        <v>2.6431721340702239E-2</v>
+        <v>2.1336145311101364E-2</v>
       </c>
       <c r="AL66" s="10">
         <f t="shared" si="26"/>
-        <v>2.4669813262488276E-2</v>
+        <v>2.0005246318278089E-2</v>
       </c>
       <c r="AM66" s="10">
         <f t="shared" si="26"/>
-        <v>3.629616849995157E-2</v>
+        <v>3.4881377901612588E-2</v>
       </c>
       <c r="AN66" s="10">
         <f t="shared" si="26"/>
-        <v>5.4297684683942702E-3</v>
+        <v>7.1936755721289571E-3</v>
       </c>
       <c r="AW66">
         <v>1992</v>
       </c>
       <c r="AX66" s="10">
         <f t="shared" si="29"/>
-        <v>0.21355640580710844</v>
+        <v>0.22158851123625006</v>
       </c>
       <c r="AY66" s="10">
         <f t="shared" si="30"/>
-        <v>1.4528508177480606E-3</v>
+        <v>2.9099197746135174E-3</v>
       </c>
       <c r="AZ66" s="10">
         <f t="shared" si="31"/>
-        <v>6.9112468721173742E-2</v>
+        <v>6.7061596117823322E-2</v>
       </c>
       <c r="BA66" s="10">
         <f t="shared" si="32"/>
-        <v>5.9004357861387295E-2</v>
+        <v>5.8946369585553299E-2</v>
       </c>
       <c r="BB66" s="10">
         <f t="shared" si="33"/>
-        <v>4.0085942839493176E-2</v>
+        <v>3.2941631881713368E-2</v>
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.25">
@@ -9077,63 +9077,63 @@
         <v>1993</v>
       </c>
       <c r="B67" s="12">
-        <v>6.0702267275611916</v>
+        <v>6.0765481662151162</v>
       </c>
       <c r="I67">
         <v>1993</v>
       </c>
       <c r="J67" s="12">
-        <v>-1.8435509982590235</v>
+        <v>-1.8495687536122547</v>
       </c>
       <c r="AH67">
         <v>1993</v>
       </c>
       <c r="AI67" s="10">
         <f t="shared" si="28"/>
-        <v>3.6251461031823959E-2</v>
+        <v>3.6525455632070693E-2</v>
       </c>
       <c r="AJ67" s="10">
         <f t="shared" si="26"/>
-        <v>1.987685072398113E-3</v>
+        <v>1.2127834181821561E-3</v>
       </c>
       <c r="AK67" s="10">
         <f t="shared" si="26"/>
-        <v>4.7209122161357064E-3</v>
+        <v>4.1232944966540881E-3</v>
       </c>
       <c r="AL67" s="10">
         <f t="shared" si="26"/>
-        <v>4.0104414328602588E-2</v>
+        <v>3.6273170579995004E-2</v>
       </c>
       <c r="AM67" s="10">
         <f t="shared" si="26"/>
-        <v>1.7888718152686722E-2</v>
+        <v>2.0802464745626473E-2</v>
       </c>
       <c r="AN67" s="10">
         <f t="shared" si="26"/>
-        <v>7.5023118211714982E-3</v>
+        <v>6.3143826375812156E-3</v>
       </c>
       <c r="AW67">
         <v>1993</v>
       </c>
       <c r="AX67" s="10">
         <f t="shared" si="29"/>
-        <v>1.2847485854122964E-3</v>
+        <v>8.3423413612953819E-4</v>
       </c>
       <c r="AY67" s="10">
         <f t="shared" si="30"/>
-        <v>5.0820570288686355E-2</v>
+        <v>5.3119609822676835E-2</v>
       </c>
       <c r="AZ67" s="10">
         <f t="shared" si="31"/>
-        <v>3.7566634887562692E-2</v>
+        <v>3.7611536659749534E-2</v>
       </c>
       <c r="BA67" s="10">
         <f t="shared" si="32"/>
-        <v>2.0330408527298761E-2</v>
+        <v>1.5911945452970058E-2</v>
       </c>
       <c r="BB67" s="10">
         <f t="shared" si="33"/>
-        <v>1.2472007898316683E-2</v>
+        <v>1.6232051701601788E-2</v>
       </c>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.25">
@@ -9141,63 +9141,63 @@
         <v>1994</v>
       </c>
       <c r="B68" s="12">
-        <v>6.8449243765199697</v>
+        <v>6.8361837595754951</v>
       </c>
       <c r="I68">
         <v>1994</v>
       </c>
       <c r="J68" s="12">
-        <v>-1.6680754984213426</v>
+        <v>-1.6754191584456222</v>
       </c>
       <c r="AH68">
         <v>1994</v>
       </c>
       <c r="AI68" s="10">
         <f t="shared" si="28"/>
-        <v>1.0970506795324146</v>
+        <v>1.1296900884404579</v>
       </c>
       <c r="AJ68" s="10">
         <f t="shared" si="26"/>
-        <v>4.9733743340410495E-2</v>
+        <v>5.0921254878054878E-2</v>
       </c>
       <c r="AK68" s="10">
         <f t="shared" si="26"/>
-        <v>0.11064732092641491</v>
+        <v>0.10754067697615452</v>
       </c>
       <c r="AL68" s="10">
         <f t="shared" si="26"/>
-        <v>1.8074234545698262E-2</v>
+        <v>1.8118720611505913E-2</v>
       </c>
       <c r="AM68" s="10">
         <f t="shared" si="26"/>
-        <v>3.1099249558885285E-3</v>
+        <v>5.1217349244199904E-3</v>
       </c>
       <c r="AN68" s="10">
         <f t="shared" si="26"/>
-        <v>1.7662370856791124E-2</v>
+        <v>1.9786001220791709E-2</v>
       </c>
       <c r="AW68">
         <v>1994</v>
       </c>
       <c r="AX68" s="10">
         <f t="shared" si="29"/>
-        <v>2.1626801718165911E-3</v>
+        <v>2.9818592241438145E-3</v>
       </c>
       <c r="AY68" s="10">
         <f t="shared" si="30"/>
-        <v>0.21275744892268691</v>
+        <v>0.22015136728463308</v>
       </c>
       <c r="AZ68" s="10">
         <f t="shared" si="31"/>
-        <v>0.24841357822502175</v>
+        <v>0.24868779335226504</v>
       </c>
       <c r="BA68" s="10">
         <f t="shared" si="32"/>
-        <v>9.5216118964408861E-2</v>
+        <v>9.0778591342457957E-2</v>
       </c>
       <c r="BB68" s="10">
         <f t="shared" si="33"/>
-        <v>0.39640795293095477</v>
+        <v>0.36945644387031185</v>
       </c>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
@@ -9205,63 +9205,63 @@
         <v>1995</v>
       </c>
       <c r="B69" s="12">
-        <v>6.3381562094628574</v>
+        <v>6.351002628999221</v>
       </c>
       <c r="I69">
         <v>1995</v>
       </c>
       <c r="J69" s="12">
-        <v>-1.7605590708868539</v>
+        <v>-1.7482611249496693</v>
       </c>
       <c r="AH69">
         <v>1995</v>
       </c>
       <c r="AI69" s="10">
         <f t="shared" si="28"/>
-        <v>6.8958266441606969E-3</v>
+        <v>1.1476616601090403E-2</v>
       </c>
       <c r="AJ69" s="10">
         <f t="shared" si="26"/>
-        <v>6.9577654734110359E-4</v>
+        <v>6.3219558777863642E-4</v>
       </c>
       <c r="AK69" s="10">
         <f t="shared" si="26"/>
-        <v>1.5006294627655886E-6</v>
+        <v>5.1685421064664885E-4</v>
       </c>
       <c r="AL69" s="10">
         <f t="shared" si="26"/>
-        <v>2.1212510179861543E-2</v>
+        <v>2.5962560223614452E-2</v>
       </c>
       <c r="AM69" s="10">
         <f t="shared" si="26"/>
-        <v>1.4156834750599243E-2</v>
+        <v>2.0087602172255865E-2</v>
       </c>
       <c r="AN69" s="10">
         <f t="shared" si="26"/>
-        <v>6.5862556260459643E-2</v>
+        <v>8.1257018592373609E-2</v>
       </c>
       <c r="AW69">
         <v>1995</v>
       </c>
       <c r="AX69" s="10">
         <f t="shared" si="29"/>
-        <v>0.41367516284238409</v>
+        <v>0.39651022947506442</v>
       </c>
       <c r="AY69" s="10">
         <f t="shared" si="30"/>
-        <v>6.3675323698746455E-2</v>
+        <v>6.7043695710894982E-2</v>
       </c>
       <c r="AZ69" s="10">
         <f t="shared" si="31"/>
-        <v>0.11962426569837868</v>
+        <v>0.10918383013986697</v>
       </c>
       <c r="BA69" s="10">
         <f t="shared" si="32"/>
-        <v>2.2850884941411707E-2</v>
+        <v>2.601748442206897E-2</v>
       </c>
       <c r="BB69" s="10">
         <f t="shared" si="33"/>
-        <v>3.4608659906990039E-2</v>
+        <v>2.9301882652916042E-2</v>
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.25">
@@ -9269,63 +9269,63 @@
         <v>1996</v>
       </c>
       <c r="B70" s="12">
-        <v>5.9469934031465534</v>
+        <v>5.9430156914315537</v>
       </c>
       <c r="I70">
         <v>1996</v>
       </c>
       <c r="J70" s="12">
-        <v>-1.8064497094572727</v>
+        <v>-1.7879404491446731</v>
       </c>
       <c r="AH70">
         <v>1996</v>
       </c>
       <c r="AI70" s="10">
         <f t="shared" si="28"/>
-        <v>0.63976461592794032</v>
+        <v>0.66076354074874322</v>
       </c>
       <c r="AJ70" s="10">
         <f t="shared" si="26"/>
-        <v>1.6933577033645534E-3</v>
+        <v>4.1096537360070995E-3</v>
       </c>
       <c r="AK70" s="10">
         <f t="shared" si="26"/>
-        <v>3.1505467259968334E-2</v>
+        <v>2.9126197149288956E-2</v>
       </c>
       <c r="AL70" s="10">
         <f t="shared" si="26"/>
-        <v>2.0599725698500276E-3</v>
+        <v>1.0521841593078762E-3</v>
       </c>
       <c r="AM70" s="10">
         <f t="shared" si="26"/>
-        <v>4.1191365370566706E-3</v>
+        <v>2.6434757445072212E-3</v>
       </c>
       <c r="AN70" s="10">
         <f t="shared" si="26"/>
-        <v>5.6970663004435415E-2</v>
+        <v>4.3734121802975631E-2</v>
       </c>
       <c r="AW70">
         <v>1996</v>
       </c>
       <c r="AX70" s="10">
         <f t="shared" si="29"/>
-        <v>0.14693305409352858</v>
+        <v>0.14438449929847269</v>
       </c>
       <c r="AY70" s="10">
         <f t="shared" si="30"/>
-        <v>3.7994009856028255E-4</v>
+        <v>9.1247627446293909E-4</v>
       </c>
       <c r="AZ70" s="10">
         <f t="shared" si="31"/>
-        <v>5.1545203596943576E-2</v>
+        <v>4.4227942022045386E-2</v>
       </c>
       <c r="BA70" s="10">
         <f t="shared" si="32"/>
-        <v>3.5570347398781695E-4</v>
+        <v>2.3987749369133076E-4</v>
       </c>
       <c r="BB70" s="10">
         <f t="shared" si="33"/>
-        <v>1.4312420786643163E-2</v>
+        <v>1.4368355528573599E-2</v>
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
@@ -9333,63 +9333,63 @@
         <v>1997</v>
       </c>
       <c r="B71" s="12">
-        <v>7.0382869880107988</v>
+        <v>7.0517461303577074</v>
       </c>
       <c r="I71">
         <v>1997</v>
       </c>
       <c r="J71" s="12">
-        <v>-1.8061740698790891</v>
+        <v>-1.8099052545586296</v>
       </c>
       <c r="AH71">
         <v>1997</v>
       </c>
       <c r="AI71" s="10">
         <f t="shared" si="28"/>
-        <v>2.2110829246703975E-2</v>
+        <v>2.5179151198584042E-2</v>
       </c>
       <c r="AJ71" s="10">
         <f t="shared" si="26"/>
-        <v>4.585504693906462E-6</v>
+        <v>1.5577456331138359E-4</v>
       </c>
       <c r="AK71" s="10">
         <f t="shared" si="26"/>
-        <v>1.7729950739788395E-4</v>
+        <v>4.2675483742256586E-4</v>
       </c>
       <c r="AL71" s="10">
         <f t="shared" si="26"/>
-        <v>1.1902520422667916E-2</v>
+        <v>4.8120399990961345E-3</v>
       </c>
       <c r="AM71" s="10">
         <f t="shared" si="26"/>
-        <v>8.6148942860813163E-2</v>
+        <v>9.5040618810047869E-2</v>
       </c>
       <c r="AN71" s="10">
         <f t="shared" si="26"/>
-        <v>0.16599574340614406</v>
+        <v>0.16877990393626302</v>
       </c>
       <c r="AW71">
         <v>1997</v>
       </c>
       <c r="AX71" s="10">
         <f t="shared" si="29"/>
-        <v>0.42807282054400014</v>
+        <v>0.40982372323962729</v>
       </c>
       <c r="AY71" s="10">
         <f t="shared" si="30"/>
-        <v>2.272809738509092E-2</v>
+        <v>2.0592452007756348E-2</v>
       </c>
       <c r="AZ71" s="10">
         <f t="shared" si="31"/>
-        <v>0.14310942585490075</v>
+        <v>0.13998141930851132</v>
       </c>
       <c r="BA71" s="10">
         <f t="shared" si="32"/>
-        <v>0.16982557193723299</v>
+        <v>0.14244776754861885</v>
       </c>
       <c r="BB71" s="10">
         <f t="shared" si="33"/>
-        <v>3.8888938169543141E-2</v>
+        <v>4.3442881090306203E-2</v>
       </c>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
@@ -9397,63 +9397,63 @@
         <v>1998</v>
       </c>
       <c r="B72" s="12">
-        <v>5.1985223372911271</v>
+        <v>5.2038277804898652</v>
       </c>
       <c r="I72">
         <v>1998</v>
       </c>
       <c r="J72" s="12">
-        <v>-1.6603217192581907</v>
+        <v>-1.6733450042408426</v>
       </c>
       <c r="AH72">
         <v>1998</v>
       </c>
       <c r="AI72" s="10">
         <f t="shared" si="28"/>
-        <v>0.10685332295685576</v>
+        <v>0.10259456968646496</v>
       </c>
       <c r="AJ72" s="10">
         <f t="shared" si="26"/>
-        <v>4.0940876621589975E-2</v>
+        <v>3.8684824142995185E-2</v>
       </c>
       <c r="AK72" s="10">
         <f t="shared" si="26"/>
-        <v>9.426581571821957E-2</v>
+        <v>0.10158106283993834</v>
       </c>
       <c r="AL72" s="10">
         <f t="shared" si="26"/>
-        <v>2.7077141420679223E-2</v>
+        <v>3.0368227550301795E-2</v>
       </c>
       <c r="AM72" s="10">
         <f t="shared" si="26"/>
-        <v>2.230644770902727E-4</v>
+        <v>6.7336844110926818E-4</v>
       </c>
       <c r="AN72" s="10">
         <f t="shared" si="26"/>
-        <v>6.0448657132888953E-2</v>
+        <v>6.7600579801754615E-2</v>
       </c>
       <c r="AW72">
         <v>1998</v>
       </c>
       <c r="AX72" s="10">
         <f t="shared" si="29"/>
-        <v>0.10709130797565784</v>
+        <v>0.10323613227124345</v>
       </c>
       <c r="AY72" s="10">
         <f t="shared" si="30"/>
-        <v>6.092407954312028E-3</v>
+        <v>4.0172264231711687E-3</v>
       </c>
       <c r="AZ72" s="10">
         <f t="shared" si="31"/>
-        <v>5.7653208710763862E-2</v>
+        <v>5.5920802986951526E-2</v>
       </c>
       <c r="BA72" s="10">
         <f t="shared" si="32"/>
-        <v>7.3347270774560625E-3</v>
+        <v>7.4888052035612255E-3</v>
       </c>
       <c r="BB72" s="10">
         <f t="shared" si="33"/>
-        <v>0.15943829566027701</v>
+        <v>0.13564634282860483</v>
       </c>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.25">
@@ -9461,63 +9461,63 @@
         <v>1999</v>
       </c>
       <c r="B73" s="12">
-        <v>5.6168914860807782</v>
+        <v>5.6216170618241659</v>
       </c>
       <c r="I73">
         <v>1999</v>
       </c>
       <c r="J73" s="12">
-        <v>-1.5761831635632675</v>
+        <v>-1.579923753793826</v>
       </c>
       <c r="AH73">
         <v>1999</v>
       </c>
       <c r="AI73" s="10">
         <f t="shared" si="28"/>
-        <v>1.2322551666503947E-3</v>
+        <v>1.3262821560797785E-3</v>
       </c>
       <c r="AJ73" s="10">
         <f t="shared" ref="AJ73:AJ89" si="34">(LN(AB28)-LN(AJ28))^2</f>
-        <v>0.16665296795918197</v>
+        <v>0.17152479560741002</v>
       </c>
       <c r="AK73" s="10">
         <f t="shared" ref="AK73:AK89" si="35">(LN(AC28)-LN(AK28))^2</f>
-        <v>6.8696887248597335E-3</v>
+        <v>3.3855886560218702E-3</v>
       </c>
       <c r="AL73" s="10">
         <f t="shared" ref="AL73:AL89" si="36">(LN(AD28)-LN(AL28))^2</f>
-        <v>6.7376701012611756E-2</v>
+        <v>6.3174876731898241E-2</v>
       </c>
       <c r="AM73" s="10">
         <f t="shared" ref="AM73:AM89" si="37">(LN(AE28)-LN(AM28))^2</f>
-        <v>1.5402537514959351E-4</v>
+        <v>5.202092352589551E-4</v>
       </c>
       <c r="AN73" s="10">
         <f t="shared" ref="AN73:AN89" si="38">(LN(AF28)-LN(AN28))^2</f>
-        <v>2.9110401042572273E-2</v>
+        <v>3.3980823924355447E-2</v>
       </c>
       <c r="AW73">
         <v>1999</v>
       </c>
       <c r="AX73" s="10">
         <f t="shared" si="29"/>
-        <v>7.9360388913982963E-2</v>
+        <v>8.2411582093620539E-2</v>
       </c>
       <c r="AY73" s="10">
         <f t="shared" si="30"/>
-        <v>0.20561518993320099</v>
+        <v>0.21365087945909267</v>
       </c>
       <c r="AZ73" s="10">
         <f t="shared" si="31"/>
-        <v>8.6222559547007291E-2</v>
+        <v>7.0781645928619547E-2</v>
       </c>
       <c r="BA73" s="10">
         <f t="shared" si="32"/>
-        <v>6.0105986528367371E-2</v>
+        <v>5.3914683668407112E-2</v>
       </c>
       <c r="BB73" s="10">
         <f t="shared" si="33"/>
-        <v>1.6007325596256203E-2</v>
+        <v>1.2696490025810775E-2</v>
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
@@ -9525,63 +9525,63 @@
         <v>2000</v>
       </c>
       <c r="B74" s="12">
-        <v>6.0910636211228963</v>
+        <v>6.0928190884526909</v>
       </c>
       <c r="I74">
         <v>2000</v>
       </c>
       <c r="J74" s="12">
-        <v>-1.6351706732530586</v>
+        <v>-1.6338391548121236</v>
       </c>
       <c r="AH74">
         <v>2000</v>
       </c>
       <c r="AI74" s="10">
         <f t="shared" si="28"/>
-        <v>6.5282539317001426E-2</v>
+        <v>6.6785049375603908E-2</v>
       </c>
       <c r="AJ74" s="10">
         <f t="shared" si="34"/>
-        <v>2.6346999796914065E-2</v>
+        <v>2.8499156356735351E-2</v>
       </c>
       <c r="AK74" s="10">
         <f t="shared" si="35"/>
-        <v>5.1628353989427493E-2</v>
+        <v>4.5911561944883085E-2</v>
       </c>
       <c r="AL74" s="10">
         <f t="shared" si="36"/>
-        <v>3.5027601566154625E-3</v>
+        <v>8.2979287752873599E-3</v>
       </c>
       <c r="AM74" s="10">
         <f t="shared" si="37"/>
-        <v>9.1477562534122203E-2</v>
+        <v>8.1157457139347494E-2</v>
       </c>
       <c r="AN74" s="10">
         <f t="shared" si="38"/>
-        <v>2.5176597320365996E-2</v>
+        <v>2.4341579116893546E-2</v>
       </c>
       <c r="AW74">
         <v>2000</v>
       </c>
       <c r="AX74" s="10">
         <f t="shared" si="29"/>
-        <v>5.0860129845732342E-2</v>
+        <v>4.9785925299857869E-2</v>
       </c>
       <c r="AY74" s="10">
         <f t="shared" si="30"/>
-        <v>2.3014730573437247E-5</v>
+        <v>1.7932208515785832E-6</v>
       </c>
       <c r="AZ74" s="10">
         <f t="shared" si="31"/>
-        <v>1.8593218832167364E-4</v>
+        <v>7.2105100337588053E-4</v>
       </c>
       <c r="BA74" s="10">
         <f t="shared" si="32"/>
-        <v>0.13329873659653574</v>
+        <v>0.10985774736173838</v>
       </c>
       <c r="BB74" s="10">
         <f t="shared" si="33"/>
-        <v>0.44535742100856845</v>
+        <v>0.4221878709396496</v>
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
@@ -9589,63 +9589,63 @@
         <v>2001</v>
       </c>
       <c r="B75" s="12">
-        <v>5.0561068369832025</v>
+        <v>5.0589907696520298</v>
       </c>
       <c r="I75">
         <v>2001</v>
       </c>
       <c r="J75" s="12">
-        <v>-2.0920318759884844</v>
+        <v>-2.0895616187924833</v>
       </c>
       <c r="AH75">
         <v>2001</v>
       </c>
       <c r="AI75" s="10">
         <f t="shared" si="28"/>
-        <v>0.33388084993324602</v>
+        <v>0.33987629521573354</v>
       </c>
       <c r="AJ75" s="10">
         <f t="shared" si="34"/>
-        <v>9.9708487281169406E-2</v>
+        <v>9.7648352548757186E-2</v>
       </c>
       <c r="AK75" s="10">
         <f t="shared" si="35"/>
-        <v>1.5904458742000391E-2</v>
+        <v>1.4408250714417294E-2</v>
       </c>
       <c r="AL75" s="10">
         <f t="shared" si="36"/>
-        <v>0.13372982464195696</v>
+        <v>0.12509424431266841</v>
       </c>
       <c r="AM75" s="10">
         <f t="shared" si="37"/>
-        <v>4.7621838834190744E-2</v>
+        <v>6.3782968940300999E-2</v>
       </c>
       <c r="AN75" s="10">
         <f t="shared" si="38"/>
-        <v>7.8895897800356191E-2</v>
+        <v>7.9539689339141878E-2</v>
       </c>
       <c r="AW75">
         <v>2001</v>
       </c>
       <c r="AX75" s="10">
         <f t="shared" si="29"/>
-        <v>4.8196076991185955E-3</v>
+        <v>5.3211432181529969E-3</v>
       </c>
       <c r="AY75" s="10">
         <f t="shared" si="30"/>
-        <v>6.451802784186461E-3</v>
+        <v>6.1492258747452176E-3</v>
       </c>
       <c r="AZ75" s="10">
         <f t="shared" si="31"/>
-        <v>3.7430451585106807E-2</v>
+        <v>3.5374392774512015E-2</v>
       </c>
       <c r="BA75" s="10">
         <f t="shared" si="32"/>
-        <v>0.22854693107641547</v>
+        <v>0.21644369173945407</v>
       </c>
       <c r="BB75" s="10">
         <f t="shared" si="33"/>
-        <v>0.18596375967746412</v>
+        <v>0.21561579659722577</v>
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
@@ -9653,63 +9653,63 @@
         <v>2002</v>
       </c>
       <c r="B76" s="12">
-        <v>5.3754335447540535</v>
+        <v>5.4071239507730056</v>
       </c>
       <c r="I76">
         <v>2002</v>
       </c>
       <c r="J76" s="12">
-        <v>-1.669819947591233</v>
+        <v>-1.6728876516347233</v>
       </c>
       <c r="AH76">
         <v>2002</v>
       </c>
       <c r="AI76" s="10">
         <f t="shared" si="28"/>
-        <v>1.1052508061930285E-2</v>
+        <v>5.8171449207125667E-3</v>
       </c>
       <c r="AJ76" s="10">
         <f t="shared" si="34"/>
-        <v>2.031525500649378E-3</v>
+        <v>1.9908675677188592E-3</v>
       </c>
       <c r="AK76" s="10">
         <f t="shared" si="35"/>
-        <v>3.0744820935244121E-3</v>
+        <v>2.883948813638211E-3</v>
       </c>
       <c r="AL76" s="10">
         <f t="shared" si="36"/>
-        <v>1.0830095178482374E-2</v>
+        <v>1.0780864565372148E-2</v>
       </c>
       <c r="AM76" s="10">
         <f t="shared" si="37"/>
-        <v>3.2239548934341052E-4</v>
+        <v>8.3991320602122422E-5</v>
       </c>
       <c r="AN76" s="10">
         <f t="shared" si="38"/>
-        <v>9.1710543325580721E-2</v>
+        <v>9.7294441528395795E-2</v>
       </c>
       <c r="AW76">
         <v>2002</v>
       </c>
       <c r="AX76" s="10">
         <f t="shared" si="29"/>
-        <v>0.3597426898078942</v>
+        <v>0.32200664225264725</v>
       </c>
       <c r="AY76" s="10">
         <f t="shared" si="30"/>
-        <v>6.5155594134152124E-3</v>
+        <v>6.0441047190088479E-3</v>
       </c>
       <c r="AZ76" s="10">
         <f t="shared" si="31"/>
-        <v>1.2763923300981161E-3</v>
+        <v>1.3419970876877815E-3</v>
       </c>
       <c r="BA76" s="10">
         <f t="shared" si="32"/>
-        <v>2.6111040783123587E-7</v>
+        <v>2.7136323741338962E-5</v>
       </c>
       <c r="BB76" s="10">
         <f t="shared" si="33"/>
-        <v>3.5185690651609342E-4</v>
+        <v>9.3483286941706126E-4</v>
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
@@ -9717,63 +9717,63 @@
         <v>2003</v>
       </c>
       <c r="B77" s="12">
-        <v>4.7418438862019006</v>
+        <v>4.7400719079721494</v>
       </c>
       <c r="I77">
         <v>2003</v>
       </c>
       <c r="J77" s="12">
-        <v>-2.3151356039914583</v>
+        <v>-2.3015934497575179</v>
       </c>
       <c r="AH77">
         <v>2003</v>
       </c>
       <c r="AI77" s="10">
         <f t="shared" si="28"/>
-        <v>7.1297639390134893E-2</v>
+        <v>7.7331644917774459E-2</v>
       </c>
       <c r="AJ77" s="10">
         <f t="shared" si="34"/>
-        <v>3.6953216972691037E-3</v>
+        <v>1.0822838447935914E-2</v>
       </c>
       <c r="AK77" s="10">
         <f t="shared" si="35"/>
-        <v>7.990406894484374E-2</v>
+        <v>7.1450045100967183E-2</v>
       </c>
       <c r="AL77" s="10">
         <f t="shared" si="36"/>
-        <v>5.5818890483128575E-2</v>
+        <v>4.9553412515318619E-2</v>
       </c>
       <c r="AM77" s="10">
         <f t="shared" si="37"/>
-        <v>3.5541288411979378E-3</v>
+        <v>6.1517785430195444E-3</v>
       </c>
       <c r="AN77" s="10">
         <f t="shared" si="38"/>
-        <v>0.37373998383985291</v>
+        <v>0.40514038138793734</v>
       </c>
       <c r="AW77">
         <v>2003</v>
       </c>
       <c r="AX77" s="10">
         <f t="shared" si="29"/>
-        <v>0.46338397475732701</v>
+        <v>0.46184255120412671</v>
       </c>
       <c r="AY77" s="10">
         <f t="shared" si="30"/>
-        <v>4.9677264467477174E-2</v>
+        <v>3.6108375718483063E-2</v>
       </c>
       <c r="AZ77" s="10">
         <f t="shared" si="31"/>
-        <v>6.8862056657993664E-2</v>
+        <v>6.5529275319746963E-2</v>
       </c>
       <c r="BA77" s="10">
         <f t="shared" si="32"/>
-        <v>1.2659751445419526E-2</v>
+        <v>1.1399784123553244E-2</v>
       </c>
       <c r="BB77" s="10">
         <f t="shared" si="33"/>
-        <v>0.11079721412735574</v>
+        <v>0.10534921743693464</v>
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
@@ -9781,63 +9781,63 @@
         <v>2004</v>
       </c>
       <c r="B78" s="12">
-        <v>5.4249760972997789</v>
+        <v>5.4341036464932673</v>
       </c>
       <c r="I78">
         <v>2004</v>
       </c>
       <c r="J78" s="12">
-        <v>-2.0389461272409148</v>
+        <v>-2.0259750011844817</v>
       </c>
       <c r="AH78">
         <v>2004</v>
       </c>
       <c r="AI78" s="10">
         <f t="shared" si="28"/>
-        <v>3.6973461611437631E-3</v>
+        <v>1.5659834512596613E-3</v>
       </c>
       <c r="AJ78" s="10">
         <f t="shared" si="34"/>
-        <v>5.9264380610148E-3</v>
+        <v>4.9989288797341368E-3</v>
       </c>
       <c r="AK78" s="10">
         <f t="shared" si="35"/>
-        <v>1.1238903888604831E-3</v>
+        <v>4.5890842588895055E-3</v>
       </c>
       <c r="AL78" s="10">
         <f t="shared" si="36"/>
-        <v>1.4647370332029057E-2</v>
+        <v>1.3245821942221571E-2</v>
       </c>
       <c r="AM78" s="10">
         <f t="shared" si="37"/>
-        <v>8.57640736092673E-2</v>
+        <v>9.0988063845407266E-2</v>
       </c>
       <c r="AN78" s="10">
         <f t="shared" si="38"/>
-        <v>0.28428420840051793</v>
+        <v>0.30644813063365411</v>
       </c>
       <c r="AW78">
         <v>2004</v>
       </c>
       <c r="AX78" s="10">
         <f t="shared" si="29"/>
-        <v>0.30811353193073826</v>
+        <v>0.29736666509957066</v>
       </c>
       <c r="AY78" s="10">
         <f t="shared" si="30"/>
-        <v>2.4867887875953745E-2</v>
+        <v>2.5808021156005643E-2</v>
       </c>
       <c r="AZ78" s="10">
         <f t="shared" si="31"/>
-        <v>0.10586877754082853</v>
+        <v>8.9253139727107675E-2</v>
       </c>
       <c r="BA78" s="10">
         <f t="shared" si="32"/>
-        <v>2.58436314725232E-2</v>
+        <v>2.6093234167094134E-2</v>
       </c>
       <c r="BB78" s="10">
         <f t="shared" si="33"/>
-        <v>5.1861676862770087E-2</v>
+        <v>5.1623549900310449E-2</v>
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.25">
@@ -9845,63 +9845,63 @@
         <v>2005</v>
       </c>
       <c r="B79" s="12">
-        <v>5.1976012643614027</v>
+        <v>5.1799932431561331</v>
       </c>
       <c r="I79">
         <v>2005</v>
       </c>
       <c r="J79" s="12">
-        <v>-2.0829553311584577</v>
+        <v>-2.0680370658145288</v>
       </c>
       <c r="AH79">
         <v>2005</v>
       </c>
       <c r="AI79" s="10">
         <f t="shared" si="28"/>
-        <v>0.10897575170353153</v>
+        <v>0.10658693019201496</v>
       </c>
       <c r="AJ79" s="10">
         <f t="shared" si="34"/>
-        <v>5.7061079478325567E-2</v>
+        <v>6.6170029347917894E-2</v>
       </c>
       <c r="AK79" s="10">
         <f t="shared" si="35"/>
-        <v>7.2366655110033706E-2</v>
+        <v>7.3388066990899614E-2</v>
       </c>
       <c r="AL79" s="10">
         <f t="shared" si="36"/>
-        <v>3.8174090026487854E-2</v>
+        <v>4.8780976655853292E-2</v>
       </c>
       <c r="AM79" s="10">
         <f t="shared" si="37"/>
-        <v>6.7661150544717297E-3</v>
+        <v>6.3969922725001906E-3</v>
       </c>
       <c r="AN79" s="10">
         <f t="shared" si="38"/>
-        <v>1.1839530141590614E-6</v>
+        <v>2.1093813494250146E-4</v>
       </c>
       <c r="AW79">
         <v>2005</v>
       </c>
       <c r="AX79" s="10">
         <f t="shared" si="29"/>
-        <v>3.5085626303402888E-2</v>
+        <v>2.9016531092156576E-2</v>
       </c>
       <c r="AY79" s="10">
         <f t="shared" si="30"/>
-        <v>5.3437826589800362E-2</v>
+        <v>5.6969692001610096E-2</v>
       </c>
       <c r="AZ79" s="10">
         <f t="shared" si="31"/>
-        <v>2.1962048084387824E-2</v>
+        <v>2.5329664673093444E-2</v>
       </c>
       <c r="BA79" s="10">
         <f t="shared" si="32"/>
-        <v>9.897579948606855E-2</v>
+        <v>8.8436408641321934E-2</v>
       </c>
       <c r="BB79" s="10">
         <f t="shared" si="33"/>
-        <v>0.10260868229982914</v>
+        <v>9.7116901901966493E-2</v>
       </c>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
@@ -9909,63 +9909,63 @@
         <v>2006</v>
       </c>
       <c r="B80" s="12">
-        <v>5.8823066356356639</v>
+        <v>5.8688200258289269</v>
       </c>
       <c r="I80">
         <v>2006</v>
       </c>
       <c r="J80" s="12">
-        <v>-2.1222152258968809</v>
+        <v>-2.1278551556417273</v>
       </c>
       <c r="AH80">
         <v>2006</v>
       </c>
       <c r="AI80" s="10">
         <f t="shared" si="28"/>
-        <v>2.6725293176822875E-3</v>
+        <v>1.0795043079515688E-3</v>
       </c>
       <c r="AJ80" s="10">
         <f t="shared" si="34"/>
-        <v>0.82647161867097563</v>
+        <v>0.87122072875340173</v>
       </c>
       <c r="AK80" s="10">
         <f t="shared" si="35"/>
-        <v>5.394721373655589E-3</v>
+        <v>4.5202659473619683E-3</v>
       </c>
       <c r="AL80" s="10">
         <f t="shared" si="36"/>
-        <v>9.1590994271162334E-3</v>
+        <v>4.5472667325592098E-3</v>
       </c>
       <c r="AM80" s="10">
         <f t="shared" si="37"/>
-        <v>0.18109190351735618</v>
+        <v>0.18386074184437093</v>
       </c>
       <c r="AN80" s="10">
         <f t="shared" si="38"/>
-        <v>1.199159697606572E-2</v>
+        <v>9.6902178613908294E-3</v>
       </c>
       <c r="AW80">
         <v>2006</v>
       </c>
       <c r="AX80" s="10">
         <f t="shared" si="29"/>
-        <v>0.19134764299126156</v>
+        <v>0.2027527860593098</v>
       </c>
       <c r="AY80" s="10">
         <f t="shared" si="30"/>
-        <v>0.28091827118120849</v>
+        <v>0.26069952775859784</v>
       </c>
       <c r="AZ80" s="10">
         <f t="shared" si="31"/>
-        <v>2.3874844124476091E-3</v>
+        <v>2.2567258163108108E-3</v>
       </c>
       <c r="BA80" s="10">
         <f t="shared" si="32"/>
-        <v>1.0387284245344599E-3</v>
+        <v>2.8802687749303088E-3</v>
       </c>
       <c r="BB80" s="10">
         <f t="shared" si="33"/>
-        <v>0.31749499416959315</v>
+        <v>0.32706459980517799</v>
       </c>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
@@ -9973,63 +9973,63 @@
         <v>2007</v>
       </c>
       <c r="B81" s="12">
-        <v>5.244846615194402</v>
+        <v>5.2455878061925549</v>
       </c>
       <c r="I81">
         <v>2007</v>
       </c>
       <c r="J81" s="12">
-        <v>-2.2300944553235427</v>
+        <v>-2.221108653117025</v>
       </c>
       <c r="AH81">
         <v>2007</v>
       </c>
       <c r="AI81" s="10">
         <f t="shared" si="28"/>
-        <v>3.4315912186520844E-2</v>
+        <v>3.0986318556738123E-2</v>
       </c>
       <c r="AJ81" s="10">
         <f t="shared" si="34"/>
-        <v>3.3253894022978623E-4</v>
+        <v>5.6795737080253691E-4</v>
       </c>
       <c r="AK81" s="10">
         <f t="shared" si="35"/>
-        <v>1.2775943249490492E-3</v>
+        <v>6.5824969002176105E-4</v>
       </c>
       <c r="AL81" s="10">
         <f t="shared" si="36"/>
-        <v>1.8334210874198285E-5</v>
+        <v>1.5954077691568172E-5</v>
       </c>
       <c r="AM81" s="10">
         <f t="shared" si="37"/>
-        <v>2.5716284156921527E-2</v>
+        <v>2.9360388565622446E-2</v>
       </c>
       <c r="AN81" s="10">
         <f t="shared" si="38"/>
-        <v>0.12959533674515614</v>
+        <v>0.13509305431297261</v>
       </c>
       <c r="AW81">
         <v>2007</v>
       </c>
       <c r="AX81" s="10">
         <f t="shared" si="29"/>
-        <v>8.0111576320135067E-5</v>
+        <v>5.7312115992231854E-5</v>
       </c>
       <c r="AY81" s="10">
         <f t="shared" si="30"/>
-        <v>6.3344949238050216E-3</v>
+        <v>4.5412948678419706E-3</v>
       </c>
       <c r="AZ81" s="10">
         <f t="shared" si="31"/>
-        <v>1.1902319448076617E-2</v>
+        <v>1.5527306230457982E-2</v>
       </c>
       <c r="BA81" s="10">
         <f t="shared" si="32"/>
-        <v>5.7778826775154134E-2</v>
+        <v>5.9751439555250078E-2</v>
       </c>
       <c r="BB81" s="10">
         <f t="shared" si="33"/>
-        <v>3.9821209020914593E-3</v>
+        <v>6.5135469796690007E-3</v>
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
@@ -10037,63 +10037,63 @@
         <v>2008</v>
       </c>
       <c r="B82" s="12">
-        <v>5.3205326431043902</v>
+        <v>5.341058577902273</v>
       </c>
       <c r="I82">
         <v>2008</v>
       </c>
       <c r="J82" s="12">
-        <v>-2.3473242797299054</v>
+        <v>-2.334729133623378</v>
       </c>
       <c r="AH82">
         <v>2008</v>
       </c>
       <c r="AI82" s="10">
         <f t="shared" si="28"/>
-        <v>3.5099490259147111E-2</v>
+        <v>4.8330541537911456E-2</v>
       </c>
       <c r="AJ82" s="10">
         <f t="shared" si="34"/>
-        <v>8.8653134989106954E-3</v>
+        <v>1.079457415561412E-2</v>
       </c>
       <c r="AK82" s="10">
         <f t="shared" si="35"/>
-        <v>3.533665986428975E-2</v>
+        <v>3.8487909386567244E-2</v>
       </c>
       <c r="AL82" s="10">
         <f t="shared" si="36"/>
-        <v>2.5938904207681593E-2</v>
+        <v>2.188561558424227E-2</v>
       </c>
       <c r="AM82" s="10">
         <f t="shared" si="37"/>
-        <v>1.4938556361882908E-4</v>
+        <v>4.7275714835984977E-4</v>
       </c>
       <c r="AN82" s="10">
         <f t="shared" si="38"/>
-        <v>2.0059636438119394E-2</v>
+        <v>1.8433148683824969E-2</v>
       </c>
       <c r="AW82">
         <v>2008</v>
       </c>
       <c r="AX82" s="10">
         <f t="shared" si="29"/>
-        <v>0.15687358954576711</v>
+        <v>0.14055595834524526</v>
       </c>
       <c r="AY82" s="10">
         <f t="shared" si="30"/>
-        <v>0.13254117106776581</v>
+        <v>0.1325553154579602</v>
       </c>
       <c r="AZ82" s="10">
         <f t="shared" si="31"/>
-        <v>7.9015238239289777E-3</v>
+        <v>5.2334335993926041E-3</v>
       </c>
       <c r="BA82" s="10">
         <f t="shared" si="32"/>
-        <v>2.4718498185753598E-2</v>
+        <v>3.1535996633770713E-2</v>
       </c>
       <c r="BB82" s="10">
         <f t="shared" si="33"/>
-        <v>3.9180130508301561E-2</v>
+        <v>3.9300248233229439E-2</v>
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
@@ -10101,63 +10101,63 @@
         <v>2009</v>
       </c>
       <c r="B83" s="12">
-        <v>5.3108761968074454</v>
+        <v>5.3008995618484187</v>
       </c>
       <c r="I83">
         <v>2009</v>
       </c>
       <c r="J83" s="12">
-        <v>-2.4012631897842045</v>
+        <v>-2.3901025053251366</v>
       </c>
       <c r="AH83">
         <v>2009</v>
       </c>
       <c r="AI83" s="10">
         <f t="shared" si="28"/>
-        <v>4.7191121536905432E-2</v>
+        <v>4.747492084865549E-2</v>
       </c>
       <c r="AJ83" s="10">
         <f t="shared" si="34"/>
-        <v>4.9222674731106439E-4</v>
+        <v>2.5356279732266004E-3</v>
       </c>
       <c r="AK83" s="10">
         <f t="shared" si="35"/>
-        <v>3.0156514738715993E-3</v>
+        <v>2.8134473653187069E-3</v>
       </c>
       <c r="AL83" s="10">
         <f t="shared" si="36"/>
-        <v>7.3376904984706387E-4</v>
+        <v>1.916447255918659E-3</v>
       </c>
       <c r="AM83" s="10">
         <f t="shared" si="37"/>
-        <v>8.4572350971595661E-5</v>
+        <v>6.9850745160590503E-4</v>
       </c>
       <c r="AN83" s="10">
         <f t="shared" si="38"/>
-        <v>1.1979137948006632E-2</v>
+        <v>1.1309269724031313E-2</v>
       </c>
       <c r="AW83">
         <v>2009</v>
       </c>
       <c r="AX83" s="10">
         <f t="shared" si="29"/>
-        <v>7.9342710646599604E-2</v>
+        <v>7.416939481416264E-2</v>
       </c>
       <c r="AY83" s="10">
         <f t="shared" si="30"/>
-        <v>7.5406820211442729E-3</v>
+        <v>4.533120760561918E-3</v>
       </c>
       <c r="AZ83" s="10">
         <f t="shared" si="31"/>
-        <v>3.3382148830963014E-2</v>
+        <v>3.5439446408444757E-2</v>
       </c>
       <c r="BA83" s="10">
         <f t="shared" si="32"/>
-        <v>0.13047858448291508</v>
+        <v>0.11445079733571471</v>
       </c>
       <c r="BB83" s="10">
         <f t="shared" si="33"/>
-        <v>3.2268305931879633E-2</v>
+        <v>2.3611072418032293E-2</v>
       </c>
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
@@ -10165,63 +10165,63 @@
         <v>2010</v>
       </c>
       <c r="B84" s="12">
-        <v>5.6935595852031735</v>
+        <v>5.7074271468678823</v>
       </c>
       <c r="I84">
         <v>2010</v>
       </c>
       <c r="J84" s="12">
-        <v>-2.5680745386559085</v>
+        <v>-2.5586406788054381</v>
       </c>
       <c r="AH84">
         <v>2010</v>
       </c>
       <c r="AI84" s="10">
         <f t="shared" si="28"/>
-        <v>0.1205856678519078</v>
+        <v>0.13702174496791272</v>
       </c>
       <c r="AJ84" s="10">
         <f t="shared" si="34"/>
-        <v>2.7784215053645037E-2</v>
+        <v>2.8886199275249977E-2</v>
       </c>
       <c r="AK84" s="10">
         <f t="shared" si="35"/>
-        <v>2.3202147233336995E-2</v>
+        <v>1.7149524315796003E-2</v>
       </c>
       <c r="AL84" s="10">
         <f t="shared" si="36"/>
-        <v>2.5319672960316284E-3</v>
+        <v>2.0003622702825588E-3</v>
       </c>
       <c r="AM84" s="10">
         <f t="shared" si="37"/>
-        <v>2.9754979945258073E-3</v>
+        <v>5.5594901437568582E-3</v>
       </c>
       <c r="AN84" s="10">
         <f t="shared" si="38"/>
-        <v>1.2428224019552902E-4</v>
+        <v>1.7717023486789804E-5</v>
       </c>
       <c r="AW84">
         <v>2010</v>
       </c>
       <c r="AX84" s="10">
         <f t="shared" si="29"/>
-        <v>8.7204078812898878E-2</v>
+        <v>7.884693629402631E-2</v>
       </c>
       <c r="AY84" s="10">
         <f t="shared" si="30"/>
-        <v>6.1730424740413121E-6</v>
+        <v>6.8415076270179464E-5</v>
       </c>
       <c r="AZ84" s="10">
         <f t="shared" si="31"/>
-        <v>0.16230854627461735</v>
+        <v>0.15050731033078116</v>
       </c>
       <c r="BA84" s="10">
         <f t="shared" si="32"/>
-        <v>1.4208007036349314E-5</v>
+        <v>2.0913044694408555E-4</v>
       </c>
       <c r="BB84" s="10">
         <f t="shared" si="33"/>
-        <v>0.29366001107840611</v>
+        <v>0.26453712073817587</v>
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
@@ -10229,63 +10229,63 @@
         <v>2011</v>
       </c>
       <c r="B85" s="12">
-        <v>5.0392261894610257</v>
+        <v>5.0312437968647181</v>
       </c>
       <c r="I85">
         <v>2011</v>
       </c>
       <c r="J85" s="12">
-        <v>-2.8094446497564811</v>
+        <v>-2.8020891915021795</v>
       </c>
       <c r="AH85">
         <v>2011</v>
       </c>
       <c r="AI85" s="10">
         <f t="shared" si="28"/>
-        <v>5.1241621502154999E-2</v>
+        <v>5.0842979187960817E-2</v>
       </c>
       <c r="AJ85" s="10">
         <f t="shared" si="34"/>
-        <v>1.6056482045234893E-2</v>
+        <v>2.1346672526894126E-2</v>
       </c>
       <c r="AK85" s="10">
         <f t="shared" si="35"/>
-        <v>2.2887165940981911E-2</v>
+        <v>2.5618213223726854E-2</v>
       </c>
       <c r="AL85" s="10">
         <f t="shared" si="36"/>
-        <v>1.5585235491984111E-2</v>
+        <v>1.9611318341655054E-2</v>
       </c>
       <c r="AM85" s="10">
         <f t="shared" si="37"/>
-        <v>9.3192084752931825E-4</v>
+        <v>5.10572716246347E-4</v>
       </c>
       <c r="AN85" s="10">
         <f t="shared" si="38"/>
-        <v>0.18230924715115862</v>
+        <v>0.19777335528321585</v>
       </c>
       <c r="AW85">
         <v>2011</v>
       </c>
       <c r="AX85" s="10">
         <f t="shared" si="29"/>
-        <v>0.14533463016541945</v>
+        <v>0.13978942481439358</v>
       </c>
       <c r="AY85" s="10">
         <f t="shared" si="30"/>
-        <v>5.2855271361458157E-2</v>
+        <v>4.6855398050491083E-2</v>
       </c>
       <c r="AZ85" s="10">
         <f t="shared" si="31"/>
-        <v>7.4842078341539414E-2</v>
+        <v>6.743581382229849E-2</v>
       </c>
       <c r="BA85" s="10">
         <f t="shared" si="32"/>
-        <v>8.1796487112266551E-3</v>
+        <v>1.0409402070755356E-2</v>
       </c>
       <c r="BB85" s="10">
         <f t="shared" si="33"/>
-        <v>4.4855248907237112E-3</v>
+        <v>6.5501086269389858E-3</v>
       </c>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
@@ -10293,63 +10293,63 @@
         <v>2012</v>
       </c>
       <c r="B86" s="12">
-        <v>5.4240983006586347</v>
+        <v>5.406616119898124</v>
       </c>
       <c r="I86">
         <v>2012</v>
       </c>
       <c r="J86" s="12">
-        <v>-2.7848149305756453</v>
+        <v>-2.7708220797914707</v>
       </c>
       <c r="AH86">
         <v>2012</v>
       </c>
       <c r="AI86" s="10">
         <f t="shared" si="28"/>
-        <v>5.4694968091905591E-2</v>
+        <v>5.6555947766052682E-2</v>
       </c>
       <c r="AJ86" s="10">
         <f t="shared" si="34"/>
-        <v>1.8263506333812923E-4</v>
+        <v>9.6793828370110916E-5</v>
       </c>
       <c r="AK86" s="10">
         <f t="shared" si="35"/>
-        <v>9.4727375647695928E-7</v>
+        <v>4.5423739328279383E-4</v>
       </c>
       <c r="AL86" s="10">
         <f t="shared" si="36"/>
-        <v>2.1679065166173945E-3</v>
+        <v>2.7815011884414508E-3</v>
       </c>
       <c r="AM86" s="10">
         <f t="shared" si="37"/>
-        <v>7.70314047827515E-2</v>
+        <v>8.9462988839952462E-2</v>
       </c>
       <c r="AN86" s="10">
         <f t="shared" si="38"/>
-        <v>1.7529798459558074E-3</v>
+        <v>2.6561729899694528E-3</v>
       </c>
       <c r="AW86">
         <v>2012</v>
       </c>
       <c r="AX86" s="10">
         <f t="shared" si="29"/>
-        <v>3.6256894115464485E-3</v>
+        <v>1.8809878276468573E-3</v>
       </c>
       <c r="AY86" s="10">
         <f t="shared" si="30"/>
-        <v>7.1751605028559262E-2</v>
+        <v>7.6137138481042657E-2</v>
       </c>
       <c r="AZ86" s="10">
         <f t="shared" si="31"/>
-        <v>0.18044117795150008</v>
+        <v>0.17062033880706415</v>
       </c>
       <c r="BA86" s="10">
         <f t="shared" si="32"/>
-        <v>5.1364926459564523E-4</v>
+        <v>5.1783545447912655E-5</v>
       </c>
       <c r="BB86" s="10">
         <f t="shared" si="33"/>
-        <v>1.954618535940017E-2</v>
+        <v>2.234172104642634E-2</v>
       </c>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
@@ -10357,63 +10357,63 @@
         <v>2013</v>
       </c>
       <c r="B87" s="12">
-        <v>5.5854453388198095</v>
+        <v>5.5865691484659692</v>
       </c>
       <c r="I87">
         <v>2013</v>
       </c>
       <c r="J87" s="12">
-        <v>-2.9139401583547944</v>
+        <v>-2.8964376355374215</v>
       </c>
       <c r="AH87">
         <v>2013</v>
       </c>
       <c r="AI87" s="10">
         <f t="shared" si="28"/>
-        <v>0.10708795706658654</v>
+        <v>0.11928329757348749</v>
       </c>
       <c r="AJ87" s="10">
         <f t="shared" si="34"/>
-        <v>1.8954128341508959E-3</v>
+        <v>1.641733956743539E-3</v>
       </c>
       <c r="AK87" s="10">
         <f t="shared" si="35"/>
-        <v>6.3187497475898066E-2</v>
+        <v>6.2244865048497869E-2</v>
       </c>
       <c r="AL87" s="10">
         <f t="shared" si="36"/>
-        <v>8.0413696720764358E-3</v>
+        <v>4.8463890334816779E-3</v>
       </c>
       <c r="AM87" s="10">
         <f t="shared" si="37"/>
-        <v>1.0490019092592655E-2</v>
+        <v>1.1375493603041225E-2</v>
       </c>
       <c r="AN87" s="10">
         <f t="shared" si="38"/>
-        <v>5.5695585784400359E-3</v>
+        <v>5.9085747006183886E-3</v>
       </c>
       <c r="AW87">
         <v>2013</v>
       </c>
       <c r="AX87" s="10">
         <f t="shared" si="29"/>
-        <v>3.1127315820043994E-2</v>
+        <v>3.175238882035495E-2</v>
       </c>
       <c r="AY87" s="10">
         <f t="shared" si="30"/>
-        <v>3.8135520776676653E-2</v>
+        <v>3.1399673865511832E-2</v>
       </c>
       <c r="AZ87" s="10">
         <f t="shared" si="31"/>
-        <v>5.0715394963097328E-2</v>
+        <v>5.6227088196686058E-2</v>
       </c>
       <c r="BA87" s="10">
         <f t="shared" si="32"/>
-        <v>2.7259015725358066E-2</v>
+        <v>2.9786719599169374E-2</v>
       </c>
       <c r="BB87" s="10">
         <f t="shared" si="33"/>
-        <v>4.0981965764897849E-2</v>
+        <v>4.9255794509121917E-2</v>
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
@@ -10421,63 +10421,63 @@
         <v>2014</v>
       </c>
       <c r="B88" s="12">
-        <v>5.9623998000687743</v>
+        <v>5.9932968436079248</v>
       </c>
       <c r="I88">
         <v>2014</v>
       </c>
       <c r="J88" s="12">
-        <v>-2.9152696547335708</v>
+        <v>-2.9166970712893745</v>
       </c>
       <c r="AH88">
         <v>2014</v>
       </c>
       <c r="AI88" s="10">
         <f t="shared" si="28"/>
-        <v>0.10766715220159147</v>
+        <v>0.12787138328915409</v>
       </c>
       <c r="AJ88" s="10">
         <f t="shared" si="34"/>
-        <v>1.1013952057905157E-3</v>
+        <v>1.1942946066561065E-3</v>
       </c>
       <c r="AK88" s="10">
         <f t="shared" si="35"/>
-        <v>8.0436090764840623E-2</v>
+        <v>9.4985751383479491E-2</v>
       </c>
       <c r="AL88" s="10">
         <f t="shared" si="36"/>
-        <v>4.4441803521464186E-2</v>
+        <v>5.3596988084850646E-2</v>
       </c>
       <c r="AM88" s="10">
         <f t="shared" si="37"/>
-        <v>3.1545796548821086E-4</v>
+        <v>3.5951836771008582E-4</v>
       </c>
       <c r="AN88" s="10">
         <f t="shared" si="38"/>
-        <v>2.4189258945847107E-3</v>
+        <v>8.214264708053089E-4</v>
       </c>
       <c r="AW88">
         <v>2014</v>
       </c>
       <c r="AX88" s="10">
         <f t="shared" si="29"/>
-        <v>1.267880718364117E-3</v>
+        <v>4.5082087274682051E-3</v>
       </c>
       <c r="AY88" s="10">
         <f t="shared" si="30"/>
-        <v>8.3381964876974354E-3</v>
+        <v>8.4140514749794313E-3</v>
       </c>
       <c r="AZ88" s="10">
         <f t="shared" si="31"/>
-        <v>2.4016264170433531E-2</v>
+        <v>1.7579079092480847E-2</v>
       </c>
       <c r="BA88" s="10">
         <f t="shared" si="32"/>
-        <v>3.6644623324527732E-2</v>
+        <v>3.0526167302788679E-2</v>
       </c>
       <c r="BB88" s="10">
         <f t="shared" si="33"/>
-        <v>0.12105638461724895</v>
+        <v>0.12314848570537683</v>
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
@@ -10485,63 +10485,63 @@
         <v>2015</v>
       </c>
       <c r="B89" s="12">
-        <v>5.0965989780444412</v>
+        <v>5.1302980791575914</v>
       </c>
       <c r="I89">
         <v>2015</v>
       </c>
       <c r="J89" s="12">
-        <v>-2.8229796880333375</v>
+        <v>-2.8291810075272203</v>
       </c>
       <c r="AH89">
         <v>2015</v>
       </c>
       <c r="AI89" s="10">
         <f t="shared" si="28"/>
-        <v>6.2198260560454771E-2</v>
+        <v>7.674311022094979E-2</v>
       </c>
       <c r="AJ89" s="10">
         <f t="shared" si="34"/>
-        <v>3.7679363083479756E-3</v>
+        <v>7.5438565716992121E-3</v>
       </c>
       <c r="AK89" s="10">
         <f t="shared" si="35"/>
-        <v>5.9225580510224918E-2</v>
+        <v>6.1605817090948638E-2</v>
       </c>
       <c r="AL89" s="10">
         <f t="shared" si="36"/>
-        <v>2.6992997144703896E-3</v>
+        <v>5.3627063813593053E-4</v>
       </c>
       <c r="AM89" s="10">
         <f t="shared" si="37"/>
-        <v>5.4389063318285998E-4</v>
+        <v>2.0650307740526811E-3</v>
       </c>
       <c r="AN89" s="10">
         <f t="shared" si="38"/>
-        <v>5.0580186434734088E-2</v>
+        <v>5.8498328128083969E-2</v>
       </c>
       <c r="AW89">
         <v>2015</v>
       </c>
       <c r="AX89" s="10">
         <f t="shared" si="29"/>
-        <v>0.14783206643592245</v>
+        <v>0.12260601515762848</v>
       </c>
       <c r="AY89" s="10">
         <f t="shared" si="30"/>
-        <v>7.5558597736161887E-2</v>
+        <v>5.9256929191619463E-2</v>
       </c>
       <c r="AZ89" s="10">
         <f t="shared" si="31"/>
-        <v>3.8785584573912034E-2</v>
+        <v>3.8269014578207458E-2</v>
       </c>
       <c r="BA89" s="10">
         <f t="shared" si="32"/>
-        <v>1.5103501044660753E-2</v>
+        <v>1.0443220540339979E-2</v>
       </c>
       <c r="BB89" s="10">
         <f t="shared" si="33"/>
-        <v>8.5002356577654911E-2</v>
+        <v>7.5896015860983948E-2</v>
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
@@ -10549,30 +10549,30 @@
         <v>2015</v>
       </c>
       <c r="B90" s="12">
-        <v>4.9436936773869409</v>
+        <v>4.9393113683076262</v>
       </c>
       <c r="AW90">
         <v>2016</v>
       </c>
       <c r="AX90" s="10">
         <f t="shared" si="29"/>
-        <v>1.3581977387928129E-5</v>
+        <v>3.3751682383493194E-9</v>
       </c>
       <c r="AY90" s="10">
         <f t="shared" si="30"/>
-        <v>1.4877700597575585E-3</v>
+        <v>5.3553026161702235E-3</v>
       </c>
       <c r="AZ90" s="10">
         <f t="shared" si="31"/>
-        <v>9.1234039079065576E-2</v>
+        <v>7.1951005154682751E-2</v>
       </c>
       <c r="BA90" s="10">
         <f t="shared" si="32"/>
-        <v>1.9953483893703362E-2</v>
+        <v>1.8617270461220668E-2</v>
       </c>
       <c r="BB90" s="10">
         <f t="shared" si="33"/>
-        <v>2.0855066138519853E-3</v>
+        <v>7.3295414336874772E-4</v>
       </c>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.25">
